--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_670.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_670.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d223042-Reviews-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Convention-Center.h529200.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_670.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,2045 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r567956164-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>223042</t>
+  </si>
+  <si>
+    <t>567956164</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Good budget location</t>
+  </si>
+  <si>
+    <t>I stayed here while attending a conference at the Convention Center down the street. The location is convenient, walkable, with a lot of bars and restaurants within easy walking distance. This motel was clean and comfortable. Good option on a budget.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r558894344-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>558894344</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Good value, walking distance to the convention center and LA Live</t>
+  </si>
+  <si>
+    <t>I stayed here during a conference.  Rooms were less than half what hotels close to the convention center were asking.  I was able to walk to the convention center every morning.  The neighborhood is a little blighted, but I felt safe.  After dark, I used Uber just to be cautious.It is about a 20 minute walk to the convention center and it is entirely flat on sidewalks.My room was clean, although a bit spartan.There is no fitness center and the pool is not heated (plus it was locked up during my stay for some reason).  So, walking is the best way to get exercise.The breakfast is standard, low key affair.Shower had hot water, but the shower head was pretty old school.  Small flat screen TV with standard cable channels.Wifi is available.  It is a too slow for streaming movies, but OK for email and browsing the internet.Parking is free which is a huge plus and I felt my car was secure.  I parked it in line of sight of the office figuring the desk clerk would see if anybody was messing with the vehicle.My room was relatively quiet, no big traffic noises and any other guests seemed to be considerate.There is a McDonald's close by as well as a grocery store.  Room has a mini-fridge and a microwave and coffee maker.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here during a conference.  Rooms were less than half what hotels close to the convention center were asking.  I was able to walk to the convention center every morning.  The neighborhood is a little blighted, but I felt safe.  After dark, I used Uber just to be cautious.It is about a 20 minute walk to the convention center and it is entirely flat on sidewalks.My room was clean, although a bit spartan.There is no fitness center and the pool is not heated (plus it was locked up during my stay for some reason).  So, walking is the best way to get exercise.The breakfast is standard, low key affair.Shower had hot water, but the shower head was pretty old school.  Small flat screen TV with standard cable channels.Wifi is available.  It is a too slow for streaming movies, but OK for email and browsing the internet.Parking is free which is a huge plus and I felt my car was secure.  I parked it in line of sight of the office figuring the desk clerk would see if anybody was messing with the vehicle.My room was relatively quiet, no big traffic noises and any other guests seemed to be considerate.There is a McDonald's close by as well as a grocery store.  Room has a mini-fridge and a microwave and coffee maker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r555283938-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555283938</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Fair option close to downtown LA</t>
+  </si>
+  <si>
+    <t>I stayed one night at this basic motel, including free parking in a gated area.  The room looked nice and would have been comfortable but it needed to be aired out a bit as it had a bit of an odd smell. This is a decent economy choice however in a close to downtown area.  The local area around the hotel is not the best, kind of run down but if you dont mind it, you will save a lot of money while being close and having parking.  The rate was fair for everything.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r511488292-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>511488292</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Over Charged - Paid Almost $500 for One Night and No one will fix it!!!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS HOTEL!!!!! We accidentally made a reservation online on 7/10 for a room on 8/13 when we intended for it to be on 7/13. We stayed the night on 7/13, but were charged for both nights. We called numerous times and spoke to at least 3 different staff (Eddie, Mohammad, &amp; Omar) who kept giving us the run around when Eddie finally agreed to give a refund for 8/13 with a $50 penalty. Instead of following through, they charge us yet again for a full night - meaning they have TRIPLE CHARGED us for a ONE NIGHT STAY. I PAID A TOTAL OF $495.82 FOR ONE NIGHT!!!!!! BAD CUSTOMER SERVICE AND THIEVERY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS HOTEL!!!!! We accidentally made a reservation online on 7/10 for a room on 8/13 when we intended for it to be on 7/13. We stayed the night on 7/13, but were charged for both nights. We called numerous times and spoke to at least 3 different staff (Eddie, Mohammad, &amp; Omar) who kept giving us the run around when Eddie finally agreed to give a refund for 8/13 with a $50 penalty. Instead of following through, they charge us yet again for a full night - meaning they have TRIPLE CHARGED us for a ONE NIGHT STAY. I PAID A TOTAL OF $495.82 FOR ONE NIGHT!!!!!! BAD CUSTOMER SERVICE AND THIEVERY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r498405952-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498405952</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel </t>
+  </si>
+  <si>
+    <t>This is our second year staying here for AX. The hotel is clean and Omar at the front desk rocks! We had no issues with parking, and you can't beat the free breakfast and WIFI.We will be booking again for 2018.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r474798506-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>474798506</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>" Barely sufficient"</t>
+  </si>
+  <si>
+    <t>This hotel was infested with bedbugs! The incident in early April was horrible. Wife and daughter were bitten as soon as they climbed into bed - 10:45 at night. Reception told me there was nothing that could be done that night as all rooms were occupied. Told employee to cancel the remainder of my reservation and was told that I would be charged for this evening. Bedbugs were brought in with someone's luggage and nothing could be done about them. We hurriedly packed and moved to another, more expensive hotel.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r439093848-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>439093848</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Good for getting to the Convention Center</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights in mid-November in a room quite close to the breakfast room area.  Room was quiet enough for a city first floor location but a light sleeper might not have been OK with the street noise.  Nice enough room, beds, and bathroom.  Breakfast included a Belgian waffle maker, so that was appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>laconventioninn, Director of Sales at Rodeway Inn Convention Center, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights in mid-November in a room quite close to the breakfast room area.  Room was quiet enough for a city first floor location but a light sleeper might not have been OK with the street noise.  Nice enough room, beds, and bathroom.  Breakfast included a Belgian waffle maker, so that was appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r437927062-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>437927062</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Price was great; clean room</t>
+  </si>
+  <si>
+    <t>My wife and I enjoyed the room.  Yes, a simple motel but the room was very clean, great bed and was close to where we needed to go.  We will stay there again in Sept. 2017.  Free breakfast is decent.  Can't beat the price considering the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>laconventioninn, Director of Sales at Rodeway Inn Convention Center, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I enjoyed the room.  Yes, a simple motel but the room was very clean, great bed and was close to where we needed to go.  We will stay there again in Sept. 2017.  Free breakfast is decent.  Can't beat the price considering the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r437038175-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>437038175</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>close to eateries</t>
+  </si>
+  <si>
+    <t>Location was OK, about 15-20 minutes walking distance to downtown. Bus stop just nearby if you don't want to walk, but metro station around 700 m. Easy to find food as there are lot of small restaurants and fast food. Room and bathroom were quiet, spacious, clean and spotless. AC, microwave and fridge were worked well. Bed was big, clean and comfortableContinental Breakfast was ok and good enough for start the day. Staffs were polite and helpfull.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Location was OK, about 15-20 minutes walking distance to downtown. Bus stop just nearby if you don't want to walk, but metro station around 700 m. Easy to find food as there are lot of small restaurants and fast food. Room and bathroom were quiet, spacious, clean and spotless. AC, microwave and fridge were worked well. Bed was big, clean and comfortableContinental Breakfast was ok and good enough for start the day. Staffs were polite and helpfull.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r410386700-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>410386700</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Just tight!</t>
+  </si>
+  <si>
+    <t>Needed an economical hotel well situated, close to USC and downtown. Decent rooms, pool, wifi, breakfast and free parking. Staff was helpful with directions. Stayed there twice in the last month. Will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Needed an economical hotel well situated, close to USC and downtown. Decent rooms, pool, wifi, breakfast and free parking. Staff was helpful with directions. Stayed there twice in the last month. Will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r408480956-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>408480956</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Not for warm weather</t>
+  </si>
+  <si>
+    <t>When I arrived, traveling solo, I was told I had reservations for two rooms.  It took awhile to straighten that out.  I discovered that the cooling system was not up to the task and asked for another room.  I was told all the rooms are the same as to cooling.  The desk chair was too low and wobbled.  Otherwise the room was up to 2 star standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I arrived, traveling solo, I was told I had reservations for two rooms.  It took awhile to straighten that out.  I discovered that the cooling system was not up to the task and asked for another room.  I was told all the rooms are the same as to cooling.  The desk chair was too low and wobbled.  Otherwise the room was up to 2 star standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r402678254-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>402678254</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Sketchy Hotel in a Scary Neighborhood/Not worth the money</t>
+  </si>
+  <si>
+    <t>I booked this as a Priceline Express deal, so I was not aware of which hotel I would be booking until after I had already paid. The hotel got really good reviews and was convenient to where I needed to be, so I went ahead and booked based off of those things. 
+This neighborhood is rough, and the room does not feel safe. There is no security or anything keeping anyone from the street from coming in. I had to put down an additional $100 damage deposit and sign all of this paperwork saying I would not smoke in the room. The first thing I noticed was the smell of urine on the walkway outside my room and how badly the room reeked of cigarettes. I tried to switch rooms and was told that it would cost extra for me to move to a different room. 
+There was no parking on site, so at the moment, I am illegally parked on property with a hotel receipt in my window, hoping that I do not get towed. Parking in this neighborhood at night was not a good or a safe option. 
+The furniture in the room looks new, and the bed is fairly comfortable, but calling this a 2-star motel is a stretch. Perhaps I just happened to get one of the sketchiest rooms on property and the others are better. I definitely feel ripped off for the price I payed....I booked this as a Priceline Express deal, so I was not aware of which hotel I would be booking until after I had already paid. The hotel got really good reviews and was convenient to where I needed to be, so I went ahead and booked based off of those things. This neighborhood is rough, and the room does not feel safe. There is no security or anything keeping anyone from the street from coming in. I had to put down an additional $100 damage deposit and sign all of this paperwork saying I would not smoke in the room. The first thing I noticed was the smell of urine on the walkway outside my room and how badly the room reeked of cigarettes. I tried to switch rooms and was told that it would cost extra for me to move to a different room. There was no parking on site, so at the moment, I am illegally parked on property with a hotel receipt in my window, hoping that I do not get towed. Parking in this neighborhood at night was not a good or a safe option. The furniture in the room looks new, and the bed is fairly comfortable, but calling this a 2-star motel is a stretch. Perhaps I just happened to get one of the sketchiest rooms on property and the others are better. I definitely feel ripped off for the price I payed. I would not have booked here and paid for the nights in advance had I known.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this as a Priceline Express deal, so I was not aware of which hotel I would be booking until after I had already paid. The hotel got really good reviews and was convenient to where I needed to be, so I went ahead and booked based off of those things. 
+This neighborhood is rough, and the room does not feel safe. There is no security or anything keeping anyone from the street from coming in. I had to put down an additional $100 damage deposit and sign all of this paperwork saying I would not smoke in the room. The first thing I noticed was the smell of urine on the walkway outside my room and how badly the room reeked of cigarettes. I tried to switch rooms and was told that it would cost extra for me to move to a different room. 
+There was no parking on site, so at the moment, I am illegally parked on property with a hotel receipt in my window, hoping that I do not get towed. Parking in this neighborhood at night was not a good or a safe option. 
+The furniture in the room looks new, and the bed is fairly comfortable, but calling this a 2-star motel is a stretch. Perhaps I just happened to get one of the sketchiest rooms on property and the others are better. I definitely feel ripped off for the price I payed....I booked this as a Priceline Express deal, so I was not aware of which hotel I would be booking until after I had already paid. The hotel got really good reviews and was convenient to where I needed to be, so I went ahead and booked based off of those things. This neighborhood is rough, and the room does not feel safe. There is no security or anything keeping anyone from the street from coming in. I had to put down an additional $100 damage deposit and sign all of this paperwork saying I would not smoke in the room. The first thing I noticed was the smell of urine on the walkway outside my room and how badly the room reeked of cigarettes. I tried to switch rooms and was told that it would cost extra for me to move to a different room. There was no parking on site, so at the moment, I am illegally parked on property with a hotel receipt in my window, hoping that I do not get towed. Parking in this neighborhood at night was not a good or a safe option. The furniture in the room looks new, and the bed is fairly comfortable, but calling this a 2-star motel is a stretch. Perhaps I just happened to get one of the sketchiest rooms on property and the others are better. I definitely feel ripped off for the price I payed. I would not have booked here and paid for the nights in advance had I known.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r388307158-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388307158</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Foul souls found here</t>
+  </si>
+  <si>
+    <t>My wife had reserved a room here August 2015 for the weekend of July 1-4 2016.  The day we were suppose to check in they decided to call and leave a message stating my wife's card was declined.  We had not even showed up to check in yet.  In an email they also stated that the room will be held until 7am the next day.
+They left a message at 4:10pm and my wife tried calling at 4:40pm.  They never picked up the phone after 10 minutes of trying.  After ten minutes we finally got a person on the phone, and they stated they had given the room away!! 
+My wife was going to pay 375.26 for 3 nights.  They gave the room away within minutes of alerting my wife of the alleged declined card.  We later verified there was no action on the hotels part to debit her card.
+We were left with burnt emotions and a situation that demands legal action.  They violated their own policies, flat out lied, and probably gave our room to people that gave them more money based on the low price my wife would have paid.  
+Lastly, they showed us they are used to covering their own butt with both hands when they couldn't even produce the last four numbers of my wife's credit card to verify if they still even had the reservation in the system.  
+I honestly don't think these people...My wife had reserved a room here August 2015 for the weekend of July 1-4 2016.  The day we were suppose to check in they decided to call and leave a message stating my wife's card was declined.  We had not even showed up to check in yet.  In an email they also stated that the room will be held until 7am the next day.They left a message at 4:10pm and my wife tried calling at 4:40pm.  They never picked up the phone after 10 minutes of trying.  After ten minutes we finally got a person on the phone, and they stated they had given the room away!! My wife was going to pay 375.26 for 3 nights.  They gave the room away within minutes of alerting my wife of the alleged declined card.  We later verified there was no action on the hotels part to debit her card.We were left with burnt emotions and a situation that demands legal action.  They violated their own policies, flat out lied, and probably gave our room to people that gave them more money based on the low price my wife would have paid.  Lastly, they showed us they are used to covering their own butt with both hands when they couldn't even produce the last four numbers of my wife's credit card to verify if they still even had the reservation in the system.  I honestly don't think these people even have a soul left.  There was at no time during the phone call they even have a crap about the position they put us in.  No attempt to rectify their obvious mistake.  There is no level of apology that will ever fix their attitude or lack of concern for the people they burn.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife had reserved a room here August 2015 for the weekend of July 1-4 2016.  The day we were suppose to check in they decided to call and leave a message stating my wife's card was declined.  We had not even showed up to check in yet.  In an email they also stated that the room will be held until 7am the next day.
+They left a message at 4:10pm and my wife tried calling at 4:40pm.  They never picked up the phone after 10 minutes of trying.  After ten minutes we finally got a person on the phone, and they stated they had given the room away!! 
+My wife was going to pay 375.26 for 3 nights.  They gave the room away within minutes of alerting my wife of the alleged declined card.  We later verified there was no action on the hotels part to debit her card.
+We were left with burnt emotions and a situation that demands legal action.  They violated their own policies, flat out lied, and probably gave our room to people that gave them more money based on the low price my wife would have paid.  
+Lastly, they showed us they are used to covering their own butt with both hands when they couldn't even produce the last four numbers of my wife's credit card to verify if they still even had the reservation in the system.  
+I honestly don't think these people...My wife had reserved a room here August 2015 for the weekend of July 1-4 2016.  The day we were suppose to check in they decided to call and leave a message stating my wife's card was declined.  We had not even showed up to check in yet.  In an email they also stated that the room will be held until 7am the next day.They left a message at 4:10pm and my wife tried calling at 4:40pm.  They never picked up the phone after 10 minutes of trying.  After ten minutes we finally got a person on the phone, and they stated they had given the room away!! My wife was going to pay 375.26 for 3 nights.  They gave the room away within minutes of alerting my wife of the alleged declined card.  We later verified there was no action on the hotels part to debit her card.We were left with burnt emotions and a situation that demands legal action.  They violated their own policies, flat out lied, and probably gave our room to people that gave them more money based on the low price my wife would have paid.  Lastly, they showed us they are used to covering their own butt with both hands when they couldn't even produce the last four numbers of my wife's credit card to verify if they still even had the reservation in the system.  I honestly don't think these people even have a soul left.  There was at no time during the phone call they even have a crap about the position they put us in.  No attempt to rectify their obvious mistake.  There is no level of apology that will ever fix their attitude or lack of concern for the people they burn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r387452315-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>387452315</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Not on the list</t>
+  </si>
+  <si>
+    <t>Travel 4-5 times a year for business. Stays average 4 days. Sometimes up to several weeks.Road noise is loud on W. Olympic Blvd. Air conditioner is loud, but if you don't use it the room is hot and stuffy. Water on floor from improperly installed shower curtain. Breakfast choice is limited. No pastries! Window shutters don't block-out street light, so we hung a cloth over the shutters. No laundry facility. Elevator slow and noisy, so took the stairs. Stairwell is dirty, and unsecured against street traffic. For the price, I expected more...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Travel 4-5 times a year for business. Stays average 4 days. Sometimes up to several weeks.Road noise is loud on W. Olympic Blvd. Air conditioner is loud, but if you don't use it the room is hot and stuffy. Water on floor from improperly installed shower curtain. Breakfast choice is limited. No pastries! Window shutters don't block-out street light, so we hung a cloth over the shutters. No laundry facility. Elevator slow and noisy, so took the stairs. Stairwell is dirty, and unsecured against street traffic. For the price, I expected more...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r384936165-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>384936165</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Will stay again</t>
+  </si>
+  <si>
+    <t>The pictures online were right on point. After a 6 hours or more on the road it was refreshing to see a friendly, smiling face to check in. The check in was at 3 but the room was ready so he most graciously let us going in at 1Pm. The room was clean and smelled clean! spacious rooms with budget price.  I would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The pictures online were right on point. After a 6 hours or more on the road it was refreshing to see a friendly, smiling face to check in. The check in was at 3 but the room was ready so he most graciously let us going in at 1Pm. The room was clean and smelled clean! spacious rooms with budget price.  I would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r358471233-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>358471233</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>Came down to LA for a Laker's game with a few friends. Great location right down the street from Staples Center. The rooms were comfortable and clean. The continental breakfast in the morning was an added bonus!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Came down to LA for a Laker's game with a few friends. Great location right down the street from Staples Center. The rooms were comfortable and clean. The continental breakfast in the morning was an added bonus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r356616955-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>356616955</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Looks good</t>
+  </si>
+  <si>
+    <t>Outside looks good. Convenient location, walking distance to Convention center. Near couple of restaurants. Staff is polite and courteous. Room with access to the backyard is quiet. But in same place birds is very noisy on morning. Moreover the entrance door of room open to outside and carpet is dirty near door. In the rest room is not bad, towels and bed line were clean. Room has refrigerator that was very helpful. Breakfast, assortment of meal was good but room for breakfast and tables are small.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Outside looks good. Convenient location, walking distance to Convention center. Near couple of restaurants. Staff is polite and courteous. Room with access to the backyard is quiet. But in same place birds is very noisy on morning. Moreover the entrance door of room open to outside and carpet is dirty near door. In the rest room is not bad, towels and bed line were clean. Room has refrigerator that was very helpful. Breakfast, assortment of meal was good but room for breakfast and tables are small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r355996558-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>355996558</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>the room was big and clean, the situation is perfect, about 15-20min of the convention center (and staples center) by feet. The service was good as well and flexible. Just for the breakfast, there wasn't o lot of choice. but sometimes in the morning you can hear birds ^^MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>the room was big and clean, the situation is perfect, about 15-20min of the convention center (and staples center) by feet. The service was good as well and flexible. Just for the breakfast, there wasn't o lot of choice. but sometimes in the morning you can hear birds ^^More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r345633312-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>345633312</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Walking distance to downtown/convention centre</t>
+  </si>
+  <si>
+    <t>We (two families) stayed here in mid January. A great AAA rate of $100, we wanted somewhere that was close to public transit and downtown. This fitted the need.Basic rooms that were comfortable and clean. We were on the rear of the hotel away from the front street traffic noise. See if you can get the same.You may feel uneasy with the neighbourhood. But just keep alert and to yourself and there will be no trouble. The parking lot is pretty tight and fills up so if you have a space leave the car in it and walk somewhere for supper.Breakfast room is very small so get your selection and go elsewhere to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>We (two families) stayed here in mid January. A great AAA rate of $100, we wanted somewhere that was close to public transit and downtown. This fitted the need.Basic rooms that were comfortable and clean. We were on the rear of the hotel away from the front street traffic noise. See if you can get the same.You may feel uneasy with the neighbourhood. But just keep alert and to yourself and there will be no trouble. The parking lot is pretty tight and fills up so if you have a space leave the car in it and walk somewhere for supper.Breakfast room is very small so get your selection and go elsewhere to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r338153083-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>338153083</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>New Years</t>
+  </si>
+  <si>
+    <t>Nothing fancy but had what we needed.  Went to a show at Staples Center and was within walking distance when cabs and Uber were unavailable.  I'd recommend as an inexpensive or short stay option.  Rodeway provides onsite parking which is a plus in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Nothing fancy but had what we needed.  Went to a show at Staples Center and was within walking distance when cabs and Uber were unavailable.  I'd recommend as an inexpensive or short stay option.  Rodeway provides onsite parking which is a plus in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r333581011-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>333581011</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Small, clean, comfortable rooms</t>
+  </si>
+  <si>
+    <t>Stayed four days at Thanksgiving, 2015, and was pleased with the room. Staff helpful. Elevators and grounds worn. Breakfast room small, but had the basics. Would benefit from some upgrades to breakfast such as eggs and meat.The advantage of the hotel for us was the closeness to our daughter who lives downtown in a loft. Convenient.Would not suggest walking the streets at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed four days at Thanksgiving, 2015, and was pleased with the room. Staff helpful. Elevators and grounds worn. Breakfast room small, but had the basics. Would benefit from some upgrades to breakfast such as eggs and meat.The advantage of the hotel for us was the closeness to our daughter who lives downtown in a loft. Convenient.Would not suggest walking the streets at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r322929535-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>322929535</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Attracted by appearance of good value</t>
+  </si>
+  <si>
+    <t>Attended Tony Robbins event multiple days at LA Convention Center with pre-paid late checkin. Outside office and attendant would not open glass door upon arrival as on phone. Saw me clearly but no acknowledgment. Given tiny ground floor queen room with outside door easily accessible from street that is unfortunately in area with significant homeless problem. Be forewarned security is a major issue at this property. 
+Tiny box room was cosmetically upgraded; paint, carpet, etc. but felt old and mouldy. A/C noisy and blew directly to bed a few feet away, could not adjust. Roll-in shower leaked to main bathroom floor with mirror tilted down so had to bend down to see it. Toilet plugged with no plunger. 
+Breakfast was sparse and ended up eating at McDonalds which is 2 minute walk. Was confronted one evening by aggressive party after I left there and stopped to feed a homeless person sleeping on sidewalk. You really have to watch your back at night in this neighbourhood. 
+If you do not have a car and want to access downtown at night including Staples Center, LA Zone or Convention Center; for your safety it is best to take the #28 bus on Olympic Blvd which will take you approximately one mile to Figueroa Street. I did it several times and for $1.75 it is money well spent and buses run late.
+If you are coming from LAX to Downtown LA I highly recommend...Attended Tony Robbins event multiple days at LA Convention Center with pre-paid late checkin. Outside office and attendant would not open glass door upon arrival as on phone. Saw me clearly but no acknowledgment. Given tiny ground floor queen room with outside door easily accessible from street that is unfortunately in area with significant homeless problem. Be forewarned security is a major issue at this property. Tiny box room was cosmetically upgraded; paint, carpet, etc. but felt old and mouldy. A/C noisy and blew directly to bed a few feet away, could not adjust. Roll-in shower leaked to main bathroom floor with mirror tilted down so had to bend down to see it. Toilet plugged with no plunger. Breakfast was sparse and ended up eating at McDonalds which is 2 minute walk. Was confronted one evening by aggressive party after I left there and stopped to feed a homeless person sleeping on sidewalk. You really have to watch your back at night in this neighbourhood. If you do not have a car and want to access downtown at night including Staples Center, LA Zone or Convention Center; for your safety it is best to take the #28 bus on Olympic Blvd which will take you approximately one mile to Figueroa Street. I did it several times and for $1.75 it is money well spent and buses run late.If you are coming from LAX to Downtown LA I highly recommend you use the Union Station Flyaway Bus which you can pickup outside. You pay when you arrive at Union Station and need credit card. $8.00 gets you downtown and take the Red Line Metro Rail downstairs (3 stops) to 7th Street Metro Center Station for $1.75. Keep your ticket and walk down to Olympic Blvd and use to take #28 bus to property.To access metro rail you need to purchase a tap card downstairs from machine for $1.25 and you will need to load it with another $1.75 for the rail trip and extra money for the return or for multiple bus trips (note buses also take cash but the tap card is easier).Had friends use shuttle services from LAX that stopped at multiple hotels and took three hours. I arrived and returned to LAX in 40 minutes. Really a great service for anyone going downtown without a car on nice big bus. Over-all was attracted to this hotel because it appeared to offer the best value for money. And as I didn't have a car I wanted to be within walking distance to the Convention Center, but the lesson I learned is sometimes it is better to pay more especially in Downtown LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Attended Tony Robbins event multiple days at LA Convention Center with pre-paid late checkin. Outside office and attendant would not open glass door upon arrival as on phone. Saw me clearly but no acknowledgment. Given tiny ground floor queen room with outside door easily accessible from street that is unfortunately in area with significant homeless problem. Be forewarned security is a major issue at this property. 
+Tiny box room was cosmetically upgraded; paint, carpet, etc. but felt old and mouldy. A/C noisy and blew directly to bed a few feet away, could not adjust. Roll-in shower leaked to main bathroom floor with mirror tilted down so had to bend down to see it. Toilet plugged with no plunger. 
+Breakfast was sparse and ended up eating at McDonalds which is 2 minute walk. Was confronted one evening by aggressive party after I left there and stopped to feed a homeless person sleeping on sidewalk. You really have to watch your back at night in this neighbourhood. 
+If you do not have a car and want to access downtown at night including Staples Center, LA Zone or Convention Center; for your safety it is best to take the #28 bus on Olympic Blvd which will take you approximately one mile to Figueroa Street. I did it several times and for $1.75 it is money well spent and buses run late.
+If you are coming from LAX to Downtown LA I highly recommend...Attended Tony Robbins event multiple days at LA Convention Center with pre-paid late checkin. Outside office and attendant would not open glass door upon arrival as on phone. Saw me clearly but no acknowledgment. Given tiny ground floor queen room with outside door easily accessible from street that is unfortunately in area with significant homeless problem. Be forewarned security is a major issue at this property. Tiny box room was cosmetically upgraded; paint, carpet, etc. but felt old and mouldy. A/C noisy and blew directly to bed a few feet away, could not adjust. Roll-in shower leaked to main bathroom floor with mirror tilted down so had to bend down to see it. Toilet plugged with no plunger. Breakfast was sparse and ended up eating at McDonalds which is 2 minute walk. Was confronted one evening by aggressive party after I left there and stopped to feed a homeless person sleeping on sidewalk. You really have to watch your back at night in this neighbourhood. If you do not have a car and want to access downtown at night including Staples Center, LA Zone or Convention Center; for your safety it is best to take the #28 bus on Olympic Blvd which will take you approximately one mile to Figueroa Street. I did it several times and for $1.75 it is money well spent and buses run late.If you are coming from LAX to Downtown LA I highly recommend you use the Union Station Flyaway Bus which you can pickup outside. You pay when you arrive at Union Station and need credit card. $8.00 gets you downtown and take the Red Line Metro Rail downstairs (3 stops) to 7th Street Metro Center Station for $1.75. Keep your ticket and walk down to Olympic Blvd and use to take #28 bus to property.To access metro rail you need to purchase a tap card downstairs from machine for $1.25 and you will need to load it with another $1.75 for the rail trip and extra money for the return or for multiple bus trips (note buses also take cash but the tap card is easier).Had friends use shuttle services from LAX that stopped at multiple hotels and took three hours. I arrived and returned to LAX in 40 minutes. Really a great service for anyone going downtown without a car on nice big bus. Over-all was attracted to this hotel because it appeared to offer the best value for money. And as I didn't have a car I wanted to be within walking distance to the Convention Center, but the lesson I learned is sometimes it is better to pay more especially in Downtown LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r321440527-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>321440527</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Great Value, would stay here again</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff. Rooms were clean and looked newly updated. Good lighting in the bathroom. Comfortable bed and pillows. Curved shower curtain rod. Convenience store near by. LA Live in walking distance. Free parking (some spaces are covered). Would stay here again! Don't over pay to stay by the convention center; this place is a great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded January 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2016</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff. Rooms were clean and looked newly updated. Good lighting in the bathroom. Comfortable bed and pillows. Curved shower curtain rod. Convenience store near by. LA Live in walking distance. Free parking (some spaces are covered). Would stay here again! Don't over pay to stay by the convention center; this place is a great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r296435481-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>296435481</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Definite improvement!</t>
+  </si>
+  <si>
+    <t>I had wrote this place a bad review about 4 yrs ago. Completely remodeled, nicer front desk, rooms up to date, and CLEAN. Last time i stayed there was mold and dirt. I am so pleased that i had to update! Glad i gave this place a second chance. The pregnant lady who checked me in was such a delight! Nice and talkative. Exactly how front desk should be. I'm on a discount and felt like i was still getting a good room. Internet was fast, and the fridge and microwave was great. Mrs. Pimentel here will be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>I had wrote this place a bad review about 4 yrs ago. Completely remodeled, nicer front desk, rooms up to date, and CLEAN. Last time i stayed there was mold and dirt. I am so pleased that i had to update! Glad i gave this place a second chance. The pregnant lady who checked me in was such a delight! Nice and talkative. Exactly how front desk should be. I'm on a discount and felt like i was still getting a good room. Internet was fast, and the fridge and microwave was great. Mrs. Pimentel here will be back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r288692041-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>288692041</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>I was in the area with my dad for a convention at the LACC, and this was the best value within walking distance of the convention center. It also included all of my essentials, such as cleanliness, mini-fridge for storing food and topical medicines, microwave, free breakfast and free parking. Although parking is limited so try to get there at the right time to get a spot, and then walk to and from your destination. 
+The food was basic but there were enough options for me (although I do wish that hotels wouldn't use pancake batter for waffle mix; they are not the same). Food is mostly waffles, cereal, toast, bagels, fruit, yogurt and few other things. No eggs or sausage (not that I minded, but some people do). 
+I will say this though about the noise, since it was 4th of July weekend, their were people setting off illegal fireworks sporadically all around a 1 mile radius and I swear they didn't stop until after 1am. So the noise was annoying, but it's not the hotel's fault for that. 
+The room was relatively small, but reasonable modern, and clean. The bed is firm, but not harsh (slept better there than a previous LA hotel I've stayed), and there's enough counter space for my toiletries. I didn't watch any TV and only my dad used the WiFi (I was busy getting ready for the convention). My dad didn't figure out...I was in the area with my dad for a convention at the LACC, and this was the best value within walking distance of the convention center. It also included all of my essentials, such as cleanliness, mini-fridge for storing food and topical medicines, microwave, free breakfast and free parking. Although parking is limited so try to get there at the right time to get a spot, and then walk to and from your destination. The food was basic but there were enough options for me (although I do wish that hotels wouldn't use pancake batter for waffle mix; they are not the same). Food is mostly waffles, cereal, toast, bagels, fruit, yogurt and few other things. No eggs or sausage (not that I minded, but some people do). I will say this though about the noise, since it was 4th of July weekend, their were people setting off illegal fireworks sporadically all around a 1 mile radius and I swear they didn't stop until after 1am. So the noise was annoying, but it's not the hotel's fault for that. The room was relatively small, but reasonable modern, and clean. The bed is firm, but not harsh (slept better there than a previous LA hotel I've stayed), and there's enough counter space for my toiletries. I didn't watch any TV and only my dad used the WiFi (I was busy getting ready for the convention). My dad didn't figure out the AC well the first night because the lettering was a bit worn and he only set it to "fan" rather than "fan cool" (so the first night wasn't cool enough); but he did figure it out (he originally thought it was broken). I was surprised at the price considering the location, but it was definitely the best price with walking distance of the convention center (although, after a full day of fun, that 1.1 mile walk can seem a bit long). The place suited my needs and I would recommend this place to others for bargain values. I may stay here again next year if my schedule allows and if my dad doesn't decide to upgrade to somewhere closer (naturally he can afford it more than me); but we'll see. When we came back each night the towels were replaced; our stuff wasn't messed with, and the place was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>I was in the area with my dad for a convention at the LACC, and this was the best value within walking distance of the convention center. It also included all of my essentials, such as cleanliness, mini-fridge for storing food and topical medicines, microwave, free breakfast and free parking. Although parking is limited so try to get there at the right time to get a spot, and then walk to and from your destination. 
+The food was basic but there were enough options for me (although I do wish that hotels wouldn't use pancake batter for waffle mix; they are not the same). Food is mostly waffles, cereal, toast, bagels, fruit, yogurt and few other things. No eggs or sausage (not that I minded, but some people do). 
+I will say this though about the noise, since it was 4th of July weekend, their were people setting off illegal fireworks sporadically all around a 1 mile radius and I swear they didn't stop until after 1am. So the noise was annoying, but it's not the hotel's fault for that. 
+The room was relatively small, but reasonable modern, and clean. The bed is firm, but not harsh (slept better there than a previous LA hotel I've stayed), and there's enough counter space for my toiletries. I didn't watch any TV and only my dad used the WiFi (I was busy getting ready for the convention). My dad didn't figure out...I was in the area with my dad for a convention at the LACC, and this was the best value within walking distance of the convention center. It also included all of my essentials, such as cleanliness, mini-fridge for storing food and topical medicines, microwave, free breakfast and free parking. Although parking is limited so try to get there at the right time to get a spot, and then walk to and from your destination. The food was basic but there were enough options for me (although I do wish that hotels wouldn't use pancake batter for waffle mix; they are not the same). Food is mostly waffles, cereal, toast, bagels, fruit, yogurt and few other things. No eggs or sausage (not that I minded, but some people do). I will say this though about the noise, since it was 4th of July weekend, their were people setting off illegal fireworks sporadically all around a 1 mile radius and I swear they didn't stop until after 1am. So the noise was annoying, but it's not the hotel's fault for that. The room was relatively small, but reasonable modern, and clean. The bed is firm, but not harsh (slept better there than a previous LA hotel I've stayed), and there's enough counter space for my toiletries. I didn't watch any TV and only my dad used the WiFi (I was busy getting ready for the convention). My dad didn't figure out the AC well the first night because the lettering was a bit worn and he only set it to "fan" rather than "fan cool" (so the first night wasn't cool enough); but he did figure it out (he originally thought it was broken). I was surprised at the price considering the location, but it was definitely the best price with walking distance of the convention center (although, after a full day of fun, that 1.1 mile walk can seem a bit long). The place suited my needs and I would recommend this place to others for bargain values. I may stay here again next year if my schedule allows and if my dad doesn't decide to upgrade to somewhere closer (naturally he can afford it more than me); but we'll see. When we came back each night the towels were replaced; our stuff wasn't messed with, and the place was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r284847333-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>284847333</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Budget hotel in downtown</t>
+  </si>
+  <si>
+    <t>Good place to stay in LA downtown without breaking the bank. Room was spacious, ours was on the first floor with two twin beds. Close to staples centres and some restaurants are pretty close by. 10-15 mins walk from nearest subway station.Parking and wifi are free. Pool is quite small. Breakfast was ok, not many options but as you expect from a budget hotel in downtownMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Good place to stay in LA downtown without breaking the bank. Room was spacious, ours was on the first floor with two twin beds. Close to staples centres and some restaurants are pretty close by. 10-15 mins walk from nearest subway station.Parking and wifi are free. Pool is quite small. Breakfast was ok, not many options but as you expect from a budget hotel in downtownMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r281617246-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>281617246</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Good for budget and for sleep.</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel, and the service here continues to amaze me. Upon arrival this we requested the same room as last year. At first, they informe us that it may not be possible. However, after a few short calls they managed to give us the room we wanted. They were always polite and made sure had everything we needed to enjoy our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel, and the service here continues to amaze me. Upon arrival this we requested the same room as last year. At first, they informe us that it may not be possible. However, after a few short calls they managed to give us the room we wanted. They were always polite and made sure had everything we needed to enjoy our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r271244714-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>271244714</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Perfect budget hotel to stay in Downtown</t>
+  </si>
+  <si>
+    <t>This was our family visit to Los Angeles during April 2015. though, I don't often write reviews, but felt I must jot down my experience in this instance. To say in a nutshell, We had the best experience at this hotel. A special mention about the most helpful and fantastic person we met during our entire US tour was the front office manager, Mr Bobby. Right from my booking stage even before arriving at LA, this gentleman guided us thoroughly and very professionally. I must compliment the hotel management for having such a fine professorial like Mr Bobby in their team. He was fast, highly professional and very friendly. As we were likely to reach the hotel at the most inconvenient time, that is , past mid night, Bobby helped us throughout the night getting settled and provided us with the information we needed about the area we were in. The room was perfect for our family's needs, had a refrigerator , microwave oven etc clean and comfortable too! The morning staff  was also very friendly and efficient. The hotel is about 10 minutes walk from the nearest Subway stop, however, my advice would be to hire a car for yourself. Thank you Mr Bobby and all other staff for helping us through out our stay in your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>This was our family visit to Los Angeles during April 2015. though, I don't often write reviews, but felt I must jot down my experience in this instance. To say in a nutshell, We had the best experience at this hotel. A special mention about the most helpful and fantastic person we met during our entire US tour was the front office manager, Mr Bobby. Right from my booking stage even before arriving at LA, this gentleman guided us thoroughly and very professionally. I must compliment the hotel management for having such a fine professorial like Mr Bobby in their team. He was fast, highly professional and very friendly. As we were likely to reach the hotel at the most inconvenient time, that is , past mid night, Bobby helped us throughout the night getting settled and provided us with the information we needed about the area we were in. The room was perfect for our family's needs, had a refrigerator , microwave oven etc clean and comfortable too! The morning staff  was also very friendly and efficient. The hotel is about 10 minutes walk from the nearest Subway stop, however, my advice would be to hire a car for yourself. Thank you Mr Bobby and all other staff for helping us through out our stay in your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r270060933-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>270060933</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>A place to crash after work</t>
+  </si>
+  <si>
+    <t>I stayed here for five nights while working at the convention center. The rooms are very nice, the bed comfortable and the staff super friendly. Breakfast was surprisingly good too - not just the coffee and muffins you'd expect, but a nice selection of things. The people staying here kept to themselves - never did I hear any loud noises or partying. And if you pick a room facing the back, it's pretty quiet too. (well, an urban kind of quiet anyway. Sirens and helicopters are a given)There is a pretty good Thai restaurant right next to the hotel, also a Pollo Loco and a little Taco place. Really the only thing wrong with the place is where it's at. I walked the 25 min to the convention center the first morning, and while it did not feel in any way unsafe, I found it extremely depressing. The grime and trash, the graffiti, the homeless camps. Stench of urine wafting from the alleys. Good news is, you can bypass most of it for just $1.75 by hopping on the 28 bus. You can get off either at Olympic and Figuerova or a stop earlier at Olympic and Georgia. I found the latter to be a bit shorter, cutting through the back way. Would I recommend the hotel? Sure, to other budget minded people who are unfortunate enough to have some business in downtown LA. Not for a family vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for five nights while working at the convention center. The rooms are very nice, the bed comfortable and the staff super friendly. Breakfast was surprisingly good too - not just the coffee and muffins you'd expect, but a nice selection of things. The people staying here kept to themselves - never did I hear any loud noises or partying. And if you pick a room facing the back, it's pretty quiet too. (well, an urban kind of quiet anyway. Sirens and helicopters are a given)There is a pretty good Thai restaurant right next to the hotel, also a Pollo Loco and a little Taco place. Really the only thing wrong with the place is where it's at. I walked the 25 min to the convention center the first morning, and while it did not feel in any way unsafe, I found it extremely depressing. The grime and trash, the graffiti, the homeless camps. Stench of urine wafting from the alleys. Good news is, you can bypass most of it for just $1.75 by hopping on the 28 bus. You can get off either at Olympic and Figuerova or a stop earlier at Olympic and Georgia. I found the latter to be a bit shorter, cutting through the back way. Would I recommend the hotel? Sure, to other budget minded people who are unfortunate enough to have some business in downtown LA. Not for a family vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r266845994-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>266845994</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Dodger game</t>
+  </si>
+  <si>
+    <t>Very conveniently located. Near Staples Center and Nokia Theater. Short drive to Doger stadium. The staff was very hospitable and the rooms were very clean.  The  only issue really was the parking. There were plenty of stalls but other guests decided they needed 2. Other than that we liked it.MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Very conveniently located. Near Staples Center and Nokia Theater. Short drive to Doger stadium. The staff was very hospitable and the rooms were very clean.  The  only issue really was the parking. There were plenty of stalls but other guests decided they needed 2. Other than that we liked it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r261376650-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>261376650</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Well maintaied and good service</t>
+  </si>
+  <si>
+    <t>This hotel was close to the Los Angeles convention center. The staff is friendly and the hotel is well maintained. Front desk was good and always courteous. Good business hotel and recommended to stay if visitng the LA convention center.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This hotel was close to the Los Angeles convention center. The staff is friendly and the hotel is well maintained. Front desk was good and always courteous. Good business hotel and recommended to stay if visitng the LA convention center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r253893911-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>253893911</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Nice Gem in the Rough</t>
+  </si>
+  <si>
+    <t>My husband and I were very surprised to find this lovely quaint hotel near downtown L.A  We were attending the Night on Broadway event on Jan. 31st.  The hotel was very clean--even the hallway. There is a great Mexican Restaurant within walking distance.  The staff was very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded February 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I were very surprised to find this lovely quaint hotel near downtown L.A  We were attending the Night on Broadway event on Jan. 31st.  The hotel was very clean--even the hallway. There is a great Mexican Restaurant within walking distance.  The staff was very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r250708013-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>250708013</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I don't often write reviews, but felt I should in this instance.  We had the best experience at this hotel.  We were a walk-in (no prior reservation) and the evening staff person (Jason) was such a big help to us. He was fast, professional and friendly.  Jason helped us throughout the evening getting settled and provided us with the information we needed about the area we were in. The room was perfect for our family's needs, roomy, clean and comfortable too!  The morning staff (Alamin) was just as friendly and efficient!  He assisted us with our boarding passes and of course offered us up delicious hot coffee in their lobby!  Thank you Jason and Alamin for helping us through our last minute stay at your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded January 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2015</t>
+  </si>
+  <si>
+    <t>I don't often write reviews, but felt I should in this instance.  We had the best experience at this hotel.  We were a walk-in (no prior reservation) and the evening staff person (Jason) was such a big help to us. He was fast, professional and friendly.  Jason helped us throughout the evening getting settled and provided us with the information we needed about the area we were in. The room was perfect for our family's needs, roomy, clean and comfortable too!  The morning staff (Alamin) was just as friendly and efficient!  He assisted us with our boarding passes and of course offered us up delicious hot coffee in their lobby!  Thank you Jason and Alamin for helping us through our last minute stay at your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r247444280-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>247444280</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Great Value and convenient to downtown LA</t>
+  </si>
+  <si>
+    <t>This hotel is a great value. Very well kept, nice but smaller rooms and property is secure for guests. This is about 10 blocks from LA Live, Staples Center and walkable but neighborhood along Olympic might give some concern. Bus available as well as cabs though distance is short. We felt the well kept condition and proximity to downtown LA made the choice a great value and we would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>This hotel is a great value. Very well kept, nice but smaller rooms and property is secure for guests. This is about 10 blocks from LA Live, Staples Center and walkable but neighborhood along Olympic might give some concern. Bus available as well as cabs though distance is short. We felt the well kept condition and proximity to downtown LA made the choice a great value and we would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r246120518-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>246120518</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Scary Place - Rude, Inconsiderate Clerk</t>
+  </si>
+  <si>
+    <t>Unsafe. Dirty. Avoid if you're smart. This hotel does not have enough parking, as advertised. My family had to park blocks away after driving around and around a neighborhood ridden with prostitutes and drug addicts - not things I wanted my child to see on a family vacation. When we finally did find a parking space, we found human excrement on the curb next to the car.  I would suggest that hotel staff park THEIR cars on the street and get rid of their reserved spaces. The front desk clerk was rude about the whole thing, and recommended I park my car in an illegal space.  I will never stay here again. I would be afraid to.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Unsafe. Dirty. Avoid if you're smart. This hotel does not have enough parking, as advertised. My family had to park blocks away after driving around and around a neighborhood ridden with prostitutes and drug addicts - not things I wanted my child to see on a family vacation. When we finally did find a parking space, we found human excrement on the curb next to the car.  I would suggest that hotel staff park THEIR cars on the street and get rid of their reserved spaces. The front desk clerk was rude about the whole thing, and recommended I park my car in an illegal space.  I will never stay here again. I would be afraid to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r244296084-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>244296084</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>BEWARE! CASH DEPOSIT ON a 3 night stay STOLEN BY MOTEL!!!!</t>
+  </si>
+  <si>
+    <t>ON 9/27/14 I walked close to midnight - the attendant Jasmin was a lovely Indian girl.  She was very professional, we talked about lobby being very warm, she turned fan while completing my transaction for a 2 night stay.  She asked for a credit card. My card did not go through. So I paid CASH, she said the total would include an additional $100 for incidentals. I had to physically go to my car, and get more cash. I returned with a crisp $100 bill i had gotten from my bank in my home town.  I "assumed" my deposit would be recorded in the computer as any other REPUTABLE hotel would do.  My mistake I did not get a receipt.  After my second night, I asked to extend my stay for a 3rd night - which I was asked to also pay cash. I distinctly asked the attendant if I needed to pay additional for incidentals.  I was told "NO - Your 100 dollars cash will be good."  
+Day of check out on 9/29/2014 I had to rush out of hotel to make my appointment! I left and forgot to stop by front desk to get my deposit back.  I NEVER pay cash for incidentals, and completely forgot.   It wasn't until a few weeks later that I had to travel elsewhere that during my check in at another hotel I REMEMBERED I HAD NEVER CLAIMED MY CASH DEPOSIT FROM my...ON 9/27/14 I walked close to midnight - the attendant Jasmin was a lovely Indian girl.  She was very professional, we talked about lobby being very warm, she turned fan while completing my transaction for a 2 night stay.  She asked for a credit card. My card did not go through. So I paid CASH, she said the total would include an additional $100 for incidentals. I had to physically go to my car, and get more cash. I returned with a crisp $100 bill i had gotten from my bank in my home town.  I "assumed" my deposit would be recorded in the computer as any other REPUTABLE hotel would do.  My mistake I did not get a receipt.  After my second night, I asked to extend my stay for a 3rd night - which I was asked to also pay cash. I distinctly asked the attendant if I needed to pay additional for incidentals.  I was told "NO - Your 100 dollars cash will be good."  Day of check out on 9/29/2014 I had to rush out of hotel to make my appointment! I left and forgot to stop by front desk to get my deposit back.  I NEVER pay cash for incidentals, and completely forgot.   It wasn't until a few weeks later that I had to travel elsewhere that during my check in at another hotel I REMEMBERED I HAD NEVER CLAIMED MY CASH DEPOSIT FROM my last stay at the Rodeway Inn LA Convention Center.  I immediately called, attendant looked in the computer, and said was very busy with customers at the counter but would get back to me. He never did.  I called back.  He said, "I didn't find any money in your account."  I left an urgent message on Azad the Manager's cell # which he never replied to.  Instead I received a COOKED INVOICE of my stay at this property showing payment for the 3 nights CASH, CASH, CASH.  Interestingly?  NO RECORD OF A CASH DEPOSIT is listed on my receipt.  Suspicious as heck, because NEVER in my life *think about your experiences* have I ever been allowed to check into a room WITHOUT a credit card deposit for incidentals.  THIS WAS MY FIRST TIME my credit card did not go through due to a bank error neverthe less, the attendant Jasmin repeated to me "it is POLICY and we need a 100.00 DEPOSIT if you are paying cash."   Boy, do I wish I would have gotten a receipt.     So I have reported this property to the Chamber of Commerce, the IRS, and local police authorities.  THIS PROPERTY NEEDS TO BE INVESTIGATED - and Azad, the Manager - if you have nothing to hide, why do you remain silent ? NOT ONE PHONE CALL, NOT ONE EMAIL from you acknowledging my concern and my money.  Was it worth keeping my $100? and from one loyal customer whose past review talked about your property as "my home away from home?" Whose first pick when I came to LA was this property?   It is extremely hurtful and I feel taken advantage of.  NO EFFORTS have been made by this property to "investigate" my concern.  I have simply been given the COLD SHOULDER.  Was it worth $100.00 ? I cautione EVERYONE strongly to look elsewhere for a room stay.  It is SHAMEFUL they think they can stiff a loyal customer.  (Sadly their housekeeping crew is more honest than management and front desk! ) I have left stuff behind and they turned it in.  LEARN a lesson from your own Housekeeping staff, and SHOW THE COURTESY and HONESTY to investigate on your own … perhaps one of your attendants pocketed my money? Is it in your safe unclaimed?  I am going to hope you do find the money for your own sake because if you have an employee or a manager who is pocketing your customers' cash YOUR PROPERTY'S REPUTATION is at stake.  CHOICE HOTELS…. If this is a FRANCHISE, YOUR NAME IS AT STAKE HERE.  I N V E S T I G A T E this property soon! I know there are cameras in that place. Surely especially ona midnight check in you must have PROOF of me coming in, going out to my car, returning both times door was locked and Jasmin had to open the door.  OH yes, fyi, Jasmin no longer works there, I was told.   I expect to hear from CHOICE HOTELS CORPORATE given that Azad, Mgr. is too busy or to address my concern.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>ON 9/27/14 I walked close to midnight - the attendant Jasmin was a lovely Indian girl.  She was very professional, we talked about lobby being very warm, she turned fan while completing my transaction for a 2 night stay.  She asked for a credit card. My card did not go through. So I paid CASH, she said the total would include an additional $100 for incidentals. I had to physically go to my car, and get more cash. I returned with a crisp $100 bill i had gotten from my bank in my home town.  I "assumed" my deposit would be recorded in the computer as any other REPUTABLE hotel would do.  My mistake I did not get a receipt.  After my second night, I asked to extend my stay for a 3rd night - which I was asked to also pay cash. I distinctly asked the attendant if I needed to pay additional for incidentals.  I was told "NO - Your 100 dollars cash will be good."  
+Day of check out on 9/29/2014 I had to rush out of hotel to make my appointment! I left and forgot to stop by front desk to get my deposit back.  I NEVER pay cash for incidentals, and completely forgot.   It wasn't until a few weeks later that I had to travel elsewhere that during my check in at another hotel I REMEMBERED I HAD NEVER CLAIMED MY CASH DEPOSIT FROM my...ON 9/27/14 I walked close to midnight - the attendant Jasmin was a lovely Indian girl.  She was very professional, we talked about lobby being very warm, she turned fan while completing my transaction for a 2 night stay.  She asked for a credit card. My card did not go through. So I paid CASH, she said the total would include an additional $100 for incidentals. I had to physically go to my car, and get more cash. I returned with a crisp $100 bill i had gotten from my bank in my home town.  I "assumed" my deposit would be recorded in the computer as any other REPUTABLE hotel would do.  My mistake I did not get a receipt.  After my second night, I asked to extend my stay for a 3rd night - which I was asked to also pay cash. I distinctly asked the attendant if I needed to pay additional for incidentals.  I was told "NO - Your 100 dollars cash will be good."  Day of check out on 9/29/2014 I had to rush out of hotel to make my appointment! I left and forgot to stop by front desk to get my deposit back.  I NEVER pay cash for incidentals, and completely forgot.   It wasn't until a few weeks later that I had to travel elsewhere that during my check in at another hotel I REMEMBERED I HAD NEVER CLAIMED MY CASH DEPOSIT FROM my last stay at the Rodeway Inn LA Convention Center.  I immediately called, attendant looked in the computer, and said was very busy with customers at the counter but would get back to me. He never did.  I called back.  He said, "I didn't find any money in your account."  I left an urgent message on Azad the Manager's cell # which he never replied to.  Instead I received a COOKED INVOICE of my stay at this property showing payment for the 3 nights CASH, CASH, CASH.  Interestingly?  NO RECORD OF A CASH DEPOSIT is listed on my receipt.  Suspicious as heck, because NEVER in my life *think about your experiences* have I ever been allowed to check into a room WITHOUT a credit card deposit for incidentals.  THIS WAS MY FIRST TIME my credit card did not go through due to a bank error neverthe less, the attendant Jasmin repeated to me "it is POLICY and we need a 100.00 DEPOSIT if you are paying cash."   Boy, do I wish I would have gotten a receipt.     So I have reported this property to the Chamber of Commerce, the IRS, and local police authorities.  THIS PROPERTY NEEDS TO BE INVESTIGATED - and Azad, the Manager - if you have nothing to hide, why do you remain silent ? NOT ONE PHONE CALL, NOT ONE EMAIL from you acknowledging my concern and my money.  Was it worth keeping my $100? and from one loyal customer whose past review talked about your property as "my home away from home?" Whose first pick when I came to LA was this property?   It is extremely hurtful and I feel taken advantage of.  NO EFFORTS have been made by this property to "investigate" my concern.  I have simply been given the COLD SHOULDER.  Was it worth $100.00 ? I cautione EVERYONE strongly to look elsewhere for a room stay.  It is SHAMEFUL they think they can stiff a loyal customer.  (Sadly their housekeeping crew is more honest than management and front desk! ) I have left stuff behind and they turned it in.  LEARN a lesson from your own Housekeeping staff, and SHOW THE COURTESY and HONESTY to investigate on your own … perhaps one of your attendants pocketed my money? Is it in your safe unclaimed?  I am going to hope you do find the money for your own sake because if you have an employee or a manager who is pocketing your customers' cash YOUR PROPERTY'S REPUTATION is at stake.  CHOICE HOTELS…. If this is a FRANCHISE, YOUR NAME IS AT STAKE HERE.  I N V E S T I G A T E this property soon! I know there are cameras in that place. Surely especially ona midnight check in you must have PROOF of me coming in, going out to my car, returning both times door was locked and Jasmin had to open the door.  OH yes, fyi, Jasmin no longer works there, I was told.   I expect to hear from CHOICE HOTELS CORPORATE given that Azad, Mgr. is too busy or to address my concern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r238392922-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>238392922</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Excellent experience at this hotel, will stay again!</t>
+  </si>
+  <si>
+    <t>Yes like many others I had read the previous reviews and was a bit skeptical as we are used to usually booking 4-5 star hotels. However, I have nothing but excellent things to say about this place! Firstly, the weekend we went there was a holiday, a convention and basketball game going on and downtown was PACKED everywhere! The parking was absolutely fine, I even left and came back several times during the day and evening and had no issues with finding a parking spot. Secondly, the room was very clean, updated, and everything worked perfectly especially the A/C (which got pretty cold we actually had to turn it warmer during the night). The staff was phenomenal!! They were so helpful and even got my room ready very early. I am completely happy with my stay and would absolutely stay again the next time I am in downtown L.A. Thank you everyone at Rodeway!! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Yes like many others I had read the previous reviews and was a bit skeptical as we are used to usually booking 4-5 star hotels. However, I have nothing but excellent things to say about this place! Firstly, the weekend we went there was a holiday, a convention and basketball game going on and downtown was PACKED everywhere! The parking was absolutely fine, I even left and came back several times during the day and evening and had no issues with finding a parking spot. Secondly, the room was very clean, updated, and everything worked perfectly especially the A/C (which got pretty cold we actually had to turn it warmer during the night). The staff was phenomenal!! They were so helpful and even got my room ready very early. I am completely happy with my stay and would absolutely stay again the next time I am in downtown L.A. Thank you everyone at Rodeway!! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r236077711-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>236077711</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>The front desk service was excellent! And we will definately be back because of Alamins excellent service!</t>
+  </si>
+  <si>
+    <t>Rodeway hotels has great and friendly service at the front desk. They help with what ever you need. The rooms are very spacious and modern. The rooms are also very clean and maintained. They also have reasonable prices! I would definitely stay at Rodeway hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Rodeway hotels has great and friendly service at the front desk. They help with what ever you need. The rooms are very spacious and modern. The rooms are also very clean and maintained. They also have reasonable prices! I would definitely stay at Rodeway hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r235310744-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>235310744</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Very Basic &amp; no frills.</t>
+  </si>
+  <si>
+    <t>It was in a pretty run-down neighbourhood by any stretch of imagination, not somewhere I'd be comfortable staying alone ever again. This was advertised as a cheap option on Hotels.com. Not close to the trains. Walk to the train can take upto 20mins.It looks &amp; feels like a three or four decades old. Smelly interiors &amp; broken windows greeted me. Breakfast is limited &amp; you will have to fight for it as the customers are made to sit in a 15ft by 15ft area.Its proximity to the convention centre is what took to me here since it was a last minute booking. Staff is courteous &amp; friendly.    They provide microwave ovens in rooms, this was a saving grace for me since i'm an Veg by choice. I cooked meals on my own.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was in a pretty run-down neighbourhood by any stretch of imagination, not somewhere I'd be comfortable staying alone ever again. This was advertised as a cheap option on Hotels.com. Not close to the trains. Walk to the train can take upto 20mins.It looks &amp; feels like a three or four decades old. Smelly interiors &amp; broken windows greeted me. Breakfast is limited &amp; you will have to fight for it as the customers are made to sit in a 15ft by 15ft area.Its proximity to the convention centre is what took to me here since it was a last minute booking. Staff is courteous &amp; friendly.    They provide microwave ovens in rooms, this was a saving grace for me since i'm an Veg by choice. I cooked meals on my own.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r230623070-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>230623070</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Central is Key</t>
+  </si>
+  <si>
+    <t>We stayed here during a recent weekend event in Little Tokyo, as it is only a couple miles away. The Inn is on Olympic Blvd and just down the street from the Staples Center, just west of central LA were the 10, 110 &amp; 101 meet. That is why we choose it.We parked inside the fenced area and saw that the Inn has residential to the rear and commercial to the front. The elevator was slow going up and quicker going down. With only two floors we also took the stairs. We had trouble getting on the net, but the desk clerk invited us to bring our laptop to the front desk. He was unable to connect us, but later it came up. Fortunately being on the net was not a priority. I also expect that is an easy fix, if they update the hardware. We did check out breakfast in the morning which was very basic. There was oatmeal, bananas and yogurt for the healthy. Hard boiled eggs would have been nice. Of course, the waffles were popular. The dining room is small, but there is a table by the pool. In all, the staff was pleasant and the Inn was adequate. The greatest asset is the location. It's an affordable Inn, not far from the center of city.MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded October 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here during a recent weekend event in Little Tokyo, as it is only a couple miles away. The Inn is on Olympic Blvd and just down the street from the Staples Center, just west of central LA were the 10, 110 &amp; 101 meet. That is why we choose it.We parked inside the fenced area and saw that the Inn has residential to the rear and commercial to the front. The elevator was slow going up and quicker going down. With only two floors we also took the stairs. We had trouble getting on the net, but the desk clerk invited us to bring our laptop to the front desk. He was unable to connect us, but later it came up. Fortunately being on the net was not a priority. I also expect that is an easy fix, if they update the hardware. We did check out breakfast in the morning which was very basic. There was oatmeal, bananas and yogurt for the healthy. Hard boiled eggs would have been nice. Of course, the waffles were popular. The dining room is small, but there is a table by the pool. In all, the staff was pleasant and the Inn was adequate. The greatest asset is the location. It's an affordable Inn, not far from the center of city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r226396043-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>226396043</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Keep Looking</t>
+  </si>
+  <si>
+    <t>We stayed here for Labor Day Weekend and were highly disappointed.  Very limited parking spaces. Even though we had our vehicle marked as guests, we were not guaranteed a parking space.  In fact the manager on duty told us parking spaces are "complimentary" and allowed me to park in red zone inside the parking lot, and would call us if there was an emergency.  Also, elevators were extremely slow, or didn't work.  The phone in room was disabled for out-bound calls; went to office lobby and their phone wouldn't work either. clerk on duty kept telling me to use my cell phone, as theirs failed to work. The room service menu was outdated, and this same clerk had no idea why it was never updated. Just encouraged me to use my cell phone to find food.  Internet in room very slow. The breakfast room lacked air conditioning. There was gum on elevator wall.  I recommend anyone to keep looking. The Ramada Inn across the street should be able to put these people out of business w/ little effort.  For me, girlfriend, and nieces, best part of our stay here was leaving.MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for Labor Day Weekend and were highly disappointed.  Very limited parking spaces. Even though we had our vehicle marked as guests, we were not guaranteed a parking space.  In fact the manager on duty told us parking spaces are "complimentary" and allowed me to park in red zone inside the parking lot, and would call us if there was an emergency.  Also, elevators were extremely slow, or didn't work.  The phone in room was disabled for out-bound calls; went to office lobby and their phone wouldn't work either. clerk on duty kept telling me to use my cell phone, as theirs failed to work. The room service menu was outdated, and this same clerk had no idea why it was never updated. Just encouraged me to use my cell phone to find food.  Internet in room very slow. The breakfast room lacked air conditioning. There was gum on elevator wall.  I recommend anyone to keep looking. The Ramada Inn across the street should be able to put these people out of business w/ little effort.  For me, girlfriend, and nieces, best part of our stay here was leaving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r223733992-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>223733992</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Absolutely amazing!</t>
+  </si>
+  <si>
+    <t>Comfortable and couldn't ask for more from a hotel! For the price and the services provided it's amazing, I can't emphasize that enough! Will always stay here for my future engagements in LA and completely recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r218981483-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>218981483</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Not too shabby!</t>
+  </si>
+  <si>
+    <t>spent here about 3 nights! Had a nice breakfast and poolHad a fridge and microwave.Spacious rooms! Sleep was alright-beds weren't the most comfortable.Service was nice and location was quite convenient. Hotel has nice deals for LA tours,etc.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r213902254-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>213902254</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>best place to come</t>
+  </si>
+  <si>
+    <t>Alamin was great,he help us with everything, 2 times, best place while he's working on the front desk, also parking was easy, no problem with anything, also the place is close to almost everything,from fast food, to downtown if u wanna walk</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r208929075-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208929075</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's so great to come back to stay at a place where they treat you like family. The overall value, service, friendliness from the staff at this hotel by far exceeds my expectations every time. The staff is honest! They found two expensive items I left behind, and saved them for me! THANK YOU EMMA-Housekeeping Supervisor! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r197044231-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197044231</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Okay stay for price</t>
+  </si>
+  <si>
+    <t>We stayed here for the Marathon and got room 312. I think they are refurbishing this hotel, but it hasn't reached the 3rd floor yet. The grounds are well maintained but parking is VERY tight. Good places to eat nearby and a 7-11 almost next door. The elevator is a little sketchy too.
+Room was older, bedding has seen a lot of wear. The sheets weren't fitted so they kept sliding around underneath us. It had a musty wet smell, we went and bought some fabreeze to help with the smell.
+The bathroom was not cleaned very well, there were long black hairs all over the floor. It looked like they had been just pushed to the side and behind the door, but not cleaned up. There was hairs in the sink too. I'm just hoping that this is unusual and the housekeeping staff was just overworked with extra guests. 
+There was lots of towels and a mini fridge. The ironing board was stained and has seen better days.
+The WIFI is slow and spotty.
+I don't think the pool is very well maintained, it was very dirty. 
+But the breakfast was a nice surprise. A good selection of food and tables to eat. 
+The woman that checked me in was very nice and helpful. But I called for a wake up call at 5:10 to make sure I didn't sleep in for the marathon and they didn't call 'till...We stayed here for the Marathon and got room 312. I think they are refurbishing this hotel, but it hasn't reached the 3rd floor yet. The grounds are well maintained but parking is VERY tight. Good places to eat nearby and a 7-11 almost next door. The elevator is a little sketchy too.Room was older, bedding has seen a lot of wear. The sheets weren't fitted so they kept sliding around underneath us. It had a musty wet smell, we went and bought some fabreeze to help with the smell.The bathroom was not cleaned very well, there were long black hairs all over the floor. It looked like they had been just pushed to the side and behind the door, but not cleaned up. There was hairs in the sink too. I'm just hoping that this is unusual and the housekeeping staff was just overworked with extra guests. There was lots of towels and a mini fridge. The ironing board was stained and has seen better days.The WIFI is slow and spotty.I don't think the pool is very well maintained, it was very dirty. But the breakfast was a nice surprise. A good selection of food and tables to eat. The woman that checked me in was very nice and helpful. But I called for a wake up call at 5:10 to make sure I didn't sleep in for the marathon and they didn't call 'till 6:10. It wasn't a problem for me, as the wake up call was just a backup, but if I had been relying on it I would've missed the race.Overall, a okay place to stay close to the staples center but they need to make sure they everything gets cleaned properly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for the Marathon and got room 312. I think they are refurbishing this hotel, but it hasn't reached the 3rd floor yet. The grounds are well maintained but parking is VERY tight. Good places to eat nearby and a 7-11 almost next door. The elevator is a little sketchy too.
+Room was older, bedding has seen a lot of wear. The sheets weren't fitted so they kept sliding around underneath us. It had a musty wet smell, we went and bought some fabreeze to help with the smell.
+The bathroom was not cleaned very well, there were long black hairs all over the floor. It looked like they had been just pushed to the side and behind the door, but not cleaned up. There was hairs in the sink too. I'm just hoping that this is unusual and the housekeeping staff was just overworked with extra guests. 
+There was lots of towels and a mini fridge. The ironing board was stained and has seen better days.
+The WIFI is slow and spotty.
+I don't think the pool is very well maintained, it was very dirty. 
+But the breakfast was a nice surprise. A good selection of food and tables to eat. 
+The woman that checked me in was very nice and helpful. But I called for a wake up call at 5:10 to make sure I didn't sleep in for the marathon and they didn't call 'till...We stayed here for the Marathon and got room 312. I think they are refurbishing this hotel, but it hasn't reached the 3rd floor yet. The grounds are well maintained but parking is VERY tight. Good places to eat nearby and a 7-11 almost next door. The elevator is a little sketchy too.Room was older, bedding has seen a lot of wear. The sheets weren't fitted so they kept sliding around underneath us. It had a musty wet smell, we went and bought some fabreeze to help with the smell.The bathroom was not cleaned very well, there were long black hairs all over the floor. It looked like they had been just pushed to the side and behind the door, but not cleaned up. There was hairs in the sink too. I'm just hoping that this is unusual and the housekeeping staff was just overworked with extra guests. There was lots of towels and a mini fridge. The ironing board was stained and has seen better days.The WIFI is slow and spotty.I don't think the pool is very well maintained, it was very dirty. But the breakfast was a nice surprise. A good selection of food and tables to eat. The woman that checked me in was very nice and helpful. But I called for a wake up call at 5:10 to make sure I didn't sleep in for the marathon and they didn't call 'till 6:10. It wasn't a problem for me, as the wake up call was just a backup, but if I had been relying on it I would've missed the race.Overall, a okay place to stay close to the staples center but they need to make sure they everything gets cleaned properly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r196741565-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>196741565</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Awesome price; awesome service (Excelente preço; excelente serviço)</t>
+  </si>
+  <si>
+    <t>Hotel com ótima relação custo benefício e atendimento impecável por parte de seus "front desks" Alamin e Jenafi. Alamin, inclusive, nos ajudou a conseguir ingressos para jogos de basquete e nos deu dicas muito boas do que fazer, o que visitar em Los Angeles e dos bairros a evitar na cidade. Quartos bons e limpos, estacionamento e wifi grátis. Café da manhã fraco, mas está lá pra "matar" a fome. Recomendado.Awesome price and servisse by it's front desks Alamin and Jenafi. Alamin helped us a lot getting tickets to NBA games and gave us importante tips where to go and what to visit in LA. Good and clean rooms, free parking and wifi connection. Not so strong breakfast, but the food is there when you are hungry. Recomend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel com ótima relação custo benefício e atendimento impecável por parte de seus "front desks" Alamin e Jenafi. Alamin, inclusive, nos ajudou a conseguir ingressos para jogos de basquete e nos deu dicas muito boas do que fazer, o que visitar em Los Angeles e dos bairros a evitar na cidade. Quartos bons e limpos, estacionamento e wifi grátis. Café da manhã fraco, mas está lá pra "matar" a fome. Recomendado.Awesome price and servisse by it's front desks Alamin and Jenafi. Alamin helped us a lot getting tickets to NBA games and gave us importante tips where to go and what to visit in LA. Good and clean rooms, free parking and wifi connection. Not so strong breakfast, but the food is there when you are hungry. Recomend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r192800324-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>192800324</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Perfect Location for Staples and Convention Center</t>
+  </si>
+  <si>
+    <t>Chose this motel because of reviews on TripAdviser.Paid $92/night via Travelocity.5 minute bus ride to L.A. Liveway/Staples Center/L.A. Convention Center. $1.50 bus fair each way. Buses run regularly. Check schedule on www.metro.net. Safe enough to walk during daytime. Takes about 15-20min.Standard continental breakfast was decent. Juice, coffee, mini bagels, toast, yogurt, and awesome industrial waffle maker. Cafe gets crowded at times; eating area is small.Clean property, felt safe. Bed slept pretty good. Room 312 was free from odors. I didn't have a problem with street noise. Nice to have a fridge and microwave in room.Free parking, but spaces are small and go quickly at night. Can park on street for free between 8p-8a.WiFi worked fine on laptop, but could not connect on an iPad for some reason.Fast food and nice places to eat next door and across the street.Will stay here again. Definitely not 5 star, but not a dump either.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Chose this motel because of reviews on TripAdviser.Paid $92/night via Travelocity.5 minute bus ride to L.A. Liveway/Staples Center/L.A. Convention Center. $1.50 bus fair each way. Buses run regularly. Check schedule on www.metro.net. Safe enough to walk during daytime. Takes about 15-20min.Standard continental breakfast was decent. Juice, coffee, mini bagels, toast, yogurt, and awesome industrial waffle maker. Cafe gets crowded at times; eating area is small.Clean property, felt safe. Bed slept pretty good. Room 312 was free from odors. I didn't have a problem with street noise. Nice to have a fridge and microwave in room.Free parking, but spaces are small and go quickly at night. Can park on street for free between 8p-8a.WiFi worked fine on laptop, but could not connect on an iPad for some reason.Fast food and nice places to eat next door and across the street.Will stay here again. Definitely not 5 star, but not a dump either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r164658425-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>164658425</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Nice place for a fair price!</t>
+  </si>
+  <si>
+    <t>I have stayed at this property for three or four days. As it is seen on current photos, it is a newly renovated property. As per my understanding, it is not a hotel. In fact it is a typical motel with external entrance into each and every room. It is in downtown, which is a very nice advantage. Very convenient location and great amenities. Quick and friendly service. Safe and Secure.
+The room I stayed was clean and fresh. The only problem was the room temperature, the day I checked-in was a very hot day, of course the AC unit was off. It took more than 4 hours to cool down the room. I perfectly understand their idea to save money. And I do not want to act like a "celebrity", I am not demanding customer and do not ask for awful a lot of things. 
+The reason I chose this motel was based on TripAdvisor.com reviews.  
+I have a phobia, I am afraid of insects, especially - bed bugs; I checked every pillow on my bed, linens, and comforter. Fortunately, I did not see any of those creatures. The walls and the door were made of a very thin material, needs better soundproofing. The wooden blinds on the windows were useless, especially early mornings and nights. They do not completely block the light coming into the room. The water temperature in the shower was lukewarm for three days; water...I have stayed at this property for three or four days. As it is seen on current photos, it is a newly renovated property. As per my understanding, it is not a hotel. In fact it is a typical motel with external entrance into each and every room. It is in downtown, which is a very nice advantage. Very convenient location and great amenities. Quick and friendly service. Safe and Secure.The room I stayed was clean and fresh. The only problem was the room temperature, the day I checked-in was a very hot day, of course the AC unit was off. It took more than 4 hours to cool down the room. I perfectly understand their idea to save money. And I do not want to act like a "celebrity", I am not demanding customer and do not ask for awful a lot of things. The reason I chose this motel was based on TripAdvisor.com reviews.  I have a phobia, I am afraid of insects, especially - bed bugs; I checked every pillow on my bed, linens, and comforter. Fortunately, I did not see any of those creatures. The walls and the door were made of a very thin material, needs better soundproofing. The wooden blinds on the windows were useless, especially early mornings and nights. They do not completely block the light coming into the room. The water temperature in the shower was lukewarm for three days; water pressure was very weak. The AC unit in the room sits behind the wall, which divides the main room and the sink area. Because of the fact that the same wall blocks the air, one will not feel the breeze of cold air even with the AC on. However the AC was very loud, as well as the fridge in the room.There were two queen beds, a closet, a table with two chairs, a single night stand, 32 inch flat screen TV on the wall, a TV stand, a telephone, radio-clock, luggage rack/cabinet, fridge, coffee-maker, AC unit, iron and ironing board, shower and a bath tub in my room. The bed I slept was firm. Did not see any dust or dirt on the furniture. The picture on the TV was weird, it was centered and small, it did not cover the whole screen.  There were plenty of towels. I did not even count how many I saw. No complaints about the housekeeping service, since I had a “Do Not Disturb” sign on my door. Had to ask to change the iron, because the one in my room had big plastic burnt stains on it. The second iron I was given had the same issue, had to ask for one more time. Finally the third one worked OK. Ironing board had big stains on it. On the second day of my stay I tried to call the Front Desk in the morning for several times, but there was no luck. Nobody answered. When I went downstairs, the lady behind the desk was sitting in front of her PC. On the departure date, I received a call around 7 am, the voice on the phone was wondering if I needed a housekeeping service and when was I planning to check out. OMG! What was that? That was a bad joke, I was shockingly thankful for waking me up that early on my departure date. I thought I could sleep until 11 am. Ha-ha!Do not know anything about breakfast. Did not eat.They have a very good service - one can leave his/her luggage and come to pick it up later that day. The service is for free of charge and secure.One another thing to note, before my arrival, I had called the hotel and asked for a quite room – away from the main street. The lady who answered my call was not very helpful and was not even willing to help. She made it short, told me to call the next person and tell my requests. However I had my request in the requests section of my reservation. Was it very difficult to assign a room on the quite side of the property?I have to note that the Night Auditor, his name is Jason was extremely courteous, professional and had a great customer service. He was quick to find me a room, quick to call the cab and helped me with my bags on my departure date. Gave me a few recommendations about near-by restaurants. I would definitely recommend this property. It is clean and fresh. Not very expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this property for three or four days. As it is seen on current photos, it is a newly renovated property. As per my understanding, it is not a hotel. In fact it is a typical motel with external entrance into each and every room. It is in downtown, which is a very nice advantage. Very convenient location and great amenities. Quick and friendly service. Safe and Secure.
+The room I stayed was clean and fresh. The only problem was the room temperature, the day I checked-in was a very hot day, of course the AC unit was off. It took more than 4 hours to cool down the room. I perfectly understand their idea to save money. And I do not want to act like a "celebrity", I am not demanding customer and do not ask for awful a lot of things. 
+The reason I chose this motel was based on TripAdvisor.com reviews.  
+I have a phobia, I am afraid of insects, especially - bed bugs; I checked every pillow on my bed, linens, and comforter. Fortunately, I did not see any of those creatures. The walls and the door were made of a very thin material, needs better soundproofing. The wooden blinds on the windows were useless, especially early mornings and nights. They do not completely block the light coming into the room. The water temperature in the shower was lukewarm for three days; water...I have stayed at this property for three or four days. As it is seen on current photos, it is a newly renovated property. As per my understanding, it is not a hotel. In fact it is a typical motel with external entrance into each and every room. It is in downtown, which is a very nice advantage. Very convenient location and great amenities. Quick and friendly service. Safe and Secure.The room I stayed was clean and fresh. The only problem was the room temperature, the day I checked-in was a very hot day, of course the AC unit was off. It took more than 4 hours to cool down the room. I perfectly understand their idea to save money. And I do not want to act like a "celebrity", I am not demanding customer and do not ask for awful a lot of things. The reason I chose this motel was based on TripAdvisor.com reviews.  I have a phobia, I am afraid of insects, especially - bed bugs; I checked every pillow on my bed, linens, and comforter. Fortunately, I did not see any of those creatures. The walls and the door were made of a very thin material, needs better soundproofing. The wooden blinds on the windows were useless, especially early mornings and nights. They do not completely block the light coming into the room. The water temperature in the shower was lukewarm for three days; water pressure was very weak. The AC unit in the room sits behind the wall, which divides the main room and the sink area. Because of the fact that the same wall blocks the air, one will not feel the breeze of cold air even with the AC on. However the AC was very loud, as well as the fridge in the room.There were two queen beds, a closet, a table with two chairs, a single night stand, 32 inch flat screen TV on the wall, a TV stand, a telephone, radio-clock, luggage rack/cabinet, fridge, coffee-maker, AC unit, iron and ironing board, shower and a bath tub in my room. The bed I slept was firm. Did not see any dust or dirt on the furniture. The picture on the TV was weird, it was centered and small, it did not cover the whole screen.  There were plenty of towels. I did not even count how many I saw. No complaints about the housekeeping service, since I had a “Do Not Disturb” sign on my door. Had to ask to change the iron, because the one in my room had big plastic burnt stains on it. The second iron I was given had the same issue, had to ask for one more time. Finally the third one worked OK. Ironing board had big stains on it. On the second day of my stay I tried to call the Front Desk in the morning for several times, but there was no luck. Nobody answered. When I went downstairs, the lady behind the desk was sitting in front of her PC. On the departure date, I received a call around 7 am, the voice on the phone was wondering if I needed a housekeeping service and when was I planning to check out. OMG! What was that? That was a bad joke, I was shockingly thankful for waking me up that early on my departure date. I thought I could sleep until 11 am. Ha-ha!Do not know anything about breakfast. Did not eat.They have a very good service - one can leave his/her luggage and come to pick it up later that day. The service is for free of charge and secure.One another thing to note, before my arrival, I had called the hotel and asked for a quite room – away from the main street. The lady who answered my call was not very helpful and was not even willing to help. She made it short, told me to call the next person and tell my requests. However I had my request in the requests section of my reservation. Was it very difficult to assign a room on the quite side of the property?I have to note that the Night Auditor, his name is Jason was extremely courteous, professional and had a great customer service. He was quick to find me a room, quick to call the cab and helped me with my bags on my departure date. Gave me a few recommendations about near-by restaurants. I would definitely recommend this property. It is clean and fresh. Not very expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r162747721-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162747721</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>I was shocked!</t>
+  </si>
+  <si>
+    <t>Considering that this hotel was in Downtown, which can tend to look rundown in certain areas, this hotel was very nice!  Newly renovated room!  Carpet, bathroom all were nice and clean!  I had a few minor issues which the front desk staff addressed and corrected promptly!  It was less than a mile from the Convention center and, even with traffic, I managed to get there quickly! I highly recommend this facility!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r159100399-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>159100399</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Good hotel close to Staples Center</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night because we were going to the Staples Center. The room had two double beds that were comfortable and although we were close to the main road we had a good night's sleep. There was a microwave, coffee machine and a refrigerator in the room. The hotel is an easy one mile walk to the Staples Center and there are fast food restaurants close by. We had to leave early the next morning and so we did not try the breakfast that was included in the tarrif</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r155658197-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155658197</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>couldn`t sleep</t>
+  </si>
+  <si>
+    <t>Air condition is right above your bed. You can hear EVERYTHING what is happening in other rooms trough air contitioner. I have never seen something like that.Our air conditioner was off all the time but because of sound that comes trough it we had ZERO sleep. We could hear voices from some family that was arguing about money and we heard every single word. It was like they are with us, in our room.Another thing, when u turn air ON, air blows directly on your head, because its located just 3-4 feet above your bed/head. All purpose of this hotel was to get some sleep but we were not able to do so.  Stuff at front desk was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Air condition is right above your bed. You can hear EVERYTHING what is happening in other rooms trough air contitioner. I have never seen something like that.Our air conditioner was off all the time but because of sound that comes trough it we had ZERO sleep. We could hear voices from some family that was arguing about money and we heard every single word. It was like they are with us, in our room.Another thing, when u turn air ON, air blows directly on your head, because its located just 3-4 feet above your bed/head. All purpose of this hotel was to get some sleep but we were not able to do so.  Stuff at front desk was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r155348385-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155348385</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Moderate-priced property with convenient location.  Good public transit access!</t>
+  </si>
+  <si>
+    <t>I have stayed at this motel on several occasions since April, 2008; the last being last weekend.  I decided to return there because of previous good experiences.  The owners are friendly, the rooms clean and comfortable, and a reasonable breakfast, including waffles, is offered.  One main benefit, of which I have not previously taken advantage, is that it is located on a main bus line.  At the last minute, I decided to cancel my one-day car rental and to rely on public transport.  A wise decision; because of good schedules, even on weekends, and the 25-cent fare for senior citizens on weekends, I was able to make two trips to the heart of downtown, over two days, for a grand total of $1.25, instead of spending $51 for a one-day car rental.  (By the way, had I used my first option, the motel does offer Free parking for guests.)There are numerous nearby restaurants, both fast-food and sit-down, and the motel is located very near Koreatown.  I will return there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this motel on several occasions since April, 2008; the last being last weekend.  I decided to return there because of previous good experiences.  The owners are friendly, the rooms clean and comfortable, and a reasonable breakfast, including waffles, is offered.  One main benefit, of which I have not previously taken advantage, is that it is located on a main bus line.  At the last minute, I decided to cancel my one-day car rental and to rely on public transport.  A wise decision; because of good schedules, even on weekends, and the 25-cent fare for senior citizens on weekends, I was able to make two trips to the heart of downtown, over two days, for a grand total of $1.25, instead of spending $51 for a one-day car rental.  (By the way, had I used my first option, the motel does offer Free parking for guests.)There are numerous nearby restaurants, both fast-food and sit-down, and the motel is located very near Koreatown.  I will return there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r154759287-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>154759287</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Good value motel</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights after being in NZ for a month.  Needed a place downtown and it looked good from the photos we saw online at olhotlels.com but the photos weren't from there although the prices and info was. Confusing at first and wouldn't look at their website again.Wasn't happy when we arrived but Jason who was at the desk couldn't be more helpful and thought he was doing us a favour by giving us a room looking out onto Olympic Boulevard but very noisy and wouldn't recommend anyone staying in a room overlooking the street.  Offered to change but not worth the bother.Breakfast very good and the rooms although basic were clean and had everything you need.Would recommend if you want a cheap place close to downtown LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights after being in NZ for a month.  Needed a place downtown and it looked good from the photos we saw online at olhotlels.com but the photos weren't from there although the prices and info was. Confusing at first and wouldn't look at their website again.Wasn't happy when we arrived but Jason who was at the desk couldn't be more helpful and thought he was doing us a favour by giving us a room looking out onto Olympic Boulevard but very noisy and wouldn't recommend anyone staying in a room overlooking the street.  Offered to change but not worth the bother.Breakfast very good and the rooms although basic were clean and had everything you need.Would recommend if you want a cheap place close to downtown LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r149885962-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>149885962</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Decent price, okay place to stay.</t>
+  </si>
+  <si>
+    <t>I needed to go downtown but I wanted to stay on Olympic because so many of the downtown hotels are difficult to drive into.  I also wanted to have easy access to my car and not have to valet every time.  On the positives the furniture in the rooms is brand new and the bed was very comfortable (four star bed ;-) ).  There were also plenty of parking spaces so I felt safe leaving my car.  Free internet and parking was a major plus too as you generally pay a premium for those downtown.  The Internet connection also worked very well.  On the negatives there were shady people staying here, very long waits at the desk, the exterior of the hotel is run down.  I felt safe and secure inside my room but not really walking around the hallways.  It was okay because someone else was with me but I definitely wouldn't stay alone as a young woman (maybe if I were a man).  If you wanted somewhere cheap near downtown and you were with a group it would be a good option but the Ramada across the street is more hotel like and the same price but it was sold out.  There are also a lot of food options in the area, whereas at the fancier hotels downtown often the only choice is room service.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I needed to go downtown but I wanted to stay on Olympic because so many of the downtown hotels are difficult to drive into.  I also wanted to have easy access to my car and not have to valet every time.  On the positives the furniture in the rooms is brand new and the bed was very comfortable (four star bed ;-) ).  There were also plenty of parking spaces so I felt safe leaving my car.  Free internet and parking was a major plus too as you generally pay a premium for those downtown.  The Internet connection also worked very well.  On the negatives there were shady people staying here, very long waits at the desk, the exterior of the hotel is run down.  I felt safe and secure inside my room but not really walking around the hallways.  It was okay because someone else was with me but I definitely wouldn't stay alone as a young woman (maybe if I were a man).  If you wanted somewhere cheap near downtown and you were with a group it would be a good option but the Ramada across the street is more hotel like and the same price but it was sold out.  There are also a lot of food options in the area, whereas at the fancier hotels downtown often the only choice is room service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r149317844-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>149317844</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>One of the good hotel in downtown LA</t>
+  </si>
+  <si>
+    <t>I was on a business visit to LA and my client location was in Downtown. I stayed in Rodeway Inn for nearly 2 months (November and December) and this hotel is 5 mins away from downtown, also near to LA Metro line. It is not a high class hotel, but it is a very good. Rooms are clean, bed was comfortable, room cleaning everyday, free wifi, breakfash and parking. Employees were friendly and really helpful. Only negative is that there are nothing to do around, but there are few good restaurents near by. If you are looking for decent hotel in downtown with less price, I would recommend this.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r149030948-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>149030948</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Good hotel and location</t>
+  </si>
+  <si>
+    <t>If you're looking for a luxurious hotel, look someplace else. But if you're looking for a cheap, clean hotel 5 minutes away from downtown LA, this is the place. Plus, with free wifi, breakfast and parking, the rate we got was a steal. There were also very good restaurants a minute away from the hotel, so we were happy to not have to take the car for a late supper after a long day in LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r144617389-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>144617389</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>For the price pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Three night stay with my boyfriend, I picked the hotel because of the price and location (reasonable drive to places we wanted to visit in LA). My priorities in a hotel are cleanliness and amenities. It always baffles me that cheap hotels offer free wifi and parking while $150 + hotels charge ridiculous prices.The wifi was excellent, we like to watch Netflix and its always great when the internet isn't cutting out every 5 minutes. The bed was comfy enough with clean sheets and the bathroom was also clean. The employees were very friendly whenever we saw them. While out of towners not familiar with Los Angeles may be nervous about the neighborhood, I would say it is safer than downtown and just use common sense (aka don't walk around by yourself at 2 am with your iPod out). With that said, because the room didn't have a safe we decided to put up the do not disturb sign each day so we never used the cleaning service. They were very accommodating when we asked for more toilet paper and fresh towels one night. They also have a pool and free breakfast, but we never took advantage of these things. Overall I would recommend this hotel if you are on a budget and I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Three night stay with my boyfriend, I picked the hotel because of the price and location (reasonable drive to places we wanted to visit in LA). My priorities in a hotel are cleanliness and amenities. It always baffles me that cheap hotels offer free wifi and parking while $150 + hotels charge ridiculous prices.The wifi was excellent, we like to watch Netflix and its always great when the internet isn't cutting out every 5 minutes. The bed was comfy enough with clean sheets and the bathroom was also clean. The employees were very friendly whenever we saw them. While out of towners not familiar with Los Angeles may be nervous about the neighborhood, I would say it is safer than downtown and just use common sense (aka don't walk around by yourself at 2 am with your iPod out). With that said, because the room didn't have a safe we decided to put up the do not disturb sign each day so we never used the cleaning service. They were very accommodating when we asked for more toilet paper and fresh towels one night. They also have a pool and free breakfast, but we never took advantage of these things. Overall I would recommend this hotel if you are on a budget and I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r143408109-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143408109</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Serviceable hotel in convenient location for USC</t>
+  </si>
+  <si>
+    <t>Serviceble and comfortable, if a bit tatty. It's a motel wit windows opening onto sidewalk  , so nut much privacy .Brd OK; pillows nice.Free parking, wireless and continental breakfast.Thai restraint next door, and Korean one across street ..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r138929009-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138929009</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel in Mid Dowan Town LA</t>
+  </si>
+  <si>
+    <t>I really enjoyed to staying this wonderful Rodeway Inn Convention Center.Excellent accomodation ,recently renovated furniture is wonderful .Excellent breakfast and staff ,Management.I would recommended the guest to staying this hotel and get their warm hospitality.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r136869690-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136869690</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Bed Bugs!</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights to attend a conference at the LA Convention. I never had bed bugs. First I thought they were mosquito bits, then in the next two days there were more bits. Terrible experience. Now I am worried if I have brought those bed bugs home. In addition the carpet was lousy and breakfast was simple. I won't stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r136313079-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136313079</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Not far away from Convention Centre for good price</t>
+  </si>
+  <si>
+    <t>Nice motel located just 15 minutes walk to LA Convention Centre. Room was ok - no so big but equipped with all necessary amenities. Free internet. Breakfast very poor - typical for motels. Pool present however small and located close to the street. Rooms are very noisy especially those faced to the main street. Anyway air-con is VERY noisy inside the room"Dont walk outside alone in the evening" it was an advise from front desk lady. Good price/location ratio - motel is ok if you are planning to stay just few nights and not spending there time.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r130558572-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130558572</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Decent night's stay</t>
+  </si>
+  <si>
+    <t>Stayed here at the Rodeway Inn for one night since my girlfriend was sworn in (citizenship naturalization) the next morning at the Los Angeles Convention Center.  We enjoyed the king suite (room 104), especially for the total price of $124.73.  Not bad for being a little over a mile from the convention center.  The room was clean with a microwave and refrigerator, and the bed was comfortable.  The water was hot when we took a shower in the morning.  The suite had a separate room in it with a couch, chair and big screen TV.  Since it is downtown Los Angeles, the location is not ritzy.  But we felt safe since the property (besides the driveway entrance) was entirely surrounded by a high metal fence.  The continental breakfast was very basic, which is not suprising given the price of this hotel.  In other words, "you get what you pay for" applies here.  When we checked out in the morning, the kind gentleman behind the counter graciously made a couple of copies for us at no charge.  All the staff at this location were friendly and courteous.  As a point of information, it took five minutes to drive from this hotel to the convention center at 8:00 a.m.  We paid $10.00 for all day parking a couple blocks from the convention center.  Be aware that the closer you get to the convention center, the higher the price for parking!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here at the Rodeway Inn for one night since my girlfriend was sworn in (citizenship naturalization) the next morning at the Los Angeles Convention Center.  We enjoyed the king suite (room 104), especially for the total price of $124.73.  Not bad for being a little over a mile from the convention center.  The room was clean with a microwave and refrigerator, and the bed was comfortable.  The water was hot when we took a shower in the morning.  The suite had a separate room in it with a couch, chair and big screen TV.  Since it is downtown Los Angeles, the location is not ritzy.  But we felt safe since the property (besides the driveway entrance) was entirely surrounded by a high metal fence.  The continental breakfast was very basic, which is not suprising given the price of this hotel.  In other words, "you get what you pay for" applies here.  When we checked out in the morning, the kind gentleman behind the counter graciously made a couple of copies for us at no charge.  All the staff at this location were friendly and courteous.  As a point of information, it took five minutes to drive from this hotel to the convention center at 8:00 a.m.  We paid $10.00 for all day parking a couple blocks from the convention center.  Be aware that the closer you get to the convention center, the higher the price for parking!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r127945499-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127945499</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Very good for the price but...</t>
+  </si>
+  <si>
+    <t>Stayed at the Rodeway Convention Center for a week in February.  Chose it because it looked to be very close to the LA Convention Center, clean, and affordable - was on a very tight budget.  The room was very clean and as it appeared in the photos online.  The staff were pleasant and helpful and overall the room was good value for the rate.  I wouldn't stay there again though - the area the hotel is situated in is rather depressing, not dangerous (I live in another big city) but very run down.  I also had to take a bus to get to the Convention Center everyday as it is too far to walk, so not that convenient.  Anywhere in LA without a car is a nightmare, so that's not the hotel's fault, but the name is misleading, it really isn't that close to the Convention Center. One more thing -  the breakfast was terrible, a choice of filter coffee, toast and one kind of fruit self-served in a really grim little room.  If you're on a budget, a cheap, clean place to stay but if you can at all afford to stay somewhere nicer, do.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Stayed at the Rodeway Convention Center for a week in February.  Chose it because it looked to be very close to the LA Convention Center, clean, and affordable - was on a very tight budget.  The room was very clean and as it appeared in the photos online.  The staff were pleasant and helpful and overall the room was good value for the rate.  I wouldn't stay there again though - the area the hotel is situated in is rather depressing, not dangerous (I live in another big city) but very run down.  I also had to take a bus to get to the Convention Center everyday as it is too far to walk, so not that convenient.  Anywhere in LA without a car is a nightmare, so that's not the hotel's fault, but the name is misleading, it really isn't that close to the Convention Center. One more thing -  the breakfast was terrible, a choice of filter coffee, toast and one kind of fruit self-served in a really grim little room.  If you're on a budget, a cheap, clean place to stay but if you can at all afford to stay somewhere nicer, do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r127078792-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127078792</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Be careful!!!</t>
+  </si>
+  <si>
+    <t>Price is good and room was clean but the neighborhood is NOT a place to feel very safe with a family especially after dark.  I was with my wife and 16 year old daughter for a 2-day competition she was in at the the convention center.  We were woken at 2 am on Sunday morning by the sound of a man ranting and trying to kick down a door and therating to kill the occupant of that room.  Needless to say that we were very scared.  I called the front desk ( it took 2X for the desk to pickup).  The man at the desk said he went outside - as he must have heard it as well - but didnt see anyone.  I asked him to call the police.  He was reluctant but said he would.  I waited a few minutes but decided to call 911 myself.  I reported it they took my information and the said they would dispatch someone to come.  We didn't see or hear anyone come so I really don't know if they responded or not.  In any event, the man came back several times threating the occupant AFTER I had called the police.  I stayed up ( as did my daughter and wife ) with the light off not knowing whether or not this man would try to enter other rooms.  The rooms have floor to celing windows adjacent to the door -- so...Price is good and room was clean but the neighborhood is NOT a place to feel very safe with a family especially after dark.  I was with my wife and 16 year old daughter for a 2-day competition she was in at the the convention center.  We were woken at 2 am on Sunday morning by the sound of a man ranting and trying to kick down a door and therating to kill the occupant of that room.  Needless to say that we were very scared.  I called the front desk ( it took 2X for the desk to pickup).  The man at the desk said he went outside - as he must have heard it as well - but didnt see anyone.  I asked him to call the police.  He was reluctant but said he would.  I waited a few minutes but decided to call 911 myself.  I reported it they took my information and the said they would dispatch someone to come.  We didn't see or hear anyone come so I really don't know if they responded or not.  In any event, the man came back several times threating the occupant AFTER I had called the police.  I stayed up ( as did my daughter and wife ) with the light off not knowing whether or not this man would try to enter other rooms.  The rooms have floor to celing windows adjacent to the door -- so he wouldn't need to break through the door - just break the window and walk in.  Obviously, I cant say that this is a common occurence but once was enough for me and I would not want anyone to share our awful experience - so be careful!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>laconventioninn, Owner at Rodeway Inn Convention Center, responded to this reviewResponded April 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2012</t>
+  </si>
+  <si>
+    <t>Price is good and room was clean but the neighborhood is NOT a place to feel very safe with a family especially after dark.  I was with my wife and 16 year old daughter for a 2-day competition she was in at the the convention center.  We were woken at 2 am on Sunday morning by the sound of a man ranting and trying to kick down a door and therating to kill the occupant of that room.  Needless to say that we were very scared.  I called the front desk ( it took 2X for the desk to pickup).  The man at the desk said he went outside - as he must have heard it as well - but didnt see anyone.  I asked him to call the police.  He was reluctant but said he would.  I waited a few minutes but decided to call 911 myself.  I reported it they took my information and the said they would dispatch someone to come.  We didn't see or hear anyone come so I really don't know if they responded or not.  In any event, the man came back several times threating the occupant AFTER I had called the police.  I stayed up ( as did my daughter and wife ) with the light off not knowing whether or not this man would try to enter other rooms.  The rooms have floor to celing windows adjacent to the door -- so...Price is good and room was clean but the neighborhood is NOT a place to feel very safe with a family especially after dark.  I was with my wife and 16 year old daughter for a 2-day competition she was in at the the convention center.  We were woken at 2 am on Sunday morning by the sound of a man ranting and trying to kick down a door and therating to kill the occupant of that room.  Needless to say that we were very scared.  I called the front desk ( it took 2X for the desk to pickup).  The man at the desk said he went outside - as he must have heard it as well - but didnt see anyone.  I asked him to call the police.  He was reluctant but said he would.  I waited a few minutes but decided to call 911 myself.  I reported it they took my information and the said they would dispatch someone to come.  We didn't see or hear anyone come so I really don't know if they responded or not.  In any event, the man came back several times threating the occupant AFTER I had called the police.  I stayed up ( as did my daughter and wife ) with the light off not knowing whether or not this man would try to enter other rooms.  The rooms have floor to celing windows adjacent to the door -- so he wouldn't need to break through the door - just break the window and walk in.  Obviously, I cant say that this is a common occurence but once was enough for me and I would not want anyone to share our awful experience - so be careful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r126593507-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>126593507</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>Fantastic Value!</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn Convention Center is an older building around a mile from LA Live, the LA Convention Center, and the Staples Center.  It was easy to walk downtown in the daytime and bus tours for tourism stopped in the hotel.  Fast food restaurants were close by for convenience with nicer sit down restaurants closer to the downtown core.  Despite its older outwards appearance, our rooms were very clean and recently renovated with new furniture and beds.  I stayed in a king bedroom  which had a full desk available to work on.  Wifi was free, although not the fastest.  Staff was excellent and helped print out boarding passes or tickets to events when I needed them.  The outdoor pool looked nice and clean, although the weather did not cooperate for our visit so I did not use it.  Lastly, complimentary continental breakfasts were an unexpected touch, although the food really was limited.  Still, the fresh oranges, bananas, cereal, and bagels got me by until lunchtime elsewhere.At 1/2 to 1/3 the price of hotels only a mile away, I would recommend the Rodeway Inn and would stay there again in the future.  You can't beat its value.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn Convention Center is an older building around a mile from LA Live, the LA Convention Center, and the Staples Center.  It was easy to walk downtown in the daytime and bus tours for tourism stopped in the hotel.  Fast food restaurants were close by for convenience with nicer sit down restaurants closer to the downtown core.  Despite its older outwards appearance, our rooms were very clean and recently renovated with new furniture and beds.  I stayed in a king bedroom  which had a full desk available to work on.  Wifi was free, although not the fastest.  Staff was excellent and helped print out boarding passes or tickets to events when I needed them.  The outdoor pool looked nice and clean, although the weather did not cooperate for our visit so I did not use it.  Lastly, complimentary continental breakfasts were an unexpected touch, although the food really was limited.  Still, the fresh oranges, bananas, cereal, and bagels got me by until lunchtime elsewhere.At 1/2 to 1/3 the price of hotels only a mile away, I would recommend the Rodeway Inn and would stay there again in the future.  You can't beat its value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r123641088-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123641088</t>
+  </si>
+  <si>
+    <t>01/26/2012</t>
+  </si>
+  <si>
+    <t>Great value in downtown LA</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days in late November. It was a no-frills room, but all of the staff I met were very nice. The bed was comfortable and the room was very clean. They have a soda and snack machine. I felt very safe at night and I am a woman in my mid-thirties and traveled alone. My only complaint is the shower water never got hot enough for my liking.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r121851585-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>121851585</t>
+  </si>
+  <si>
+    <t>12/18/2011</t>
+  </si>
+  <si>
+    <t>Good budget option</t>
+  </si>
+  <si>
+    <t>This place is economical and well located. I could have a little larger pool and a wider breakfast spread but then it is targeted as a budget place. Staff is helpful and front desk team is great which softens any sharp edge you may find in its range of facilities.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r120132163-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120132163</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Best service and value in Downtown, Los Angeles</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for a week, and I had a very good experience there. The desk clerk and management is exceptionally friendly and helpful. The overall guest room cleanliness was above expectations, and the hotel amenitities were all in great order. It is conveniently located to many downtown locations, the convention center, and the local metro bus line. I am a diamond reward member with Choice Hotels, and I will also let them know to give the hotel management an "a+". Keep up the good work. Thanks. JPaul</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r116281922-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116281922</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Nice Stay- a litte bit loud</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed at the Rodeway Inn for 2 Nights. The employes were friendly, the room was clean, normal sized, there was an a/c in the room which was a litte bit noisy. There was also a small refrigerator, parking and wifi is free.The complementary Breakfast was good, there was a choice of bread/toast and some cornflakes.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r116281380-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116281380</t>
+  </si>
+  <si>
+    <t>Not spectacular, but still good</t>
+  </si>
+  <si>
+    <t>This feels more like a motel but considering the price and closeness to the Convention Centre (by walking or by transit) it was exactly what I needed. An affordable place to sleep.Only issues I had were the pop and water I put in the fridge ended up frozen and the face plates on the electrical outlets could use a bit of repair. A very minor note the complimentary breakfast was lacking but had good bananas at the very leastIf I could have spent more for something more deluxe I would have but for what you pay for the room and location I would stay there again if this is the price range you are looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>This feels more like a motel but considering the price and closeness to the Convention Centre (by walking or by transit) it was exactly what I needed. An affordable place to sleep.Only issues I had were the pop and water I put in the fridge ended up frozen and the face plates on the electrical outlets could use a bit of repair. A very minor note the complimentary breakfast was lacking but had good bananas at the very leastIf I could have spent more for something more deluxe I would have but for what you pay for the room and location I would stay there again if this is the price range you are looking for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r115884247-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115884247</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Quite agreeable accommodations</t>
+  </si>
+  <si>
+    <t>Facility was chosen for price and based on Trip Advisor reviews. Our stay was for seven nights. Location is in a relatively low density area of mixed retail commercial and residential use west of Downtown and east of Korea Town. Adjacent streets and buildings are older and in average to fair condition; this is not an “upscale neighborhood”. However, we observed no untoward elements or safety threats and it was fairly quiet at night. The motel has free open and covered off street parking. It states that there are fewer parking spaces than rooms, but arriving back several nights between 10 and 11 PM parking spaces were available. The alternative is street parking, which appears to be in short supply. Several public surface transit lines are within a few blocks. The Red Line subway is about five blocks. Restaurants and retail services are on Olympic Blvd, the arterial street fronting the motel. The motel building is older but has been updated. It has three levels with stairs and one small elevator. There is a common room in which a “continental breakfast” is offered and a small swimming pool. Rooms are accessed from exterior walkways. We had two rooms. They were of reasonable size, clean with some minor wear and tear, and pleasantly decorated; see included pix. The rooms had individual wall air conditioners/heaters and opening, screened, insulated windows with interior adjustable wood shutter coverings. The baths had slab granite sink...Facility was chosen for price and based on Trip Advisor reviews. Our stay was for seven nights. Location is in a relatively low density area of mixed retail commercial and residential use west of Downtown and east of Korea Town. Adjacent streets and buildings are older and in average to fair condition; this is not an “upscale neighborhood”. However, we observed no untoward elements or safety threats and it was fairly quiet at night. The motel has free open and covered off street parking. It states that there are fewer parking spaces than rooms, but arriving back several nights between 10 and 11 PM parking spaces were available. The alternative is street parking, which appears to be in short supply. Several public surface transit lines are within a few blocks. The Red Line subway is about five blocks. Restaurants and retail services are on Olympic Blvd, the arterial street fronting the motel. The motel building is older but has been updated. It has three levels with stairs and one small elevator. There is a common room in which a “continental breakfast” is offered and a small swimming pool. Rooms are accessed from exterior walkways. We had two rooms. They were of reasonable size, clean with some minor wear and tear, and pleasantly decorated; see included pix. The rooms had individual wall air conditioners/heaters and opening, screened, insulated windows with interior adjustable wood shutter coverings. The baths had slab granite sink counters and in a separate room tub/shower and commode. Water pressure and hot water availability were adequate. Rooms had small refrigerators, microwave ovens, hair dryers, iron and ironing board, small low quality clock radio, telephone, and large television. Light fixtures were adequate. Furniture included a queen size bed, two bedside cabinets, a desk with chair, dresser with TV cabinet above, wall mirrors, and a clothes hanging area. One room had a large “easy chair”.  Beds were firm and comfortable with sheets, blanket, bedspread, and four somewhat lumpy but adequate pillows. There was no evidence of bed bugs or any other insects. The staff was agreeable, attentive, and helpful. At arrival there was some problem with the air conditioner in one room and the refrigerator in the other, both of these were solved by staff within a half hour. Overall, there were no significant negative elements.MoreShow less</t>
+  </si>
+  <si>
+    <t>Facility was chosen for price and based on Trip Advisor reviews. Our stay was for seven nights. Location is in a relatively low density area of mixed retail commercial and residential use west of Downtown and east of Korea Town. Adjacent streets and buildings are older and in average to fair condition; this is not an “upscale neighborhood”. However, we observed no untoward elements or safety threats and it was fairly quiet at night. The motel has free open and covered off street parking. It states that there are fewer parking spaces than rooms, but arriving back several nights between 10 and 11 PM parking spaces were available. The alternative is street parking, which appears to be in short supply. Several public surface transit lines are within a few blocks. The Red Line subway is about five blocks. Restaurants and retail services are on Olympic Blvd, the arterial street fronting the motel. The motel building is older but has been updated. It has three levels with stairs and one small elevator. There is a common room in which a “continental breakfast” is offered and a small swimming pool. Rooms are accessed from exterior walkways. We had two rooms. They were of reasonable size, clean with some minor wear and tear, and pleasantly decorated; see included pix. The rooms had individual wall air conditioners/heaters and opening, screened, insulated windows with interior adjustable wood shutter coverings. The baths had slab granite sink...Facility was chosen for price and based on Trip Advisor reviews. Our stay was for seven nights. Location is in a relatively low density area of mixed retail commercial and residential use west of Downtown and east of Korea Town. Adjacent streets and buildings are older and in average to fair condition; this is not an “upscale neighborhood”. However, we observed no untoward elements or safety threats and it was fairly quiet at night. The motel has free open and covered off street parking. It states that there are fewer parking spaces than rooms, but arriving back several nights between 10 and 11 PM parking spaces were available. The alternative is street parking, which appears to be in short supply. Several public surface transit lines are within a few blocks. The Red Line subway is about five blocks. Restaurants and retail services are on Olympic Blvd, the arterial street fronting the motel. The motel building is older but has been updated. It has three levels with stairs and one small elevator. There is a common room in which a “continental breakfast” is offered and a small swimming pool. Rooms are accessed from exterior walkways. We had two rooms. They were of reasonable size, clean with some minor wear and tear, and pleasantly decorated; see included pix. The rooms had individual wall air conditioners/heaters and opening, screened, insulated windows with interior adjustable wood shutter coverings. The baths had slab granite sink counters and in a separate room tub/shower and commode. Water pressure and hot water availability were adequate. Rooms had small refrigerators, microwave ovens, hair dryers, iron and ironing board, small low quality clock radio, telephone, and large television. Light fixtures were adequate. Furniture included a queen size bed, two bedside cabinets, a desk with chair, dresser with TV cabinet above, wall mirrors, and a clothes hanging area. One room had a large “easy chair”.  Beds were firm and comfortable with sheets, blanket, bedspread, and four somewhat lumpy but adequate pillows. There was no evidence of bed bugs or any other insects. The staff was agreeable, attentive, and helpful. At arrival there was some problem with the air conditioner in one room and the refrigerator in the other, both of these were solved by staff within a half hour. Overall, there were no significant negative elements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r112761566-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>112761566</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>Enjoyable stay, will stay again</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a week and didn't feel let down at all during our stay. We recieved friendly and helpful service from all the staff. The room was well cleaned everyday, with fresh towells etc. provided everyday. The free wireless internet was relatively fast and stable all week and the free breakfast, although not of the best quality, was a nice touch. There is a busy road next to some of the rooms and on Friday night there was some noise from the city, but this is to be expected in LA!We have stayed at this hotel twice now but if we return to LA we would use this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a week and didn't feel let down at all during our stay. We recieved friendly and helpful service from all the staff. The room was well cleaned everyday, with fresh towells etc. provided everyday. The free wireless internet was relatively fast and stable all week and the free breakfast, although not of the best quality, was a nice touch. There is a busy road next to some of the rooms and on Friday night there was some noise from the city, but this is to be expected in LA!We have stayed at this hotel twice now but if we return to LA we would use this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r104295529-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>104295529</t>
+  </si>
+  <si>
+    <t>04/16/2011</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>Great location nice staff no complaints will stay there again. I have not seen any bed bugs as people been complaining about. And its small insect not harmful at all. Overall out of 5 I give it a 4.5.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r97359651-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>97359651</t>
+  </si>
+  <si>
+    <t>02/20/2011</t>
+  </si>
+  <si>
+    <t>Excellent  Place to stay here,It's great</t>
+  </si>
+  <si>
+    <t>I  stay  at  this  hotel  at  least  once  a  month  for  business  purposes  and  it's  perfect  for  my  needs  .The  place clean  and  the  front  desk  associate are excellent knowledgeble the area and customer  service. There are  stores  and  restaurents  available  in  the area  in walking  distance. The Manager  is  very  hospitable  and  goes  the  extra  mild  for  the  guests. I  would  definitely  recommend   to  anyone.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r95610232-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>95610232</t>
+  </si>
+  <si>
+    <t>02/05/2011</t>
+  </si>
+  <si>
+    <t>Wish It Had Been Better!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here while she attended the CHA Trade Show at the L.A. Convention Center. The GOOD: the staff was very accommodating and friendly.  The room was spacious and the bathroom clean. The BAD: Very few options for dining within walking distance . . . El Pollo Loco, McDonald's, Pollo Campero, Subway.  Very hard beds and our room had bugs!!  I now know there were bed bugs - I've never experienced that before!!!  I have at least 6 bug bites on my arms and wrists.  We killed a couple we saw crawling around.  In hindsight, we should have asked to be moved to another room!!  Also, we were right next to the drive through to the back parking area, so at all hours of the night we were awakened by loud trucks and cars driving through, their antennas scraping against the roof, or vehicles idleing there and people talking loud.  Overall, not a good experience and I would not return.  Sorry Rodeway Inn!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here while she attended the CHA Trade Show at the L.A. Convention Center. The GOOD: the staff was very accommodating and friendly.  The room was spacious and the bathroom clean. The BAD: Very few options for dining within walking distance . . . El Pollo Loco, McDonald's, Pollo Campero, Subway.  Very hard beds and our room had bugs!!  I now know there were bed bugs - I've never experienced that before!!!  I have at least 6 bug bites on my arms and wrists.  We killed a couple we saw crawling around.  In hindsight, we should have asked to be moved to another room!!  Also, we were right next to the drive through to the back parking area, so at all hours of the night we were awakened by loud trucks and cars driving through, their antennas scraping against the roof, or vehicles idleing there and people talking loud.  Overall, not a good experience and I would not return.  Sorry Rodeway Inn!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r93995573-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>93995573</t>
+  </si>
+  <si>
+    <t>01/21/2011</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I was attending convention center,location is near public transport.Great value and excellent choice for convenience access to downtown area.Staff was extremely helpful for any needs or requests.No evidence of bed bugs at all despite other reviews here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r93875290-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>93875290</t>
+  </si>
+  <si>
+    <t>01/20/2011</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!  BEDBUGS!</t>
+  </si>
+  <si>
+    <t>My friend and I booked a room at the Rodeway Inn to attend a conference at the LA Convention Center.  It is close by and right across the street from a cheap and tasty Mexican grill.  However, I noticed bites on my arms during our visit, and by the time we both got home, we had managed to spread bedbugs from the room to our homes.  We've called four times between us and have been unable to reach the manager.  Hassan fields our messages, but parrots messages claiming that they have no bedbugs.  My friend and I live on opposite sides of the country and were bedbug free until we shared a room here. We are extremely upset by the utter lack of responsibility this vermin infested hotel takes for its condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>laconventioninn, General Manager at Rodeway Inn Convention Center, responded to this reviewResponded January 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2011</t>
+  </si>
+  <si>
+    <t>My friend and I booked a room at the Rodeway Inn to attend a conference at the LA Convention Center.  It is close by and right across the street from a cheap and tasty Mexican grill.  However, I noticed bites on my arms during our visit, and by the time we both got home, we had managed to spread bedbugs from the room to our homes.  We've called four times between us and have been unable to reach the manager.  Hassan fields our messages, but parrots messages claiming that they have no bedbugs.  My friend and I live on opposite sides of the country and were bedbug free until we shared a room here. We are extremely upset by the utter lack of responsibility this vermin infested hotel takes for its condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r92460725-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>92460725</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>excellent choice for fowntown LA</t>
+  </si>
+  <si>
+    <t>Great value and excellent choice for convenient access to downtown area.The personnel were extremely warm and helpful for any needs or requests.Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r91405730-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>91405730</t>
+  </si>
+  <si>
+    <t>01/02/2011</t>
+  </si>
+  <si>
+    <t>Excellent value, good location for downtown activities. Hassan was a GREAT help.</t>
+  </si>
+  <si>
+    <t>As in many major cities, would reccomend taking a cab at night to attend activities near Staples Center. The staff were extremely friendly and helpful. Would stay there again if the occasion arouse.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r87348486-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>87348486</t>
+  </si>
+  <si>
+    <t>11/16/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I stayed one night at this location and i must say i highly recommend anyone to stay at this RODEWAY INN it is refreshingly clean the people are so nice and helpful.  Next time I go anywhere I will be checking in a RODEWAY INN because of my experience with them.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r82622225-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>82622225</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>Was really impressed with previous reviews and found them all to be true; safe, clean, free parking and wifi, courteous staff.  We even checked the room for bedbugs when got there because of all the recent press, but thought we were fine.  Not so; you don't have to see them to be attacked. I have notified the hotel and hope they will be able to deal with it, because otherwise it is a great value. I would not risk staying again though, as the memory of what we are dealing with now with the itching, clothes/bedding/laundry purge will be a nightmare.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r73865785-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>73865785</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Very nice place to stay, wish I could have stayed longer</t>
+  </si>
+  <si>
+    <t>We stayed at Roadway inn to go to the Price is Right at the CBS studio and it was very nice and the people who checked us in was very nice and helped out with every question we had.I read alot of review before selecting Roadway, there were several reviews that put the place down, I suspect it was because it wasn't a 5 star hotel, it was enough room for me and my husband and my mom, we wanted to stay another night but they had our room reserved for someone else. IF YOU WANT A NICE PLACE TO STAY AND IS VERY CLOSE TO THE CBS STUDIO THEN STAY AT THE ROADWAY INN.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We stayed at Roadway inn to go to the Price is Right at the CBS studio and it was very nice and the people who checked us in was very nice and helped out with every question we had.I read alot of review before selecting Roadway, there were several reviews that put the place down, I suspect it was because it wasn't a 5 star hotel, it was enough room for me and my husband and my mom, we wanted to stay another night but they had our room reserved for someone else. IF YOU WANT A NICE PLACE TO STAY AND IS VERY CLOSE TO THE CBS STUDIO THEN STAY AT THE ROADWAY INN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r70451681-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>70451681</t>
+  </si>
+  <si>
+    <t>07/10/2010</t>
+  </si>
+  <si>
+    <t>It was nice</t>
+  </si>
+  <si>
+    <t>We stayed here because it was close to L.A. Convention Center. My boyfriend and a friend were going to E3. So this was an excellent location for them. This was downtown so the area was dirty, but the hotel was clean. If you are driving they offer free parking to customers. The rooms were small if there are more then two in a room (we had four.) The service was good during the day, but at night if you need something other then directions you are out of luck. Now the rooms looked used, but unlike other reviews I read for the area there were NO BUGS. The cleaning staff were very friendly and helpful. The front desk let us check in early and were very friendly.  I felt very safe staying there and we took the metro transportation and that was good also. Word of advice if taking the subway at night , take cab to hotel don't wait for the bus.   IMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We stayed here because it was close to L.A. Convention Center. My boyfriend and a friend were going to E3. So this was an excellent location for them. This was downtown so the area was dirty, but the hotel was clean. If you are driving they offer free parking to customers. The rooms were small if there are more then two in a room (we had four.) The service was good during the day, but at night if you need something other then directions you are out of luck. Now the rooms looked used, but unlike other reviews I read for the area there were NO BUGS. The cleaning staff were very friendly and helpful. The front desk let us check in early and were very friendly.  I felt very safe staying there and we took the metro transportation and that was good also. Word of advice if taking the subway at night , take cab to hotel don't wait for the bus.   IMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r30173798-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>30173798</t>
+  </si>
+  <si>
+    <t>05/17/2009</t>
+  </si>
+  <si>
+    <t>Will stay there again</t>
+  </si>
+  <si>
+    <t>I lately needed a convenient hotel in LA close to University of Southern California for three days. I stayed at the Rodeway Inn, a motel close to Convention Center and Staples Center, 10 taxi-minutes away. At $100 per night incl. continental breakfast an unbeatable value: clean, quiet, nice rooms, and incredibly nice owners who bend over backwards for their guests. The breakfast room and breakfast itself are somewhat spartan, but they promised to improve that soon. They offer free wireless access and even have a small pool. The neighborhood is rather less attractive but, due to the proximity to Convention and Staples Center, very safe. I would definitely go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I lately needed a convenient hotel in LA close to University of Southern California for three days. I stayed at the Rodeway Inn, a motel close to Convention Center and Staples Center, 10 taxi-minutes away. At $100 per night incl. continental breakfast an unbeatable value: clean, quiet, nice rooms, and incredibly nice owners who bend over backwards for their guests. The breakfast room and breakfast itself are somewhat spartan, but they promised to improve that soon. They offer free wireless access and even have a small pool. The neighborhood is rather less attractive but, due to the proximity to Convention and Staples Center, very safe. I would definitely go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r27891264-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>27891264</t>
+  </si>
+  <si>
+    <t>04/12/2009</t>
+  </si>
+  <si>
+    <t>Close to the Staples Center:)</t>
+  </si>
+  <si>
+    <t>I need to share my experience as downtown LA can be a stress in itself trying to go to a Lakers game:)  I went on Spring Break with my 15 year old son to a Lakers game.  The Good Lord blessed us as we walked into Motel after Motel finding that we could not afford the big fancy Motels downtown.  We wandered into the Rodeway Inn to be greeted by a sweet  young lady at the desk named Nancy.  She made us feel at home and gave us a fantastic price for a room so close to the Staples Center.  This Motel was clean and felt like home.  It is not a large Motel but small and comfortable.  They have a nice outdoor pool, parking for free, breakfast, and internet access to my computer.  We were so tired we woke up late to eat the next morning and to our pleasure Azab Uddin the manager told us to come in anyways and he would let us eat a late breakfast.  You will not find a nicer group of people.  Thankyou again Nancy and Azab for being so kind to us Montana folks who were lost in the shuffle.  God Bless.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I need to share my experience as downtown LA can be a stress in itself trying to go to a Lakers game:)  I went on Spring Break with my 15 year old son to a Lakers game.  The Good Lord blessed us as we walked into Motel after Motel finding that we could not afford the big fancy Motels downtown.  We wandered into the Rodeway Inn to be greeted by a sweet  young lady at the desk named Nancy.  She made us feel at home and gave us a fantastic price for a room so close to the Staples Center.  This Motel was clean and felt like home.  It is not a large Motel but small and comfortable.  They have a nice outdoor pool, parking for free, breakfast, and internet access to my computer.  We were so tired we woke up late to eat the next morning and to our pleasure Azab Uddin the manager told us to come in anyways and he would let us eat a late breakfast.  You will not find a nicer group of people.  Thankyou again Nancy and Azab for being so kind to us Montana folks who were lost in the shuffle.  God Bless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r24222478-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>24222478</t>
+  </si>
+  <si>
+    <t>02/04/2009</t>
+  </si>
+  <si>
+    <t>Economical room</t>
+  </si>
+  <si>
+    <t>At first they had made a mistake on our room then the front desk lady fixed it to make it better. The front desk lady was really polite and really helpfull. Great stay for the money. i would recommend it.</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r20798519-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>20798519</t>
+  </si>
+  <si>
+    <t>10/11/2008</t>
+  </si>
+  <si>
+    <t>Location 3x , Nice staff , clean room</t>
+  </si>
+  <si>
+    <t>i found everything was good in this hotel, for a 2 stories level motel with 35 rooms and close to beverly hills and west hollywood  its a great place to stay.  Parking was full in the basement but im surprised they have 2 parkings, so i went to the other one right behind the hotel; which is good for a small hotel like this.The girls are great and the night shift guy was very helpful.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r19628175-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>19628175</t>
+  </si>
+  <si>
+    <t>09/01/2008</t>
+  </si>
+  <si>
+    <t>Very clean and friendly</t>
+  </si>
+  <si>
+    <t>We stayed one night in this hotel. Very friendly service. As we arrived before 3pm (around 12) they cleaned our room before others. The room was very clean. We payed around $80 - a very good price for the given quality.Mainly asian food restaurants in the near neighborhood.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r18218192-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>18218192</t>
+  </si>
+  <si>
+    <t>07/24/2008</t>
+  </si>
+  <si>
+    <t>Comfortable and clean and surprisingly quiet...</t>
+  </si>
+  <si>
+    <t>The Rodeway in Los Angeles was booked on a summary of all the advice left here... it is true you have to take a balanced view overall and have realistic expectations of accommodation...
+... However for a no-frills, clean and comfortable stay near to the Convention Center (not that we were using it) and also near LA Live (which is not yet built) only 20 minutes drive from Hollywood, this would suit. We did not use public transport - we hired a car - so our review is based on you having a car to get around LA.
+There was ample parking. Check-in was relatively easy, well-explained about the amenities. Friendly staff.
+The room was basic but clean, it was comfortable as there were tea and coffee making facilities, a microwave and fridge in the room, as well as a well-decent air conditioning unit and TV. The bathroom had towels for 2 guests and a separate area with mirror and hairdryer, there was also somewhere to hand your clothes.
+Breakfast was comprised of juices, tea and coffee, toast and muffins, cereals and pastries. A small area just off the pool was available however only 3 or 4 tables to sit at. There was a pool area, which was small and looked OK but we didn't use it as we were only there one night.
+In terms of location, places to eat are not very many, however we did eat at...The Rodeway in Los Angeles was booked on a summary of all the advice left here... it is true you have to take a balanced view overall and have realistic expectations of accommodation...... However for a no-frills, clean and comfortable stay near to the Convention Center (not that we were using it) and also near LA Live (which is not yet built) only 20 minutes drive from Hollywood, this would suit. We did not use public transport - we hired a car - so our review is based on you having a car to get around LA.There was ample parking. Check-in was relatively easy, well-explained about the amenities. Friendly staff.The room was basic but clean, it was comfortable as there were tea and coffee making facilities, a microwave and fridge in the room, as well as a well-decent air conditioning unit and TV. The bathroom had towels for 2 guests and a separate area with mirror and hairdryer, there was also somewhere to hand your clothes.Breakfast was comprised of juices, tea and coffee, toast and muffins, cereals and pastries. A small area just off the pool was available however only 3 or 4 tables to sit at. There was a pool area, which was small and looked OK but we didn't use it as we were only there one night.In terms of location, places to eat are not very many, however we did eat at a Mexican Grill just down the road and it was a friendly enough. As for neighbourhood, it seemed pretty quiet and not too busy but again as we were there one night we cannot vouch for safety etc.All in all, a good choice for a couple of nights, value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>The Rodeway in Los Angeles was booked on a summary of all the advice left here... it is true you have to take a balanced view overall and have realistic expectations of accommodation...
+... However for a no-frills, clean and comfortable stay near to the Convention Center (not that we were using it) and also near LA Live (which is not yet built) only 20 minutes drive from Hollywood, this would suit. We did not use public transport - we hired a car - so our review is based on you having a car to get around LA.
+There was ample parking. Check-in was relatively easy, well-explained about the amenities. Friendly staff.
+The room was basic but clean, it was comfortable as there were tea and coffee making facilities, a microwave and fridge in the room, as well as a well-decent air conditioning unit and TV. The bathroom had towels for 2 guests and a separate area with mirror and hairdryer, there was also somewhere to hand your clothes.
+Breakfast was comprised of juices, tea and coffee, toast and muffins, cereals and pastries. A small area just off the pool was available however only 3 or 4 tables to sit at. There was a pool area, which was small and looked OK but we didn't use it as we were only there one night.
+In terms of location, places to eat are not very many, however we did eat at...The Rodeway in Los Angeles was booked on a summary of all the advice left here... it is true you have to take a balanced view overall and have realistic expectations of accommodation...... However for a no-frills, clean and comfortable stay near to the Convention Center (not that we were using it) and also near LA Live (which is not yet built) only 20 minutes drive from Hollywood, this would suit. We did not use public transport - we hired a car - so our review is based on you having a car to get around LA.There was ample parking. Check-in was relatively easy, well-explained about the amenities. Friendly staff.The room was basic but clean, it was comfortable as there were tea and coffee making facilities, a microwave and fridge in the room, as well as a well-decent air conditioning unit and TV. The bathroom had towels for 2 guests and a separate area with mirror and hairdryer, there was also somewhere to hand your clothes.Breakfast was comprised of juices, tea and coffee, toast and muffins, cereals and pastries. A small area just off the pool was available however only 3 or 4 tables to sit at. There was a pool area, which was small and looked OK but we didn't use it as we were only there one night.In terms of location, places to eat are not very many, however we did eat at a Mexican Grill just down the road and it was a friendly enough. As for neighbourhood, it seemed pretty quiet and not too busy but again as we were there one night we cannot vouch for safety etc.All in all, a good choice for a couple of nights, value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r13676801-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>13676801</t>
+  </si>
+  <si>
+    <t>02/19/2008</t>
+  </si>
+  <si>
+    <t>Close to Convention Center</t>
+  </si>
+  <si>
+    <t>Hotel is fairly close to the Convention Center.  For the price you get a good clean hotel that is approximately a 20 min walk from the Convention Center and about 30 to 40 min walk to downtown LA.  There are other hotels that are closer like the Figuera hotel or the Holiday Inn just around the corner from the Staples Center, but the price would be considerably more.  Check in and check out was a breeze and the staff was friendly.  The hotel is close to a McDonalds, a Mexican restaurant, and several Asian restaurants.  The area is not the best and is considered to be Korea Town, however, there is a large Hispanic population.  It felt safe enough to walk around at night by myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Hotel is fairly close to the Convention Center.  For the price you get a good clean hotel that is approximately a 20 min walk from the Convention Center and about 30 to 40 min walk to downtown LA.  There are other hotels that are closer like the Figuera hotel or the Holiday Inn just around the corner from the Staples Center, but the price would be considerably more.  Check in and check out was a breeze and the staff was friendly.  The hotel is close to a McDonalds, a Mexican restaurant, and several Asian restaurants.  The area is not the best and is considered to be Korea Town, however, there is a large Hispanic population.  It felt safe enough to walk around at night by myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r10066722-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>10066722</t>
+  </si>
+  <si>
+    <t>10/11/2007</t>
+  </si>
+  <si>
+    <t>Clean place to rest your head for a short stay</t>
+  </si>
+  <si>
+    <t>The hotel is in what LA calls, Korean town.  The area is OK, not the best location but it's not a dirty rundown location either. It's clean &amp; the staff is friendly.  Sheets &amp; towels changed daily. They are washed on the premises so you know they wash them. My room had a slight musty smell. I had an air freshener in my room the whole time. Keep the A/C on, that helps w/the smell. They have free internet, you have to get a free password/ID to log on from the front desk everyday bec it only lasts 24 hours. The connection is really, really slow, that was annoying. Parking is very cramped so it's a good idea to have a small car. On the morning of my check-out I returned to find the drivers side view mirror of my rental car was broken off! There are cameras in the parking lot but they have signs they are not responsible for damages. I didn't have any of the free breakfast. I was basically, coffee and some pastries. Do not waste your time. Micky D's is right on the corner. For a quick bite, go eat there. There is also a knock off Taco Bells next door as well. I did not eat there so I can’t comment on it.  There are no irons in the rooms. If you get one from the front desk, ask for an iron w/knobs. The...The hotel is in what LA calls, Korean town.  The area is OK, not the best location but it's not a dirty rundown location either. It's clean &amp; the staff is friendly.  Sheets &amp; towels changed daily. They are washed on the premises so you know they wash them. My room had a slight musty smell. I had an air freshener in my room the whole time. Keep the A/C on, that helps w/the smell. They have free internet, you have to get a free password/ID to log on from the front desk everyday bec it only lasts 24 hours. The connection is really, really slow, that was annoying. Parking is very cramped so it's a good idea to have a small car. On the morning of my check-out I returned to find the drivers side view mirror of my rental car was broken off! There are cameras in the parking lot but they have signs they are not responsible for damages. I didn't have any of the free breakfast. I was basically, coffee and some pastries. Do not waste your time. Micky D's is right on the corner. For a quick bite, go eat there. There is also a knock off Taco Bells next door as well. I did not eat there so I can’t comment on it.  There are no irons in the rooms. If you get one from the front desk, ask for an iron w/knobs. The first night they gave me one w/no knob so I couldn’t regulate how hot it got and the water leaked out of it. They do have good ones, you just have to be specific. Who would’ve thunk it! (that’s a little sarcasm).  The hotel is basically good for a short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>The hotel is in what LA calls, Korean town.  The area is OK, not the best location but it's not a dirty rundown location either. It's clean &amp; the staff is friendly.  Sheets &amp; towels changed daily. They are washed on the premises so you know they wash them. My room had a slight musty smell. I had an air freshener in my room the whole time. Keep the A/C on, that helps w/the smell. They have free internet, you have to get a free password/ID to log on from the front desk everyday bec it only lasts 24 hours. The connection is really, really slow, that was annoying. Parking is very cramped so it's a good idea to have a small car. On the morning of my check-out I returned to find the drivers side view mirror of my rental car was broken off! There are cameras in the parking lot but they have signs they are not responsible for damages. I didn't have any of the free breakfast. I was basically, coffee and some pastries. Do not waste your time. Micky D's is right on the corner. For a quick bite, go eat there. There is also a knock off Taco Bells next door as well. I did not eat there so I can’t comment on it.  There are no irons in the rooms. If you get one from the front desk, ask for an iron w/knobs. The...The hotel is in what LA calls, Korean town.  The area is OK, not the best location but it's not a dirty rundown location either. It's clean &amp; the staff is friendly.  Sheets &amp; towels changed daily. They are washed on the premises so you know they wash them. My room had a slight musty smell. I had an air freshener in my room the whole time. Keep the A/C on, that helps w/the smell. They have free internet, you have to get a free password/ID to log on from the front desk everyday bec it only lasts 24 hours. The connection is really, really slow, that was annoying. Parking is very cramped so it's a good idea to have a small car. On the morning of my check-out I returned to find the drivers side view mirror of my rental car was broken off! There are cameras in the parking lot but they have signs they are not responsible for damages. I didn't have any of the free breakfast. I was basically, coffee and some pastries. Do not waste your time. Micky D's is right on the corner. For a quick bite, go eat there. There is also a knock off Taco Bells next door as well. I did not eat there so I can’t comment on it.  There are no irons in the rooms. If you get one from the front desk, ask for an iron w/knobs. The first night they gave me one w/no knob so I couldn’t regulate how hot it got and the water leaked out of it. They do have good ones, you just have to be specific. Who would’ve thunk it! (that’s a little sarcasm).  The hotel is basically good for a short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r8127696-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>8127696</t>
+  </si>
+  <si>
+    <t>07/15/2007</t>
+  </si>
+  <si>
+    <t>A decent place, nothing special</t>
+  </si>
+  <si>
+    <t>If you need a cheap, decent, clean place to crash near the staples/convention center, this one will do.  I have to disagree with cool john, it was a 15 minute, easy walk to staples center (the key is not walking all the way down to figueroa, cut over a couple of streets before, I forget the name but you'll see the buildings).  The website claimed it was newly remodeled and that did seem to be the case.  The drawbacks were that it was in kind of a noisy area, but the noise must have died down by around 10 or 10:30, because neither I, my wife or mother-in-law had any trouble falling and staying asleep.  The women in my party weren't overly impressed by the place, but they didn't complain about the nice restaurants I was able to take them to due to the amount I saved by not booking us at one of the more expensive hotels down the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>If you need a cheap, decent, clean place to crash near the staples/convention center, this one will do.  I have to disagree with cool john, it was a 15 minute, easy walk to staples center (the key is not walking all the way down to figueroa, cut over a couple of streets before, I forget the name but you'll see the buildings).  The website claimed it was newly remodeled and that did seem to be the case.  The drawbacks were that it was in kind of a noisy area, but the noise must have died down by around 10 or 10:30, because neither I, my wife or mother-in-law had any trouble falling and staying asleep.  The women in my party weren't overly impressed by the place, but they didn't complain about the nice restaurants I was able to take them to due to the amount I saved by not booking us at one of the more expensive hotels down the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r4445947-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4445947</t>
+  </si>
+  <si>
+    <t>02/06/2006</t>
+  </si>
+  <si>
+    <t>Decent for the ugly exterior</t>
+  </si>
+  <si>
+    <t>Man, this place is really ugly from the outside, but it was actually pretty decent inside the room. Enough space and the beds were pretty big, but man, they really need to upgrade the outside, and do some kind of remodel, just doesn't look very attractive. And the decor is a little outdated as well. Needs more parking spaces as well. Very few spaces to park in.  All in all, it wasn't unbearable, the beds were comfortable and the manager (I'm guessing he was the owner as well) was very friendly and gave us directions to places we needed assistance with. But there was a Holiday Inn, a few streets down, I'm sure that would have been the better stay for the extra bucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Man, this place is really ugly from the outside, but it was actually pretty decent inside the room. Enough space and the beds were pretty big, but man, they really need to upgrade the outside, and do some kind of remodel, just doesn't look very attractive. And the decor is a little outdated as well. Needs more parking spaces as well. Very few spaces to park in.  All in all, it wasn't unbearable, the beds were comfortable and the manager (I'm guessing he was the owner as well) was very friendly and gave us directions to places we needed assistance with. But there was a Holiday Inn, a few streets down, I'm sure that would have been the better stay for the extra bucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r2988471-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>2988471</t>
+  </si>
+  <si>
+    <t>01/06/2005</t>
+  </si>
+  <si>
+    <t>Never again ....</t>
+  </si>
+  <si>
+    <t>This was terrible.The rooms were old and need some upgrading real fast.The cleaning staff is doing half work, that means don't be surprised to find used towels or even a dirty toilet from the previous visitor.The Breakfast can be easily described: "IT SUCKS".It runs from 7am-9am ... but if you come after 8am don't expect to find anything, there wasn't even coffee.Ask twice for an extra bed sheet, and not finding it in your room, real professional style.This one never again ...</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2684,6177 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>294</v>
+      </c>
+      <c r="X33" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>302</v>
+      </c>
+      <c r="X34" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>310</v>
+      </c>
+      <c r="O35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>318</v>
+      </c>
+      <c r="X37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>341</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>244</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>244</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>363</v>
+      </c>
+      <c r="X42" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>244</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>372</v>
+      </c>
+      <c r="J44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s">
+        <v>375</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>376</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>376</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>382</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" t="s">
+        <v>385</v>
+      </c>
+      <c r="L46" t="s">
+        <v>386</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>392</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>392</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>402</v>
+      </c>
+      <c r="K49" t="s">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s">
+        <v>404</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>405</v>
+      </c>
+      <c r="O49" t="s">
+        <v>159</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>412</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>419</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>420</v>
+      </c>
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" t="s">
+        <v>422</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>426</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s">
+        <v>429</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>446</v>
+      </c>
+      <c r="J56" t="s">
+        <v>447</v>
+      </c>
+      <c r="K56" t="s">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s">
+        <v>449</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>450</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="J57" t="s">
+        <v>454</v>
+      </c>
+      <c r="K57" t="s">
+        <v>455</v>
+      </c>
+      <c r="L57" t="s">
+        <v>456</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>458</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>459</v>
+      </c>
+      <c r="J58" t="s">
+        <v>460</v>
+      </c>
+      <c r="K58" t="s">
+        <v>461</v>
+      </c>
+      <c r="L58" t="s">
+        <v>462</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>463</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>464</v>
+      </c>
+      <c r="J59" t="s">
+        <v>465</v>
+      </c>
+      <c r="K59" t="s">
+        <v>466</v>
+      </c>
+      <c r="L59" t="s">
+        <v>467</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>468</v>
+      </c>
+      <c r="O59" t="s">
+        <v>100</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>470</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>471</v>
+      </c>
+      <c r="J60" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" t="s">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s">
+        <v>474</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>468</v>
+      </c>
+      <c r="O60" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" t="s">
+        <v>477</v>
+      </c>
+      <c r="K61" t="s">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s">
+        <v>479</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>480</v>
+      </c>
+      <c r="O61" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>481</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>482</v>
+      </c>
+      <c r="J62" t="s">
+        <v>483</v>
+      </c>
+      <c r="K62" t="s">
+        <v>484</v>
+      </c>
+      <c r="L62" t="s">
+        <v>485</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>480</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>486</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>487</v>
+      </c>
+      <c r="J63" t="s">
+        <v>488</v>
+      </c>
+      <c r="K63" t="s">
+        <v>489</v>
+      </c>
+      <c r="L63" t="s">
+        <v>490</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>491</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>492</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>493</v>
+      </c>
+      <c r="J64" t="s">
+        <v>494</v>
+      </c>
+      <c r="K64" t="s">
+        <v>495</v>
+      </c>
+      <c r="L64" t="s">
+        <v>496</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>491</v>
+      </c>
+      <c r="O64" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>499</v>
+      </c>
+      <c r="J65" t="s">
+        <v>500</v>
+      </c>
+      <c r="K65" t="s">
+        <v>501</v>
+      </c>
+      <c r="L65" t="s">
+        <v>502</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>503</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>505</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>506</v>
+      </c>
+      <c r="J66" t="s">
+        <v>507</v>
+      </c>
+      <c r="K66" t="s">
+        <v>508</v>
+      </c>
+      <c r="L66" t="s">
+        <v>509</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>510</v>
+      </c>
+      <c r="O66" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>511</v>
+      </c>
+      <c r="X66" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>515</v>
+      </c>
+      <c r="J67" t="s">
+        <v>516</v>
+      </c>
+      <c r="K67" t="s">
+        <v>517</v>
+      </c>
+      <c r="L67" t="s">
+        <v>518</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>510</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>521</v>
+      </c>
+      <c r="J68" t="s">
+        <v>522</v>
+      </c>
+      <c r="K68" t="s">
+        <v>523</v>
+      </c>
+      <c r="L68" t="s">
+        <v>524</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>525</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>527</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>529</v>
+      </c>
+      <c r="L69" t="s">
+        <v>530</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>531</v>
+      </c>
+      <c r="O69" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" t="s">
+        <v>534</v>
+      </c>
+      <c r="K70" t="s">
+        <v>535</v>
+      </c>
+      <c r="L70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>537</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>538</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>539</v>
+      </c>
+      <c r="J71" t="s">
+        <v>540</v>
+      </c>
+      <c r="K71" t="s">
+        <v>541</v>
+      </c>
+      <c r="L71" t="s">
+        <v>542</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>543</v>
+      </c>
+      <c r="O71" t="s">
+        <v>100</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>544</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" t="s">
+        <v>540</v>
+      </c>
+      <c r="K72" t="s">
+        <v>546</v>
+      </c>
+      <c r="L72" t="s">
+        <v>547</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>548</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>551</v>
+      </c>
+      <c r="J73" t="s">
+        <v>552</v>
+      </c>
+      <c r="K73" t="s">
+        <v>553</v>
+      </c>
+      <c r="L73" t="s">
+        <v>554</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>543</v>
+      </c>
+      <c r="O73" t="s">
+        <v>159</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>556</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>557</v>
+      </c>
+      <c r="J74" t="s">
+        <v>558</v>
+      </c>
+      <c r="K74" t="s">
+        <v>559</v>
+      </c>
+      <c r="L74" t="s">
+        <v>560</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>561</v>
+      </c>
+      <c r="O74" t="s">
+        <v>159</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>563</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>564</v>
+      </c>
+      <c r="J75" t="s">
+        <v>565</v>
+      </c>
+      <c r="K75" t="s">
+        <v>566</v>
+      </c>
+      <c r="L75" t="s">
+        <v>567</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>568</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>569</v>
+      </c>
+      <c r="J76" t="s">
+        <v>570</v>
+      </c>
+      <c r="K76" t="s">
+        <v>571</v>
+      </c>
+      <c r="L76" t="s">
+        <v>572</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>573</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>578</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>579</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
+      </c>
+      <c r="L78" t="s">
+        <v>585</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>579</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>586</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>587</v>
+      </c>
+      <c r="J79" t="s">
+        <v>588</v>
+      </c>
+      <c r="K79" t="s">
+        <v>589</v>
+      </c>
+      <c r="L79" t="s">
+        <v>590</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>579</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>591</v>
+      </c>
+      <c r="X79" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>595</v>
+      </c>
+      <c r="J80" t="s">
+        <v>596</v>
+      </c>
+      <c r="K80" t="s">
+        <v>597</v>
+      </c>
+      <c r="L80" t="s">
+        <v>598</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>579</v>
+      </c>
+      <c r="O80" t="s">
+        <v>100</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>599</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>600</v>
+      </c>
+      <c r="J81" t="s">
+        <v>601</v>
+      </c>
+      <c r="K81" t="s">
+        <v>602</v>
+      </c>
+      <c r="L81" t="s">
+        <v>603</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>604</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>605</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>606</v>
+      </c>
+      <c r="J82" t="s">
+        <v>607</v>
+      </c>
+      <c r="K82" t="s">
+        <v>608</v>
+      </c>
+      <c r="L82" t="s">
+        <v>609</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>610</v>
+      </c>
+      <c r="O82" t="s">
+        <v>100</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>611</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>612</v>
+      </c>
+      <c r="J83" t="s">
+        <v>613</v>
+      </c>
+      <c r="K83" t="s">
+        <v>614</v>
+      </c>
+      <c r="L83" t="s">
+        <v>615</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>616</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>617</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>618</v>
+      </c>
+      <c r="J84" t="s">
+        <v>619</v>
+      </c>
+      <c r="K84" t="s">
+        <v>620</v>
+      </c>
+      <c r="L84" t="s">
+        <v>621</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>622</v>
+      </c>
+      <c r="O84" t="s">
+        <v>72</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>624</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>625</v>
+      </c>
+      <c r="J85" t="s">
+        <v>626</v>
+      </c>
+      <c r="K85" t="s">
+        <v>627</v>
+      </c>
+      <c r="L85" t="s">
+        <v>628</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>629</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>631</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>632</v>
+      </c>
+      <c r="J86" t="s">
+        <v>633</v>
+      </c>
+      <c r="K86" t="s">
+        <v>634</v>
+      </c>
+      <c r="L86" t="s">
+        <v>635</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>636</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>638</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>639</v>
+      </c>
+      <c r="J87" t="s">
+        <v>640</v>
+      </c>
+      <c r="K87" t="s">
+        <v>641</v>
+      </c>
+      <c r="L87" t="s">
+        <v>642</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>643</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>645</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>646</v>
+      </c>
+      <c r="J88" t="s">
+        <v>647</v>
+      </c>
+      <c r="K88" t="s">
+        <v>648</v>
+      </c>
+      <c r="L88" t="s">
+        <v>649</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>650</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>651</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>652</v>
+      </c>
+      <c r="J89" t="s">
+        <v>653</v>
+      </c>
+      <c r="K89" t="s">
+        <v>654</v>
+      </c>
+      <c r="L89" t="s">
+        <v>655</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>656</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>657</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>658</v>
+      </c>
+      <c r="J90" t="s">
+        <v>659</v>
+      </c>
+      <c r="K90" t="s">
+        <v>660</v>
+      </c>
+      <c r="L90" t="s">
+        <v>661</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>662</v>
+      </c>
+      <c r="O90" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>663</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>664</v>
+      </c>
+      <c r="J91" t="s">
+        <v>665</v>
+      </c>
+      <c r="K91" t="s">
+        <v>666</v>
+      </c>
+      <c r="L91" t="s">
+        <v>667</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>668</v>
+      </c>
+      <c r="O91" t="s">
+        <v>100</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>670</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>671</v>
+      </c>
+      <c r="J92" t="s">
+        <v>672</v>
+      </c>
+      <c r="K92" t="s">
+        <v>673</v>
+      </c>
+      <c r="L92" t="s">
+        <v>674</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>675</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>677</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>678</v>
+      </c>
+      <c r="J93" t="s">
+        <v>679</v>
+      </c>
+      <c r="K93" t="s">
+        <v>680</v>
+      </c>
+      <c r="L93" t="s">
+        <v>681</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>682</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>684</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>685</v>
+      </c>
+      <c r="J94" t="s">
+        <v>686</v>
+      </c>
+      <c r="K94" t="s">
+        <v>687</v>
+      </c>
+      <c r="L94" t="s">
+        <v>688</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>689</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>691</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>692</v>
+      </c>
+      <c r="J95" t="s">
+        <v>693</v>
+      </c>
+      <c r="K95" t="s">
+        <v>694</v>
+      </c>
+      <c r="L95" t="s">
+        <v>695</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10379</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>697</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>698</v>
+      </c>
+      <c r="J96" t="s">
+        <v>699</v>
+      </c>
+      <c r="K96" t="s">
+        <v>700</v>
+      </c>
+      <c r="L96" t="s">
+        <v>701</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_670.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>DougDVW</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>cadagility</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r558894344-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>I stayed here during a conference.  Rooms were less than half what hotels close to the convention center were asking.  I was able to walk to the convention center every morning.  The neighborhood is a little blighted, but I felt safe.  After dark, I used Uber just to be cautious.It is about a 20 minute walk to the convention center and it is entirely flat on sidewalks.My room was clean, although a bit spartan.There is no fitness center and the pool is not heated (plus it was locked up during my stay for some reason).  So, walking is the best way to get exercise.The breakfast is standard, low key affair.Shower had hot water, but the shower head was pretty old school.  Small flat screen TV with standard cable channels.Wifi is available.  It is a too slow for streaming movies, but OK for email and browsing the internet.Parking is free which is a huge plus and I felt my car was secure.  I parked it in line of sight of the office figuring the desk clerk would see if anybody was messing with the vehicle.My room was relatively quiet, no big traffic noises and any other guests seemed to be considerate.There is a McDonald's close by as well as a grocery store.  Room has a mini-fridge and a microwave and coffee maker.More</t>
   </si>
   <si>
+    <t>flipper95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r555283938-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Bonnie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r511488292-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>DO NOT STAY AT THIS HOTEL!!!!! We accidentally made a reservation online on 7/10 for a room on 8/13 when we intended for it to be on 7/13. We stayed the night on 7/13, but were charged for both nights. We called numerous times and spoke to at least 3 different staff (Eddie, Mohammad, &amp; Omar) who kept giving us the run around when Eddie finally agreed to give a refund for 8/13 with a $50 penalty. Instead of following through, they charge us yet again for a full night - meaning they have TRIPLE CHARGED us for a ONE NIGHT STAY. I PAID A TOTAL OF $495.82 FOR ONE NIGHT!!!!!! BAD CUSTOMER SERVICE AND THIEVERY!!!More</t>
   </si>
   <si>
+    <t>Nikki M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r498405952-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>This is our second year staying here for AX. The hotel is clean and Omar at the front desk rocks! We had no issues with parking, and you can't beat the free breakfast and WIFI.We will be booking again for 2018.</t>
   </si>
   <si>
+    <t>chazmandos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r474798506-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>gparrott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r439093848-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Stayed 2 nights in mid-November in a room quite close to the breakfast room area.  Room was quiet enough for a city first floor location but a light sleeper might not have been OK with the street noise.  Nice enough room, beds, and bathroom.  Breakfast included a Belgian waffle maker, so that was appreciated.More</t>
   </si>
   <si>
+    <t>IdahoJoeJerome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r437927062-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>My wife and I enjoyed the room.  Yes, a simple motel but the room was very clean, great bed and was close to where we needed to go.  We will stay there again in Sept. 2017.  Free breakfast is decent.  Can't beat the price considering the location.More</t>
   </si>
   <si>
+    <t>OinK_Chan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r437038175-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>Location was OK, about 15-20 minutes walking distance to downtown. Bus stop just nearby if you don't want to walk, but metro station around 700 m. Easy to find food as there are lot of small restaurants and fast food. Room and bathroom were quiet, spacious, clean and spotless. AC, microwave and fridge were worked well. Bed was big, clean and comfortableContinental Breakfast was ok and good enough for start the day. Staffs were polite and helpfull.More</t>
   </si>
   <si>
+    <t>Katy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r410386700-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>Needed an economical hotel well situated, close to USC and downtown. Decent rooms, pool, wifi, breakfast and free parking. Staff was helpful with directions. Stayed there twice in the last month. Will stay there again.More</t>
   </si>
   <si>
+    <t>torrealta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r408480956-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -394,6 +427,9 @@
   </si>
   <si>
     <t>When I arrived, traveling solo, I was told I had reservations for two rooms.  It took awhile to straighten that out.  I discovered that the cooling system was not up to the task and asked for another room.  I was told all the rooms are the same as to cooling.  The desk chair was too low and wobbled.  Otherwise the room was up to 2 star standards.More</t>
+  </si>
+  <si>
+    <t>Jessica L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r402678254-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -418,6 +454,9 @@
 This neighborhood is rough, and the room does not feel safe. There is no security or anything keeping anyone from the street from coming in. I had to put down an additional $100 damage deposit and sign all of this paperwork saying I would not smoke in the room. The first thing I noticed was the smell of urine on the walkway outside my room and how badly the room reeked of cigarettes. I tried to switch rooms and was told that it would cost extra for me to move to a different room. 
 There was no parking on site, so at the moment, I am illegally parked on property with a hotel receipt in my window, hoping that I do not get towed. Parking in this neighborhood at night was not a good or a safe option. 
 The furniture in the room looks new, and the bed is fairly comfortable, but calling this a 2-star motel is a stretch. Perhaps I just happened to get one of the sketchiest rooms on property and the others are better. I definitely feel ripped off for the price I payed....I booked this as a Priceline Express deal, so I was not aware of which hotel I would be booking until after I had already paid. The hotel got really good reviews and was convenient to where I needed to be, so I went ahead and booked based off of those things. This neighborhood is rough, and the room does not feel safe. There is no security or anything keeping anyone from the street from coming in. I had to put down an additional $100 damage deposit and sign all of this paperwork saying I would not smoke in the room. The first thing I noticed was the smell of urine on the walkway outside my room and how badly the room reeked of cigarettes. I tried to switch rooms and was told that it would cost extra for me to move to a different room. There was no parking on site, so at the moment, I am illegally parked on property with a hotel receipt in my window, hoping that I do not get towed. Parking in this neighborhood at night was not a good or a safe option. The furniture in the room looks new, and the bed is fairly comfortable, but calling this a 2-star motel is a stretch. Perhaps I just happened to get one of the sketchiest rooms on property and the others are better. I definitely feel ripped off for the price I payed. I would not have booked here and paid for the nights in advance had I known.More</t>
+  </si>
+  <si>
+    <t>ScionDriver</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r388307158-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -448,6 +487,9 @@
 I honestly don't think these people...My wife had reserved a room here August 2015 for the weekend of July 1-4 2016.  The day we were suppose to check in they decided to call and leave a message stating my wife's card was declined.  We had not even showed up to check in yet.  In an email they also stated that the room will be held until 7am the next day.They left a message at 4:10pm and my wife tried calling at 4:40pm.  They never picked up the phone after 10 minutes of trying.  After ten minutes we finally got a person on the phone, and they stated they had given the room away!! My wife was going to pay 375.26 for 3 nights.  They gave the room away within minutes of alerting my wife of the alleged declined card.  We later verified there was no action on the hotels part to debit her card.We were left with burnt emotions and a situation that demands legal action.  They violated their own policies, flat out lied, and probably gave our room to people that gave them more money based on the low price my wife would have paid.  Lastly, they showed us they are used to covering their own butt with both hands when they couldn't even produce the last four numbers of my wife's credit card to verify if they still even had the reservation in the system.  I honestly don't think these people even have a soul left.  There was at no time during the phone call they even have a crap about the position they put us in.  No attempt to rectify their obvious mistake.  There is no level of apology that will ever fix their attitude or lack of concern for the people they burn.More</t>
   </si>
   <si>
+    <t>cooldoms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r387452315-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -475,6 +517,9 @@
     <t>Travel 4-5 times a year for business. Stays average 4 days. Sometimes up to several weeks.Road noise is loud on W. Olympic Blvd. Air conditioner is loud, but if you don't use it the room is hot and stuffy. Water on floor from improperly installed shower curtain. Breakfast choice is limited. No pastries! Window shutters don't block-out street light, so we hung a cloth over the shutters. No laundry facility. Elevator slow and noisy, so took the stairs. Stairwell is dirty, and unsecured against street traffic. For the price, I expected more...More</t>
   </si>
   <si>
+    <t>Yash S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r384936165-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -493,6 +538,9 @@
     <t>The pictures online were right on point. After a 6 hours or more on the road it was refreshing to see a friendly, smiling face to check in. The check in was at 3 but the room was ready so he most graciously let us going in at 1Pm. The room was clean and smelled clean! spacious rooms with budget price.  I would definitely stay again!More</t>
   </si>
   <si>
+    <t>Ashley S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r358471233-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -523,6 +571,9 @@
     <t>Came down to LA for a Laker's game with a few friends. Great location right down the street from Staples Center. The rooms were comfortable and clean. The continental breakfast in the morning was an added bonus!More</t>
   </si>
   <si>
+    <t>9vasyln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r356616955-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -550,6 +601,9 @@
     <t>Outside looks good. Convenient location, walking distance to Convention center. Near couple of restaurants. Staff is polite and courteous. Room with access to the backyard is quiet. But in same place birds is very noisy on morning. Moreover the entrance door of room open to outside and carpet is dirty near door. In the rest room is not bad, towels and bed line were clean. Room has refrigerator that was very helpful. Breakfast, assortment of meal was good but room for breakfast and tables are small.More</t>
   </si>
   <si>
+    <t>Clarisse C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r355996558-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -574,6 +628,9 @@
     <t>the room was big and clean, the situation is perfect, about 15-20min of the convention center (and staples center) by feet. The service was good as well and flexible. Just for the breakfast, there wasn't o lot of choice. but sometimes in the morning you can hear birds ^^More</t>
   </si>
   <si>
+    <t>curlermon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r345633312-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -601,6 +658,9 @@
     <t>We (two families) stayed here in mid January. A great AAA rate of $100, we wanted somewhere that was close to public transit and downtown. This fitted the need.Basic rooms that were comfortable and clean. We were on the rear of the hotel away from the front street traffic noise. See if you can get the same.You may feel uneasy with the neighbourhood. But just keep alert and to yourself and there will be no trouble. The parking lot is pretty tight and fills up so if you have a space leave the car in it and walk somewhere for supper.Breakfast room is very small so get your selection and go elsewhere to eat.More</t>
   </si>
   <si>
+    <t>Anthony E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r338153083-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -625,6 +685,9 @@
     <t>Nothing fancy but had what we needed.  Went to a show at Staples Center and was within walking distance when cabs and Uber were unavailable.  I'd recommend as an inexpensive or short stay option.  Rodeway provides onsite parking which is a plus in that area.More</t>
   </si>
   <si>
+    <t>JonDrury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r333581011-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -650,6 +713,9 @@
   </si>
   <si>
     <t>Stayed four days at Thanksgiving, 2015, and was pleased with the room. Staff helpful. Elevators and grounds worn. Breakfast room small, but had the basics. Would benefit from some upgrades to breakfast such as eggs and meat.The advantage of the hotel for us was the closeness to our daughter who lives downtown in a loft. Convenient.Would not suggest walking the streets at night.More</t>
+  </si>
+  <si>
+    <t>1TravelCoach</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r322929535-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -681,6 +747,9 @@
 If you are coming from LAX to Downtown LA I highly recommend...Attended Tony Robbins event multiple days at LA Convention Center with pre-paid late checkin. Outside office and attendant would not open glass door upon arrival as on phone. Saw me clearly but no acknowledgment. Given tiny ground floor queen room with outside door easily accessible from street that is unfortunately in area with significant homeless problem. Be forewarned security is a major issue at this property. Tiny box room was cosmetically upgraded; paint, carpet, etc. but felt old and mouldy. A/C noisy and blew directly to bed a few feet away, could not adjust. Roll-in shower leaked to main bathroom floor with mirror tilted down so had to bend down to see it. Toilet plugged with no plunger. Breakfast was sparse and ended up eating at McDonalds which is 2 minute walk. Was confronted one evening by aggressive party after I left there and stopped to feed a homeless person sleeping on sidewalk. You really have to watch your back at night in this neighbourhood. If you do not have a car and want to access downtown at night including Staples Center, LA Zone or Convention Center; for your safety it is best to take the #28 bus on Olympic Blvd which will take you approximately one mile to Figueroa Street. I did it several times and for $1.75 it is money well spent and buses run late.If you are coming from LAX to Downtown LA I highly recommend you use the Union Station Flyaway Bus which you can pickup outside. You pay when you arrive at Union Station and need credit card. $8.00 gets you downtown and take the Red Line Metro Rail downstairs (3 stops) to 7th Street Metro Center Station for $1.75. Keep your ticket and walk down to Olympic Blvd and use to take #28 bus to property.To access metro rail you need to purchase a tap card downstairs from machine for $1.25 and you will need to load it with another $1.75 for the rail trip and extra money for the return or for multiple bus trips (note buses also take cash but the tap card is easier).Had friends use shuttle services from LAX that stopped at multiple hotels and took three hours. I arrived and returned to LAX in 40 minutes. Really a great service for anyone going downtown without a car on nice big bus. Over-all was attracted to this hotel because it appeared to offer the best value for money. And as I didn't have a car I wanted to be within walking distance to the Convention Center, but the lesson I learned is sometimes it is better to pay more especially in Downtown LA.More</t>
   </si>
   <si>
+    <t>Suzanne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r321440527-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -705,6 +774,9 @@
     <t>Friendly and helpful staff. Rooms were clean and looked newly updated. Good lighting in the bathroom. Comfortable bed and pillows. Curved shower curtain rod. Convenience store near by. LA Live in walking distance. Free parking (some spaces are covered). Would stay here again! Don't over pay to stay by the convention center; this place is a great value!More</t>
   </si>
   <si>
+    <t>ChristiC_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r296435481-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -730,6 +802,9 @@
   </si>
   <si>
     <t>I had wrote this place a bad review about 4 yrs ago. Completely remodeled, nicer front desk, rooms up to date, and CLEAN. Last time i stayed there was mold and dirt. I am so pleased that i had to update! Glad i gave this place a second chance. The pregnant lady who checked me in was such a delight! Nice and talkative. Exactly how front desk should be. I'm on a discount and felt like i was still getting a good room. Internet was fast, and the fridge and microwave was great. Mrs. Pimentel here will be back! More</t>
+  </si>
+  <si>
+    <t>Veronica P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r288692041-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -765,6 +840,9 @@
 The room was relatively small, but reasonable modern, and clean. The bed is firm, but not harsh (slept better there than a previous LA hotel I've stayed), and there's enough counter space for my toiletries. I didn't watch any TV and only my dad used the WiFi (I was busy getting ready for the convention). My dad didn't figure out...I was in the area with my dad for a convention at the LACC, and this was the best value within walking distance of the convention center. It also included all of my essentials, such as cleanliness, mini-fridge for storing food and topical medicines, microwave, free breakfast and free parking. Although parking is limited so try to get there at the right time to get a spot, and then walk to and from your destination. The food was basic but there were enough options for me (although I do wish that hotels wouldn't use pancake batter for waffle mix; they are not the same). Food is mostly waffles, cereal, toast, bagels, fruit, yogurt and few other things. No eggs or sausage (not that I minded, but some people do). I will say this though about the noise, since it was 4th of July weekend, their were people setting off illegal fireworks sporadically all around a 1 mile radius and I swear they didn't stop until after 1am. So the noise was annoying, but it's not the hotel's fault for that. The room was relatively small, but reasonable modern, and clean. The bed is firm, but not harsh (slept better there than a previous LA hotel I've stayed), and there's enough counter space for my toiletries. I didn't watch any TV and only my dad used the WiFi (I was busy getting ready for the convention). My dad didn't figure out the AC well the first night because the lettering was a bit worn and he only set it to "fan" rather than "fan cool" (so the first night wasn't cool enough); but he did figure it out (he originally thought it was broken). I was surprised at the price considering the location, but it was definitely the best price with walking distance of the convention center (although, after a full day of fun, that 1.1 mile walk can seem a bit long). The place suited my needs and I would recommend this place to others for bargain values. I may stay here again next year if my schedule allows and if my dad doesn't decide to upgrade to somewhere closer (naturally he can afford it more than me); but we'll see. When we came back each night the towels were replaced; our stuff wasn't messed with, and the place was clean.More</t>
   </si>
   <si>
+    <t>Max M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r284847333-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -786,6 +864,9 @@
     <t>Good place to stay in LA downtown without breaking the bank. Room was spacious, ours was on the first floor with two twin beds. Close to staples centres and some restaurants are pretty close by. 10-15 mins walk from nearest subway station.Parking and wifi are free. Pool is quite small. Breakfast was ok, not many options but as you expect from a budget hotel in downtownMore</t>
   </si>
   <si>
+    <t>RJdoubleu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r281617246-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -813,6 +894,9 @@
     <t>This was my second stay at this hotel, and the service here continues to amaze me. Upon arrival this we requested the same room as last year. At first, they informe us that it may not be possible. However, after a few short calls they managed to give us the room we wanted. They were always polite and made sure had everything we needed to enjoy our stay.More</t>
   </si>
   <si>
+    <t>brickbl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r271244714-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -840,6 +924,9 @@
     <t>This was our family visit to Los Angeles during April 2015. though, I don't often write reviews, but felt I must jot down my experience in this instance. To say in a nutshell, We had the best experience at this hotel. A special mention about the most helpful and fantastic person we met during our entire US tour was the front office manager, Mr Bobby. Right from my booking stage even before arriving at LA, this gentleman guided us thoroughly and very professionally. I must compliment the hotel management for having such a fine professorial like Mr Bobby in their team. He was fast, highly professional and very friendly. As we were likely to reach the hotel at the most inconvenient time, that is , past mid night, Bobby helped us throughout the night getting settled and provided us with the information we needed about the area we were in. The room was perfect for our family's needs, had a refrigerator , microwave oven etc clean and comfortable too! The morning staff  was also very friendly and efficient. The hotel is about 10 minutes walk from the nearest Subway stop, however, my advice would be to hire a car for yourself. Thank you Mr Bobby and all other staff for helping us through out our stay in your hotel.More</t>
   </si>
   <si>
+    <t>coastlinevideo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r270060933-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -867,6 +954,9 @@
     <t>I stayed here for five nights while working at the convention center. The rooms are very nice, the bed comfortable and the staff super friendly. Breakfast was surprisingly good too - not just the coffee and muffins you'd expect, but a nice selection of things. The people staying here kept to themselves - never did I hear any loud noises or partying. And if you pick a room facing the back, it's pretty quiet too. (well, an urban kind of quiet anyway. Sirens and helicopters are a given)There is a pretty good Thai restaurant right next to the hotel, also a Pollo Loco and a little Taco place. Really the only thing wrong with the place is where it's at. I walked the 25 min to the convention center the first morning, and while it did not feel in any way unsafe, I found it extremely depressing. The grime and trash, the graffiti, the homeless camps. Stench of urine wafting from the alleys. Good news is, you can bypass most of it for just $1.75 by hopping on the 28 bus. You can get off either at Olympic and Figuerova or a stop earlier at Olympic and Georgia. I found the latter to be a bit shorter, cutting through the back way. Would I recommend the hotel? Sure, to other budget minded people who are unfortunate enough to have some business in downtown LA. Not for a family vacation.More</t>
   </si>
   <si>
+    <t>Adam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r266845994-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -891,6 +981,9 @@
     <t>Very conveniently located. Near Staples Center and Nokia Theater. Short drive to Doger stadium. The staff was very hospitable and the rooms were very clean.  The  only issue really was the parking. There were plenty of stalls but other guests decided they needed 2. Other than that we liked it.More</t>
   </si>
   <si>
+    <t>Nikhil R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r261376650-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -912,6 +1005,9 @@
     <t>This hotel was close to the Los Angeles convention center. The staff is friendly and the hotel is well maintained. Front desk was good and always courteous. Good business hotel and recommended to stay if visitng the LA convention center.More</t>
   </si>
   <si>
+    <t>Sheila C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r253893911-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -939,6 +1035,9 @@
     <t>My husband and I were very surprised to find this lovely quaint hotel near downtown L.A  We were attending the Night on Broadway event on Jan. 31st.  The hotel was very clean--even the hallway. There is a great Mexican Restaurant within walking distance.  The staff was very friendly and accommodating.More</t>
   </si>
   <si>
+    <t>Julie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r250708013-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -963,6 +1062,9 @@
     <t>I don't often write reviews, but felt I should in this instance.  We had the best experience at this hotel.  We were a walk-in (no prior reservation) and the evening staff person (Jason) was such a big help to us. He was fast, professional and friendly.  Jason helped us throughout the evening getting settled and provided us with the information we needed about the area we were in. The room was perfect for our family's needs, roomy, clean and comfortable too!  The morning staff (Alamin) was just as friendly and efficient!  He assisted us with our boarding passes and of course offered us up delicious hot coffee in their lobby!  Thank you Jason and Alamin for helping us through our last minute stay at your hotel.More</t>
   </si>
   <si>
+    <t>Willliam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r247444280-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -984,6 +1086,9 @@
     <t>This hotel is a great value. Very well kept, nice but smaller rooms and property is secure for guests. This is about 10 blocks from LA Live, Staples Center and walkable but neighborhood along Olympic might give some concern. Bus available as well as cabs though distance is short. We felt the well kept condition and proximity to downtown LA made the choice a great value and we would return.More</t>
   </si>
   <si>
+    <t>answeringquestions</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r246120518-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1009,6 +1114,9 @@
   </si>
   <si>
     <t>Unsafe. Dirty. Avoid if you're smart. This hotel does not have enough parking, as advertised. My family had to park blocks away after driving around and around a neighborhood ridden with prostitutes and drug addicts - not things I wanted my child to see on a family vacation. When we finally did find a parking space, we found human excrement on the curb next to the car.  I would suggest that hotel staff park THEIR cars on the street and get rid of their reserved spaces. The front desk clerk was rude about the whole thing, and recommended I park my car in an illegal space.  I will never stay here again. I would be afraid to.More</t>
+  </si>
+  <si>
+    <t>Corina I</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r244296084-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -1034,6 +1142,9 @@
 Day of check out on 9/29/2014 I had to rush out of hotel to make my appointment! I left and forgot to stop by front desk to get my deposit back.  I NEVER pay cash for incidentals, and completely forgot.   It wasn't until a few weeks later that I had to travel elsewhere that during my check in at another hotel I REMEMBERED I HAD NEVER CLAIMED MY CASH DEPOSIT FROM my...ON 9/27/14 I walked close to midnight - the attendant Jasmin was a lovely Indian girl.  She was very professional, we talked about lobby being very warm, she turned fan while completing my transaction for a 2 night stay.  She asked for a credit card. My card did not go through. So I paid CASH, she said the total would include an additional $100 for incidentals. I had to physically go to my car, and get more cash. I returned with a crisp $100 bill i had gotten from my bank in my home town.  I "assumed" my deposit would be recorded in the computer as any other REPUTABLE hotel would do.  My mistake I did not get a receipt.  After my second night, I asked to extend my stay for a 3rd night - which I was asked to also pay cash. I distinctly asked the attendant if I needed to pay additional for incidentals.  I was told "NO - Your 100 dollars cash will be good."  Day of check out on 9/29/2014 I had to rush out of hotel to make my appointment! I left and forgot to stop by front desk to get my deposit back.  I NEVER pay cash for incidentals, and completely forgot.   It wasn't until a few weeks later that I had to travel elsewhere that during my check in at another hotel I REMEMBERED I HAD NEVER CLAIMED MY CASH DEPOSIT FROM my last stay at the Rodeway Inn LA Convention Center.  I immediately called, attendant looked in the computer, and said was very busy with customers at the counter but would get back to me. He never did.  I called back.  He said, "I didn't find any money in your account."  I left an urgent message on Azad the Manager's cell # which he never replied to.  Instead I received a COOKED INVOICE of my stay at this property showing payment for the 3 nights CASH, CASH, CASH.  Interestingly?  NO RECORD OF A CASH DEPOSIT is listed on my receipt.  Suspicious as heck, because NEVER in my life *think about your experiences* have I ever been allowed to check into a room WITHOUT a credit card deposit for incidentals.  THIS WAS MY FIRST TIME my credit card did not go through due to a bank error neverthe less, the attendant Jasmin repeated to me "it is POLICY and we need a 100.00 DEPOSIT if you are paying cash."   Boy, do I wish I would have gotten a receipt.     So I have reported this property to the Chamber of Commerce, the IRS, and local police authorities.  THIS PROPERTY NEEDS TO BE INVESTIGATED - and Azad, the Manager - if you have nothing to hide, why do you remain silent ? NOT ONE PHONE CALL, NOT ONE EMAIL from you acknowledging my concern and my money.  Was it worth keeping my $100? and from one loyal customer whose past review talked about your property as "my home away from home?" Whose first pick when I came to LA was this property?   It is extremely hurtful and I feel taken advantage of.  NO EFFORTS have been made by this property to "investigate" my concern.  I have simply been given the COLD SHOULDER.  Was it worth $100.00 ? I cautione EVERYONE strongly to look elsewhere for a room stay.  It is SHAMEFUL they think they can stiff a loyal customer.  (Sadly their housekeeping crew is more honest than management and front desk! ) I have left stuff behind and they turned it in.  LEARN a lesson from your own Housekeeping staff, and SHOW THE COURTESY and HONESTY to investigate on your own … perhaps one of your attendants pocketed my money? Is it in your safe unclaimed?  I am going to hope you do find the money for your own sake because if you have an employee or a manager who is pocketing your customers' cash YOUR PROPERTY'S REPUTATION is at stake.  CHOICE HOTELS…. If this is a FRANCHISE, YOUR NAME IS AT STAKE HERE.  I N V E S T I G A T E this property soon! I know there are cameras in that place. Surely especially ona midnight check in you must have PROOF of me coming in, going out to my car, returning both times door was locked and Jasmin had to open the door.  OH yes, fyi, Jasmin no longer works there, I was told.   I expect to hear from CHOICE HOTELS CORPORATE given that Azad, Mgr. is too busy or to address my concern.More</t>
   </si>
   <si>
+    <t>samschoen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r238392922-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1058,6 +1169,9 @@
     <t>Yes like many others I had read the previous reviews and was a bit skeptical as we are used to usually booking 4-5 star hotels. However, I have nothing but excellent things to say about this place! Firstly, the weekend we went there was a holiday, a convention and basketball game going on and downtown was PACKED everywhere! The parking was absolutely fine, I even left and came back several times during the day and evening and had no issues with finding a parking spot. Secondly, the room was very clean, updated, and everything worked perfectly especially the A/C (which got pretty cold we actually had to turn it warmer during the night). The staff was phenomenal!! They were so helpful and even got my room ready very early. I am completely happy with my stay and would absolutely stay again the next time I am in downtown L.A. Thank you everyone at Rodeway!! :)More</t>
   </si>
   <si>
+    <t>Krivas09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r236077711-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1082,6 +1196,9 @@
     <t>Rodeway hotels has great and friendly service at the front desk. They help with what ever you need. The rooms are very spacious and modern. The rooms are also very clean and maintained. They also have reasonable prices! I would definitely stay at Rodeway hotel again!More</t>
   </si>
   <si>
+    <t>347Karthik77347</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r235310744-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1100,6 +1217,9 @@
     <t>It was in a pretty run-down neighbourhood by any stretch of imagination, not somewhere I'd be comfortable staying alone ever again. This was advertised as a cheap option on Hotels.com. Not close to the trains. Walk to the train can take upto 20mins.It looks &amp; feels like a three or four decades old. Smelly interiors &amp; broken windows greeted me. Breakfast is limited &amp; you will have to fight for it as the customers are made to sit in a 15ft by 15ft area.Its proximity to the convention centre is what took to me here since it was a last minute booking. Staff is courteous &amp; friendly.    They provide microwave ovens in rooms, this was a saving grace for me since i'm an Veg by choice. I cooked meals on my own.More</t>
   </si>
   <si>
+    <t>Indi237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r230623070-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1124,6 +1244,9 @@
     <t>We stayed here during a recent weekend event in Little Tokyo, as it is only a couple miles away. The Inn is on Olympic Blvd and just down the street from the Staples Center, just west of central LA were the 10, 110 &amp; 101 meet. That is why we choose it.We parked inside the fenced area and saw that the Inn has residential to the rear and commercial to the front. The elevator was slow going up and quicker going down. With only two floors we also took the stairs. We had trouble getting on the net, but the desk clerk invited us to bring our laptop to the front desk. He was unable to connect us, but later it came up. Fortunately being on the net was not a priority. I also expect that is an easy fix, if they update the hardware. We did check out breakfast in the morning which was very basic. There was oatmeal, bananas and yogurt for the healthy. Hard boiled eggs would have been nice. Of course, the waffles were popular. The dining room is small, but there is a table by the pool. In all, the staff was pleasant and the Inn was adequate. The greatest asset is the location. It's an affordable Inn, not far from the center of city.More</t>
   </si>
   <si>
+    <t>Sean W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r226396043-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1148,6 +1271,9 @@
     <t>We stayed here for Labor Day Weekend and were highly disappointed.  Very limited parking spaces. Even though we had our vehicle marked as guests, we were not guaranteed a parking space.  In fact the manager on duty told us parking spaces are "complimentary" and allowed me to park in red zone inside the parking lot, and would call us if there was an emergency.  Also, elevators were extremely slow, or didn't work.  The phone in room was disabled for out-bound calls; went to office lobby and their phone wouldn't work either. clerk on duty kept telling me to use my cell phone, as theirs failed to work. The room service menu was outdated, and this same clerk had no idea why it was never updated. Just encouraged me to use my cell phone to find food.  Internet in room very slow. The breakfast room lacked air conditioning. There was gum on elevator wall.  I recommend anyone to keep looking. The Ramada Inn across the street should be able to put these people out of business w/ little effort.  For me, girlfriend, and nieces, best part of our stay here was leaving.More</t>
   </si>
   <si>
+    <t>Judith M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r223733992-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1163,6 +1289,9 @@
     <t>Comfortable and couldn't ask for more from a hotel! For the price and the services provided it's amazing, I can't emphasize that enough! Will always stay here for my future engagements in LA and completely recommend.</t>
   </si>
   <si>
+    <t>Angelika K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r218981483-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1181,6 +1310,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>saul r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r213902254-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1209,6 +1341,9 @@
   </si>
   <si>
     <t xml:space="preserve">It's so great to come back to stay at a place where they treat you like family. The overall value, service, friendliness from the staff at this hotel by far exceeds my expectations every time. The staff is honest! They found two expensive items I left behind, and saved them for me! THANK YOU EMMA-Housekeeping Supervisor! </t>
+  </si>
+  <si>
+    <t>Emily515</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r197044231-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -1246,6 +1381,9 @@
 The woman that checked me in was very nice and helpful. But I called for a wake up call at 5:10 to make sure I didn't sleep in for the marathon and they didn't call 'till...We stayed here for the Marathon and got room 312. I think they are refurbishing this hotel, but it hasn't reached the 3rd floor yet. The grounds are well maintained but parking is VERY tight. Good places to eat nearby and a 7-11 almost next door. The elevator is a little sketchy too.Room was older, bedding has seen a lot of wear. The sheets weren't fitted so they kept sliding around underneath us. It had a musty wet smell, we went and bought some fabreeze to help with the smell.The bathroom was not cleaned very well, there were long black hairs all over the floor. It looked like they had been just pushed to the side and behind the door, but not cleaned up. There was hairs in the sink too. I'm just hoping that this is unusual and the housekeeping staff was just overworked with extra guests. There was lots of towels and a mini fridge. The ironing board was stained and has seen better days.The WIFI is slow and spotty.I don't think the pool is very well maintained, it was very dirty. But the breakfast was a nice surprise. A good selection of food and tables to eat. The woman that checked me in was very nice and helpful. But I called for a wake up call at 5:10 to make sure I didn't sleep in for the marathon and they didn't call 'till 6:10. It wasn't a problem for me, as the wake up call was just a backup, but if I had been relying on it I would've missed the race.Overall, a okay place to stay close to the staples center but they need to make sure they everything gets cleaned properly.More</t>
   </si>
   <si>
+    <t>gusvallo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r196741565-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1264,6 +1402,9 @@
     <t>Hotel com ótima relação custo benefício e atendimento impecável por parte de seus "front desks" Alamin e Jenafi. Alamin, inclusive, nos ajudou a conseguir ingressos para jogos de basquete e nos deu dicas muito boas do que fazer, o que visitar em Los Angeles e dos bairros a evitar na cidade. Quartos bons e limpos, estacionamento e wifi grátis. Café da manhã fraco, mas está lá pra "matar" a fome. Recomendado.Awesome price and servisse by it's front desks Alamin and Jenafi. Alamin helped us a lot getting tickets to NBA games and gave us importante tips where to go and what to visit in LA. Good and clean rooms, free parking and wifi connection. Not so strong breakfast, but the food is there when you are hungry. Recomend.More</t>
   </si>
   <si>
+    <t>Graygab1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r192800324-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1283,6 +1424,9 @@
   </si>
   <si>
     <t>Chose this motel because of reviews on TripAdviser.Paid $92/night via Travelocity.5 minute bus ride to L.A. Liveway/Staples Center/L.A. Convention Center. $1.50 bus fair each way. Buses run regularly. Check schedule on www.metro.net. Safe enough to walk during daytime. Takes about 15-20min.Standard continental breakfast was decent. Juice, coffee, mini bagels, toast, yogurt, and awesome industrial waffle maker. Cafe gets crowded at times; eating area is small.Clean property, felt safe. Bed slept pretty good. Room 312 was free from odors. I didn't have a problem with street noise. Nice to have a fridge and microwave in room.Free parking, but spaces are small and go quickly at night. Can park on street for free between 8p-8a.WiFi worked fine on laptop, but could not connect on an iPad for some reason.Fast food and nice places to eat next door and across the street.Will stay here again. Definitely not 5 star, but not a dump either.More</t>
+  </si>
+  <si>
+    <t>Listener_10</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r164658425-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -1312,6 +1456,9 @@
 I have a phobia, I am afraid of insects, especially - bed bugs; I checked every pillow on my bed, linens, and comforter. Fortunately, I did not see any of those creatures. The walls and the door were made of a very thin material, needs better soundproofing. The wooden blinds on the windows were useless, especially early mornings and nights. They do not completely block the light coming into the room. The water temperature in the shower was lukewarm for three days; water...I have stayed at this property for three or four days. As it is seen on current photos, it is a newly renovated property. As per my understanding, it is not a hotel. In fact it is a typical motel with external entrance into each and every room. It is in downtown, which is a very nice advantage. Very convenient location and great amenities. Quick and friendly service. Safe and Secure.The room I stayed was clean and fresh. The only problem was the room temperature, the day I checked-in was a very hot day, of course the AC unit was off. It took more than 4 hours to cool down the room. I perfectly understand their idea to save money. And I do not want to act like a "celebrity", I am not demanding customer and do not ask for awful a lot of things. The reason I chose this motel was based on TripAdvisor.com reviews.  I have a phobia, I am afraid of insects, especially - bed bugs; I checked every pillow on my bed, linens, and comforter. Fortunately, I did not see any of those creatures. The walls and the door were made of a very thin material, needs better soundproofing. The wooden blinds on the windows were useless, especially early mornings and nights. They do not completely block the light coming into the room. The water temperature in the shower was lukewarm for three days; water pressure was very weak. The AC unit in the room sits behind the wall, which divides the main room and the sink area. Because of the fact that the same wall blocks the air, one will not feel the breeze of cold air even with the AC on. However the AC was very loud, as well as the fridge in the room.There were two queen beds, a closet, a table with two chairs, a single night stand, 32 inch flat screen TV on the wall, a TV stand, a telephone, radio-clock, luggage rack/cabinet, fridge, coffee-maker, AC unit, iron and ironing board, shower and a bath tub in my room. The bed I slept was firm. Did not see any dust or dirt on the furniture. The picture on the TV was weird, it was centered and small, it did not cover the whole screen.  There were plenty of towels. I did not even count how many I saw. No complaints about the housekeeping service, since I had a “Do Not Disturb” sign on my door. Had to ask to change the iron, because the one in my room had big plastic burnt stains on it. The second iron I was given had the same issue, had to ask for one more time. Finally the third one worked OK. Ironing board had big stains on it. On the second day of my stay I tried to call the Front Desk in the morning for several times, but there was no luck. Nobody answered. When I went downstairs, the lady behind the desk was sitting in front of her PC. On the departure date, I received a call around 7 am, the voice on the phone was wondering if I needed a housekeeping service and when was I planning to check out. OMG! What was that? That was a bad joke, I was shockingly thankful for waking me up that early on my departure date. I thought I could sleep until 11 am. Ha-ha!Do not know anything about breakfast. Did not eat.They have a very good service - one can leave his/her luggage and come to pick it up later that day. The service is for free of charge and secure.One another thing to note, before my arrival, I had called the hotel and asked for a quite room – away from the main street. The lady who answered my call was not very helpful and was not even willing to help. She made it short, told me to call the next person and tell my requests. However I had my request in the requests section of my reservation. Was it very difficult to assign a room on the quite side of the property?I have to note that the Night Auditor, his name is Jason was extremely courteous, professional and had a great customer service. He was quick to find me a room, quick to call the cab and helped me with my bags on my departure date. Gave me a few recommendations about near-by restaurants. I would definitely recommend this property. It is clean and fresh. Not very expensive.More</t>
   </si>
   <si>
+    <t>joeb_actor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r162747721-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1327,6 +1474,9 @@
     <t>Considering that this hotel was in Downtown, which can tend to look rundown in certain areas, this hotel was very nice!  Newly renovated room!  Carpet, bathroom all were nice and clean!  I had a few minor issues which the front desk staff addressed and corrected promptly!  It was less than a mile from the Convention center and, even with traffic, I managed to get there quickly! I highly recommend this facility!</t>
   </si>
   <si>
+    <t>rosie1166</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r159100399-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1345,6 +1495,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>VegasDario</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r155658197-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1366,6 +1519,9 @@
     <t>Air condition is right above your bed. You can hear EVERYTHING what is happening in other rooms trough air contitioner. I have never seen something like that.Our air conditioner was off all the time but because of sound that comes trough it we had ZERO sleep. We could hear voices from some family that was arguing about money and we heard every single word. It was like they are with us, in our room.Another thing, when u turn air ON, air blows directly on your head, because its located just 3-4 feet above your bed/head. All purpose of this hotel was to get some sleep but we were not able to do so.  Stuff at front desk was nice.More</t>
   </si>
   <si>
+    <t>maestrolms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r155348385-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1387,6 +1543,9 @@
     <t>I have stayed at this motel on several occasions since April, 2008; the last being last weekend.  I decided to return there because of previous good experiences.  The owners are friendly, the rooms clean and comfortable, and a reasonable breakfast, including waffles, is offered.  One main benefit, of which I have not previously taken advantage, is that it is located on a main bus line.  At the last minute, I decided to cancel my one-day car rental and to rely on public transport.  A wise decision; because of good schedules, even on weekends, and the 25-cent fare for senior citizens on weekends, I was able to make two trips to the heart of downtown, over two days, for a grand total of $1.25, instead of spending $51 for a one-day car rental.  (By the way, had I used my first option, the motel does offer Free parking for guests.)There are numerous nearby restaurants, both fast-food and sit-down, and the motel is located very near Koreatown.  I will return there again!More</t>
   </si>
   <si>
+    <t>Sheena S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r154759287-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1405,6 +1564,9 @@
     <t>Stayed for 2 nights after being in NZ for a month.  Needed a place downtown and it looked good from the photos we saw online at olhotlels.com but the photos weren't from there although the prices and info was. Confusing at first and wouldn't look at their website again.Wasn't happy when we arrived but Jason who was at the desk couldn't be more helpful and thought he was doing us a favour by giving us a room looking out onto Olympic Boulevard but very noisy and wouldn't recommend anyone staying in a room overlooking the street.  Offered to change but not worth the bother.Breakfast very good and the rooms although basic were clean and had everything you need.Would recommend if you want a cheap place close to downtown LA.More</t>
   </si>
   <si>
+    <t>Gabrielle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r149885962-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1426,6 +1588,9 @@
     <t>I needed to go downtown but I wanted to stay on Olympic because so many of the downtown hotels are difficult to drive into.  I also wanted to have easy access to my car and not have to valet every time.  On the positives the furniture in the rooms is brand new and the bed was very comfortable (four star bed ;-) ).  There were also plenty of parking spaces so I felt safe leaving my car.  Free internet and parking was a major plus too as you generally pay a premium for those downtown.  The Internet connection also worked very well.  On the negatives there were shady people staying here, very long waits at the desk, the exterior of the hotel is run down.  I felt safe and secure inside my room but not really walking around the hallways.  It was okay because someone else was with me but I definitely wouldn't stay alone as a young woman (maybe if I were a man).  If you wanted somewhere cheap near downtown and you were with a group it would be a good option but the Ramada across the street is more hotel like and the same price but it was sold out.  There are also a lot of food options in the area, whereas at the fancier hotels downtown often the only choice is room service.More</t>
   </si>
   <si>
+    <t>PhaMad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r149317844-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1444,6 +1609,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>DavidAL04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r149030948-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1459,6 +1627,9 @@
     <t>If you're looking for a luxurious hotel, look someplace else. But if you're looking for a cheap, clean hotel 5 minutes away from downtown LA, this is the place. Plus, with free wifi, breakfast and parking, the rate we got was a steal. There were also very good restaurants a minute away from the hotel, so we were happy to not have to take the car for a late supper after a long day in LA.</t>
   </si>
   <si>
+    <t>zbosherow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r144617389-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1480,6 +1651,9 @@
     <t>Three night stay with my boyfriend, I picked the hotel because of the price and location (reasonable drive to places we wanted to visit in LA). My priorities in a hotel are cleanliness and amenities. It always baffles me that cheap hotels offer free wifi and parking while $150 + hotels charge ridiculous prices.The wifi was excellent, we like to watch Netflix and its always great when the internet isn't cutting out every 5 minutes. The bed was comfy enough with clean sheets and the bathroom was also clean. The employees were very friendly whenever we saw them. While out of towners not familiar with Los Angeles may be nervous about the neighborhood, I would say it is safer than downtown and just use common sense (aka don't walk around by yourself at 2 am with your iPod out). With that said, because the room didn't have a safe we decided to put up the do not disturb sign each day so we never used the cleaning service. They were very accommodating when we asked for more toilet paper and fresh towels one night. They also have a pool and free breakfast, but we never took advantage of these things. Overall I would recommend this hotel if you are on a budget and I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>rogerbowman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r143408109-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1495,6 +1669,9 @@
     <t>Serviceble and comfortable, if a bit tatty. It's a motel wit windows opening onto sidewalk  , so nut much privacy .Brd OK; pillows nice.Free parking, wireless and continental breakfast.Thai restraint next door, and Korean one across street ..</t>
   </si>
   <si>
+    <t>Mike A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r138929009-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1513,6 +1690,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>btf009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r136869690-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1528,6 +1708,9 @@
     <t>I stayed for 4 nights to attend a conference at the LA Convention. I never had bed bugs. First I thought they were mosquito bits, then in the next two days there were more bits. Terrible experience. Now I am worried if I have brought those bed bugs home. In addition the carpet was lousy and breakfast was simple. I won't stay there again.</t>
   </si>
   <si>
+    <t>hiszpan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r136313079-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1546,6 +1729,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>MrLorin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r130558572-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1564,6 +1750,9 @@
     <t>Stayed here at the Rodeway Inn for one night since my girlfriend was sworn in (citizenship naturalization) the next morning at the Los Angeles Convention Center.  We enjoyed the king suite (room 104), especially for the total price of $124.73.  Not bad for being a little over a mile from the convention center.  The room was clean with a microwave and refrigerator, and the bed was comfortable.  The water was hot when we took a shower in the morning.  The suite had a separate room in it with a couch, chair and big screen TV.  Since it is downtown Los Angeles, the location is not ritzy.  But we felt safe since the property (besides the driveway entrance) was entirely surrounded by a high metal fence.  The continental breakfast was very basic, which is not suprising given the price of this hotel.  In other words, "you get what you pay for" applies here.  When we checked out in the morning, the kind gentleman behind the counter graciously made a couple of copies for us at no charge.  All the staff at this location were friendly and courteous.  As a point of information, it took five minutes to drive from this hotel to the convention center at 8:00 a.m.  We paid $10.00 for all day parking a couple blocks from the convention center.  Be aware that the closer you get to the convention center, the higher the price for parking!More</t>
   </si>
   <si>
+    <t>OHLondon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r127945499-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1585,6 +1774,9 @@
     <t>Stayed at the Rodeway Convention Center for a week in February.  Chose it because it looked to be very close to the LA Convention Center, clean, and affordable - was on a very tight budget.  The room was very clean and as it appeared in the photos online.  The staff were pleasant and helpful and overall the room was good value for the rate.  I wouldn't stay there again though - the area the hotel is situated in is rather depressing, not dangerous (I live in another big city) but very run down.  I also had to take a bus to get to the Convention Center everyday as it is too far to walk, so not that convenient.  Anywhere in LA without a car is a nightmare, so that's not the hotel's fault, but the name is misleading, it really isn't that close to the Convention Center. One more thing -  the breakfast was terrible, a choice of filter coffee, toast and one kind of fruit self-served in a really grim little room.  If you're on a budget, a cheap, clean place to stay but if you can at all afford to stay somewhere nicer, do.More</t>
   </si>
   <si>
+    <t>Al S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r127078792-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1612,6 +1804,9 @@
     <t>Price is good and room was clean but the neighborhood is NOT a place to feel very safe with a family especially after dark.  I was with my wife and 16 year old daughter for a 2-day competition she was in at the the convention center.  We were woken at 2 am on Sunday morning by the sound of a man ranting and trying to kick down a door and therating to kill the occupant of that room.  Needless to say that we were very scared.  I called the front desk ( it took 2X for the desk to pickup).  The man at the desk said he went outside - as he must have heard it as well - but didnt see anyone.  I asked him to call the police.  He was reluctant but said he would.  I waited a few minutes but decided to call 911 myself.  I reported it they took my information and the said they would dispatch someone to come.  We didn't see or hear anyone come so I really don't know if they responded or not.  In any event, the man came back several times threating the occupant AFTER I had called the police.  I stayed up ( as did my daughter and wife ) with the light off not knowing whether or not this man would try to enter other rooms.  The rooms have floor to celing windows adjacent to the door -- so...Price is good and room was clean but the neighborhood is NOT a place to feel very safe with a family especially after dark.  I was with my wife and 16 year old daughter for a 2-day competition she was in at the the convention center.  We were woken at 2 am on Sunday morning by the sound of a man ranting and trying to kick down a door and therating to kill the occupant of that room.  Needless to say that we were very scared.  I called the front desk ( it took 2X for the desk to pickup).  The man at the desk said he went outside - as he must have heard it as well - but didnt see anyone.  I asked him to call the police.  He was reluctant but said he would.  I waited a few minutes but decided to call 911 myself.  I reported it they took my information and the said they would dispatch someone to come.  We didn't see or hear anyone come so I really don't know if they responded or not.  In any event, the man came back several times threating the occupant AFTER I had called the police.  I stayed up ( as did my daughter and wife ) with the light off not knowing whether or not this man would try to enter other rooms.  The rooms have floor to celing windows adjacent to the door -- so he wouldn't need to break through the door - just break the window and walk in.  Obviously, I cant say that this is a common occurence but once was enough for me and I would not want anyone to share our awful experience - so be careful!More</t>
   </si>
   <si>
+    <t>Steve W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r126593507-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1630,6 +1825,9 @@
     <t>The Rodeway Inn Convention Center is an older building around a mile from LA Live, the LA Convention Center, and the Staples Center.  It was easy to walk downtown in the daytime and bus tours for tourism stopped in the hotel.  Fast food restaurants were close by for convenience with nicer sit down restaurants closer to the downtown core.  Despite its older outwards appearance, our rooms were very clean and recently renovated with new furniture and beds.  I stayed in a king bedroom  which had a full desk available to work on.  Wifi was free, although not the fastest.  Staff was excellent and helped print out boarding passes or tickets to events when I needed them.  The outdoor pool looked nice and clean, although the weather did not cooperate for our visit so I did not use it.  Lastly, complimentary continental breakfasts were an unexpected touch, although the food really was limited.  Still, the fresh oranges, bananas, cereal, and bagels got me by until lunchtime elsewhere.At 1/2 to 1/3 the price of hotels only a mile away, I would recommend the Rodeway Inn and would stay there again in the future.  You can't beat its value.More</t>
   </si>
   <si>
+    <t>SunMoonStarzz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r123641088-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1648,6 +1846,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>I_too_enjoy_travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r121851585-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1666,6 +1867,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r120132163-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1684,6 +1888,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>PinoGeppi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r116281922-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1702,6 +1909,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>The1Deej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r116281380-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1720,6 +1930,9 @@
     <t>This feels more like a motel but considering the price and closeness to the Convention Centre (by walking or by transit) it was exactly what I needed. An affordable place to sleep.Only issues I had were the pop and water I put in the fridge ended up frozen and the face plates on the electrical outlets could use a bit of repair. A very minor note the complimentary breakfast was lacking but had good bananas at the very leastIf I could have spent more for something more deluxe I would have but for what you pay for the room and location I would stay there again if this is the price range you are looking for.More</t>
   </si>
   <si>
+    <t>QualityRow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r115884247-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1738,6 +1951,9 @@
     <t>Facility was chosen for price and based on Trip Advisor reviews. Our stay was for seven nights. Location is in a relatively low density area of mixed retail commercial and residential use west of Downtown and east of Korea Town. Adjacent streets and buildings are older and in average to fair condition; this is not an “upscale neighborhood”. However, we observed no untoward elements or safety threats and it was fairly quiet at night. The motel has free open and covered off street parking. It states that there are fewer parking spaces than rooms, but arriving back several nights between 10 and 11 PM parking spaces were available. The alternative is street parking, which appears to be in short supply. Several public surface transit lines are within a few blocks. The Red Line subway is about five blocks. Restaurants and retail services are on Olympic Blvd, the arterial street fronting the motel. The motel building is older but has been updated. It has three levels with stairs and one small elevator. There is a common room in which a “continental breakfast” is offered and a small swimming pool. Rooms are accessed from exterior walkways. We had two rooms. They were of reasonable size, clean with some minor wear and tear, and pleasantly decorated; see included pix. The rooms had individual wall air conditioners/heaters and opening, screened, insulated windows with interior adjustable wood shutter coverings. The baths had slab granite sink...Facility was chosen for price and based on Trip Advisor reviews. Our stay was for seven nights. Location is in a relatively low density area of mixed retail commercial and residential use west of Downtown and east of Korea Town. Adjacent streets and buildings are older and in average to fair condition; this is not an “upscale neighborhood”. However, we observed no untoward elements or safety threats and it was fairly quiet at night. The motel has free open and covered off street parking. It states that there are fewer parking spaces than rooms, but arriving back several nights between 10 and 11 PM parking spaces were available. The alternative is street parking, which appears to be in short supply. Several public surface transit lines are within a few blocks. The Red Line subway is about five blocks. Restaurants and retail services are on Olympic Blvd, the arterial street fronting the motel. The motel building is older but has been updated. It has three levels with stairs and one small elevator. There is a common room in which a “continental breakfast” is offered and a small swimming pool. Rooms are accessed from exterior walkways. We had two rooms. They were of reasonable size, clean with some minor wear and tear, and pleasantly decorated; see included pix. The rooms had individual wall air conditioners/heaters and opening, screened, insulated windows with interior adjustable wood shutter coverings. The baths had slab granite sink counters and in a separate room tub/shower and commode. Water pressure and hot water availability were adequate. Rooms had small refrigerators, microwave ovens, hair dryers, iron and ironing board, small low quality clock radio, telephone, and large television. Light fixtures were adequate. Furniture included a queen size bed, two bedside cabinets, a desk with chair, dresser with TV cabinet above, wall mirrors, and a clothes hanging area. One room had a large “easy chair”.  Beds were firm and comfortable with sheets, blanket, bedspread, and four somewhat lumpy but adequate pillows. There was no evidence of bed bugs or any other insects. The staff was agreeable, attentive, and helpful. At arrival there was some problem with the air conditioner in one room and the refrigerator in the other, both of these were solved by staff within a half hour. Overall, there were no significant negative elements.More</t>
   </si>
   <si>
+    <t>POBmaestro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r112761566-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1759,6 +1975,9 @@
     <t>We stayed at this hotel for a week and didn't feel let down at all during our stay. We recieved friendly and helpful service from all the staff. The room was well cleaned everyday, with fresh towells etc. provided everyday. The free wireless internet was relatively fast and stable all week and the free breakfast, although not of the best quality, was a nice touch. There is a busy road next to some of the rooms and on Friday night there was some noise from the city, but this is to be expected in LA!We have stayed at this hotel twice now but if we return to LA we would use this hotel again!More</t>
   </si>
   <si>
+    <t>goodfelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r104295529-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1774,6 +1993,9 @@
     <t>Great location nice staff no complaints will stay there again. I have not seen any bed bugs as people been complaining about. And its small insect not harmful at all. Overall out of 5 I give it a 4.5.</t>
   </si>
   <si>
+    <t>franciscoorange</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r97359651-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1792,6 +2014,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>WanaBinHawaii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r95610232-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1813,6 +2038,9 @@
     <t>My daughter and I stayed here while she attended the CHA Trade Show at the L.A. Convention Center. The GOOD: the staff was very accommodating and friendly.  The room was spacious and the bathroom clean. The BAD: Very few options for dining within walking distance . . . El Pollo Loco, McDonald's, Pollo Campero, Subway.  Very hard beds and our room had bugs!!  I now know there were bed bugs - I've never experienced that before!!!  I have at least 6 bug bites on my arms and wrists.  We killed a couple we saw crawling around.  In hindsight, we should have asked to be moved to another room!!  Also, we were right next to the drive through to the back parking area, so at all hours of the night we were awakened by loud trucks and cars driving through, their antennas scraping against the roof, or vehicles idleing there and people talking loud.  Overall, not a good experience and I would not return.  Sorry Rodeway Inn!!!More</t>
   </si>
   <si>
+    <t>Romero1975</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r93995573-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1828,6 +2056,9 @@
     <t>I was attending convention center,location is near public transport.Great value and excellent choice for convenience access to downtown area.Staff was extremely helpful for any needs or requests.No evidence of bed bugs at all despite other reviews here.</t>
   </si>
   <si>
+    <t>californiaglobetrott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r93875290-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1852,6 +2083,9 @@
     <t>My friend and I booked a room at the Rodeway Inn to attend a conference at the LA Convention Center.  It is close by and right across the street from a cheap and tasty Mexican grill.  However, I noticed bites on my arms during our visit, and by the time we both got home, we had managed to spread bedbugs from the room to our homes.  We've called four times between us and have been unable to reach the manager.  Hassan fields our messages, but parrots messages claiming that they have no bedbugs.  My friend and I live on opposite sides of the country and were bedbug free until we shared a room here. We are extremely upset by the utter lack of responsibility this vermin infested hotel takes for its condition.More</t>
   </si>
   <si>
+    <t>J0e1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r92460725-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1867,6 +2101,9 @@
     <t>Great value and excellent choice for convenient access to downtown area.The personnel were extremely warm and helpful for any needs or requests.Highly recommended.</t>
   </si>
   <si>
+    <t>meadehive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r91405730-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1885,6 +2122,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>homez1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r87348486-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1903,6 +2143,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>sarahfb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r82622225-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1921,6 +2164,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>MSTAZ33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r73865785-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1942,6 +2188,9 @@
     <t>We stayed at Roadway inn to go to the Price is Right at the CBS studio and it was very nice and the people who checked us in was very nice and helped out with every question we had.I read alot of review before selecting Roadway, there were several reviews that put the place down, I suspect it was because it wasn't a 5 star hotel, it was enough room for me and my husband and my mom, we wanted to stay another night but they had our room reserved for someone else. IF YOU WANT A NICE PLACE TO STAY AND IS VERY CLOSE TO THE CBS STUDIO THEN STAY AT THE ROADWAY INN.More</t>
   </si>
   <si>
+    <t>mppilarski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r70451681-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1963,6 +2212,9 @@
     <t>We stayed here because it was close to L.A. Convention Center. My boyfriend and a friend were going to E3. So this was an excellent location for them. This was downtown so the area was dirty, but the hotel was clean. If you are driving they offer free parking to customers. The rooms were small if there are more then two in a room (we had four.) The service was good during the day, but at night if you need something other then directions you are out of luck. Now the rooms looked used, but unlike other reviews I read for the area there were NO BUGS. The cleaning staff were very friendly and helpful. The front desk let us check in early and were very friendly.  I felt very safe staying there and we took the metro transportation and that was good also. Word of advice if taking the subway at night , take cab to hotel don't wait for the bus.   IMore</t>
   </si>
   <si>
+    <t>StudentMom09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r30173798-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1984,6 +2236,9 @@
     <t>I lately needed a convenient hotel in LA close to University of Southern California for three days. I stayed at the Rodeway Inn, a motel close to Convention Center and Staples Center, 10 taxi-minutes away. At $100 per night incl. continental breakfast an unbeatable value: clean, quiet, nice rooms, and incredibly nice owners who bend over backwards for their guests. The breakfast room and breakfast itself are somewhat spartan, but they promised to improve that soon. They offer free wireless access and even have a small pool. The neighborhood is rather less attractive but, due to the proximity to Convention and Staples Center, very safe. I would definitely go there again.More</t>
   </si>
   <si>
+    <t>mwplayhouse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r27891264-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2005,6 +2260,9 @@
     <t>I need to share my experience as downtown LA can be a stress in itself trying to go to a Lakers game:)  I went on Spring Break with my 15 year old son to a Lakers game.  The Good Lord blessed us as we walked into Motel after Motel finding that we could not afford the big fancy Motels downtown.  We wandered into the Rodeway Inn to be greeted by a sweet  young lady at the desk named Nancy.  She made us feel at home and gave us a fantastic price for a room so close to the Staples Center.  This Motel was clean and felt like home.  It is not a large Motel but small and comfortable.  They have a nice outdoor pool, parking for free, breakfast, and internet access to my computer.  We were so tired we woke up late to eat the next morning and to our pleasure Azab Uddin the manager told us to come in anyways and he would let us eat a late breakfast.  You will not find a nicer group of people.  Thankyou again Nancy and Azab for being so kind to us Montana folks who were lost in the shuffle.  God Bless.More</t>
   </si>
   <si>
+    <t>erac87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r24222478-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2023,6 +2281,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>JohnBeverlyhills</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r20798519-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2041,6 +2302,9 @@
     <t>October 2008</t>
   </si>
   <si>
+    <t>hoste68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r19628175-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2057,6 +2321,9 @@
   </si>
   <si>
     <t>September 2008</t>
+  </si>
+  <si>
+    <t>Black_Country_Kitteh</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r18218192-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -2090,6 +2357,9 @@
 In terms of location, places to eat are not very many, however we did eat at...The Rodeway in Los Angeles was booked on a summary of all the advice left here... it is true you have to take a balanced view overall and have realistic expectations of accommodation...... However for a no-frills, clean and comfortable stay near to the Convention Center (not that we were using it) and also near LA Live (which is not yet built) only 20 minutes drive from Hollywood, this would suit. We did not use public transport - we hired a car - so our review is based on you having a car to get around LA.There was ample parking. Check-in was relatively easy, well-explained about the amenities. Friendly staff.The room was basic but clean, it was comfortable as there were tea and coffee making facilities, a microwave and fridge in the room, as well as a well-decent air conditioning unit and TV. The bathroom had towels for 2 guests and a separate area with mirror and hairdryer, there was also somewhere to hand your clothes.Breakfast was comprised of juices, tea and coffee, toast and muffins, cereals and pastries. A small area just off the pool was available however only 3 or 4 tables to sit at. There was a pool area, which was small and looked OK but we didn't use it as we were only there one night.In terms of location, places to eat are not very many, however we did eat at a Mexican Grill just down the road and it was a friendly enough. As for neighbourhood, it seemed pretty quiet and not too busy but again as we were there one night we cannot vouch for safety etc.All in all, a good choice for a couple of nights, value for money.More</t>
   </si>
   <si>
+    <t>smallcatoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r13676801-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2111,6 +2381,9 @@
     <t>Hotel is fairly close to the Convention Center.  For the price you get a good clean hotel that is approximately a 20 min walk from the Convention Center and about 30 to 40 min walk to downtown LA.  There are other hotels that are closer like the Figuera hotel or the Holiday Inn just around the corner from the Staples Center, but the price would be considerably more.  Check in and check out was a breeze and the staff was friendly.  The hotel is close to a McDonalds, a Mexican restaurant, and several Asian restaurants.  The area is not the best and is considered to be Korea Town, however, there is a large Hispanic population.  It felt safe enough to walk around at night by myself.More</t>
   </si>
   <si>
+    <t>DaisyTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r10066722-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2132,6 +2405,9 @@
     <t>The hotel is in what LA calls, Korean town.  The area is OK, not the best location but it's not a dirty rundown location either. It's clean &amp; the staff is friendly.  Sheets &amp; towels changed daily. They are washed on the premises so you know they wash them. My room had a slight musty smell. I had an air freshener in my room the whole time. Keep the A/C on, that helps w/the smell. They have free internet, you have to get a free password/ID to log on from the front desk everyday bec it only lasts 24 hours. The connection is really, really slow, that was annoying. Parking is very cramped so it's a good idea to have a small car. On the morning of my check-out I returned to find the drivers side view mirror of my rental car was broken off! There are cameras in the parking lot but they have signs they are not responsible for damages. I didn't have any of the free breakfast. I was basically, coffee and some pastries. Do not waste your time. Micky D's is right on the corner. For a quick bite, go eat there. There is also a knock off Taco Bells next door as well. I did not eat there so I can’t comment on it.  There are no irons in the rooms. If you get one from the front desk, ask for an iron w/knobs. The...The hotel is in what LA calls, Korean town.  The area is OK, not the best location but it's not a dirty rundown location either. It's clean &amp; the staff is friendly.  Sheets &amp; towels changed daily. They are washed on the premises so you know they wash them. My room had a slight musty smell. I had an air freshener in my room the whole time. Keep the A/C on, that helps w/the smell. They have free internet, you have to get a free password/ID to log on from the front desk everyday bec it only lasts 24 hours. The connection is really, really slow, that was annoying. Parking is very cramped so it's a good idea to have a small car. On the morning of my check-out I returned to find the drivers side view mirror of my rental car was broken off! There are cameras in the parking lot but they have signs they are not responsible for damages. I didn't have any of the free breakfast. I was basically, coffee and some pastries. Do not waste your time. Micky D's is right on the corner. For a quick bite, go eat there. There is also a knock off Taco Bells next door as well. I did not eat there so I can’t comment on it.  There are no irons in the rooms. If you get one from the front desk, ask for an iron w/knobs. The first night they gave me one w/no knob so I couldn’t regulate how hot it got and the water leaked out of it. They do have good ones, you just have to be specific. Who would’ve thunk it! (that’s a little sarcasm).  The hotel is basically good for a short stay.More</t>
   </si>
   <si>
+    <t>bizh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r8127696-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2153,6 +2429,9 @@
     <t>If you need a cheap, decent, clean place to crash near the staples/convention center, this one will do.  I have to disagree with cool john, it was a 15 minute, easy walk to staples center (the key is not walking all the way down to figueroa, cut over a couple of streets before, I forget the name but you'll see the buildings).  The website claimed it was newly remodeled and that did seem to be the case.  The drawbacks were that it was in kind of a noisy area, but the noise must have died down by around 10 or 10:30, because neither I, my wife or mother-in-law had any trouble falling and staying asleep.  The women in my party weren't overly impressed by the place, but they didn't complain about the nice restaurants I was able to take them to due to the amount I saved by not booking us at one of the more expensive hotels down the street.More</t>
   </si>
   <si>
+    <t>monkeyguy1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r4445947-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2169,6 +2448,9 @@
   </si>
   <si>
     <t>Man, this place is really ugly from the outside, but it was actually pretty decent inside the room. Enough space and the beds were pretty big, but man, they really need to upgrade the outside, and do some kind of remodel, just doesn't look very attractive. And the decor is a little outdated as well. Needs more parking spaces as well. Very few spaces to park in.  All in all, it wasn't unbearable, the beds were comfortable and the manager (I'm guessing he was the owner as well) was very friendly and gave us directions to places we needed assistance with. But there was a Holiday Inn, a few streets down, I'm sure that would have been the better stay for the extra bucks.More</t>
+  </si>
+  <si>
+    <t>Huugs</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223042-r2988471-Rodeway_Inn_Convention_Center-Los_Angeles_California.html</t>
@@ -2688,43 +2970,47 @@
       <c r="A2" t="n">
         <v>10379</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2742,50 +3028,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10379</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2805,50 +3095,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10379</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2864,50 +3158,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10379</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2927,50 +3225,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10379</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2984,50 +3286,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10379</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3047,50 +3353,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10379</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -3108,56 +3418,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10379</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3173,56 +3487,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10379</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3238,56 +3556,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10379</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3299,56 +3621,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10379</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3366,56 +3692,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10379</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3433,56 +3763,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10379</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3494,56 +3828,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10379</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3559,56 +3897,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10379</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3626,56 +3968,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10379</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3687,56 +4033,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10379</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3754,56 +4104,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10379</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3819,56 +4173,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10379</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3884,56 +4242,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10379</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3945,56 +4307,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10379</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4012,56 +4378,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10379</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4079,56 +4449,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10379</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4140,56 +4514,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10379</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4201,56 +4579,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10379</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4266,56 +4648,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10379</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4327,56 +4713,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10379</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4392,56 +4782,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10379</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4457,56 +4851,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10379</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4518,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="X30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10379</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4579,56 +4981,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10379</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4644,56 +5050,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10379</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4709,56 +5119,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10379</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4774,56 +5188,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="X34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10379</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4839,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="X35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Y35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10379</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4904,56 +5326,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10379</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4971,56 +5397,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="X37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="Y37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10379</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5036,47 +5466,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10379</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -5103,56 +5537,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10379</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5172,50 +5610,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10379</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>389</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="L41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5233,56 +5675,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="X41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10379</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>398</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5298,56 +5744,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="X42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="Y42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10379</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>407</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="J43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5367,50 +5817,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10379</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>413</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="J44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="K44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="L44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5428,50 +5882,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10379</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5495,41 +5953,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10379</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="J46" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="K46" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="L46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5558,50 +6020,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10379</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5625,50 +6091,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10379</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5692,50 +6162,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10379</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>446</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="J49" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="K49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="L49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="O49" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5749,50 +6223,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10379</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>454</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="J50" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="L50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5816,50 +6294,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10379</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>462</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="J51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="L51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5883,50 +6365,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10379</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>468</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="J52" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="K52" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="L52" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5950,50 +6436,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10379</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>475</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="J53" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="K53" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="L53" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -6017,50 +6507,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10379</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>483</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="O54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6084,50 +6578,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10379</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>491</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="J55" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="K55" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="L55" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="O55" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6151,50 +6649,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>10379</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>498</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="L56" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6218,50 +6720,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>10379</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>506</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="J57" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="K57" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="L57" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6285,50 +6791,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>10379</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>513</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="K58" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="L58" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O58" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6342,50 +6852,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>10379</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="O59" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6409,50 +6923,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>10379</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>527</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="J60" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="K60" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="L60" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="O60" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6476,50 +6994,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>10379</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>533</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="J61" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="K61" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="L61" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="O61" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6543,50 +7065,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10379</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>540</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="J62" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="K62" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="L62" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="O62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6610,50 +7136,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10379</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>546</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="J63" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="K63" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="L63" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6677,50 +7207,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10379</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>553</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="J64" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="K64" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="L64" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6744,50 +7278,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10379</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>560</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="J65" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="K65" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="L65" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6811,50 +7349,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10379</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>568</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="J66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="K66" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="L66" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -6874,56 +7416,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="X66" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="Y66" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10379</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>578</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="J67" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="K67" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="L67" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6947,50 +7493,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10379</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>585</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="J68" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="K68" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="L68" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="O68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7014,50 +7564,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10379</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>592</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="J69" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="K69" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="L69" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="O69" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7081,50 +7635,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10379</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>599</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="J70" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="K70" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="L70" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7148,50 +7706,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10379</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>606</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="J71" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="K71" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="L71" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="O71" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7211,50 +7773,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10379</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="J72" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="K72" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="L72" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="O72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7274,50 +7840,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>10379</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>620</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="J73" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="K73" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="L73" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="O73" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7337,50 +7907,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>10379</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>627</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="J74" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="K74" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="L74" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="O74" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7400,41 +7974,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>10379</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>635</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J75" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="K75" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="L75" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
@@ -7463,50 +8041,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>10379</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>641</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="J76" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="K76" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="L76" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7530,50 +8112,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10379</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>648</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="J77" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="K77" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="L77" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7597,50 +8183,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>10379</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>656</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="J78" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="K78" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="L78" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="O78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7664,50 +8254,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>10379</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>662</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="J79" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="K79" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="L79" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7729,56 +8323,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="X79" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="Y79" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>10379</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>671</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="J80" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="K80" t="s">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="L80" t="s">
-        <v>598</v>
+        <v>676</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="O80" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7802,50 +8400,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>598</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>10379</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>677</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="J81" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="K81" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="L81" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="O81" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7869,50 +8471,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>10379</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>684</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J82" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="K82" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="L82" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="O82" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7936,50 +8542,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>10379</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>691</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="J83" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="K83" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="L83" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="O83" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8003,50 +8613,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>10379</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>698</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="J84" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="K84" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="L84" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8070,50 +8684,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>10379</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>706</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>625</v>
+        <v>708</v>
       </c>
       <c r="J85" t="s">
-        <v>626</v>
+        <v>709</v>
       </c>
       <c r="K85" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
       <c r="L85" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>629</v>
+        <v>712</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8137,50 +8755,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>10379</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>714</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>632</v>
+        <v>716</v>
       </c>
       <c r="J86" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="K86" t="s">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="L86" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="O86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8204,50 +8826,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>10379</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>722</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>638</v>
+        <v>723</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="J87" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="K87" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="L87" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8271,50 +8897,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>10379</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>730</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
       <c r="J88" t="s">
-        <v>647</v>
+        <v>733</v>
       </c>
       <c r="K88" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="L88" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>650</v>
+        <v>736</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8338,50 +8968,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>10379</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>737</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="J89" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="K89" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="L89" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="O89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8405,50 +9039,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>10379</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>744</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
       <c r="J90" t="s">
-        <v>659</v>
+        <v>747</v>
       </c>
       <c r="K90" t="s">
-        <v>660</v>
+        <v>748</v>
       </c>
       <c r="L90" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="O90" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8472,50 +9110,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>10379</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>751</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
       <c r="J91" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="K91" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
       <c r="L91" t="s">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>668</v>
+        <v>757</v>
       </c>
       <c r="O91" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8539,50 +9181,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>10379</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>759</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="J92" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="K92" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="L92" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="O92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8606,50 +9252,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>10379</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>767</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>677</v>
+        <v>768</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>678</v>
+        <v>769</v>
       </c>
       <c r="J93" t="s">
-        <v>679</v>
+        <v>770</v>
       </c>
       <c r="K93" t="s">
-        <v>680</v>
+        <v>771</v>
       </c>
       <c r="L93" t="s">
-        <v>681</v>
+        <v>772</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="O93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8673,50 +9323,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>10379</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>775</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>684</v>
+        <v>776</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>685</v>
+        <v>777</v>
       </c>
       <c r="J94" t="s">
-        <v>686</v>
+        <v>778</v>
       </c>
       <c r="K94" t="s">
-        <v>687</v>
+        <v>779</v>
       </c>
       <c r="L94" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="O94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8738,41 +9392,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>10379</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>783</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>692</v>
+        <v>785</v>
       </c>
       <c r="J95" t="s">
-        <v>693</v>
+        <v>786</v>
       </c>
       <c r="K95" t="s">
-        <v>694</v>
+        <v>787</v>
       </c>
       <c r="L95" t="s">
-        <v>695</v>
+        <v>788</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
@@ -8799,41 +9457,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>10379</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>790</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>697</v>
+        <v>791</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>698</v>
+        <v>792</v>
       </c>
       <c r="J96" t="s">
-        <v>699</v>
+        <v>793</v>
       </c>
       <c r="K96" t="s">
-        <v>700</v>
+        <v>794</v>
       </c>
       <c r="L96" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
@@ -8852,7 +9514,7 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
